--- a/app/resource/xlsx/major_proposal_template_5_case4.xlsx
+++ b/app/resource/xlsx/major_proposal_template_5_case4.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\Bridge_Excel_Template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\engineer3\xero-asana-integration\app\resource\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8C0ED62-65CB-40DE-9109-20D883E271A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1277B54F-E427-48EB-80E7-BBE91E0D83E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{9F1EA209-DB64-4862-B5BC-AB2E13480384}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{9F1EA209-DB64-4862-B5BC-AB2E13480384}"/>
   </bookViews>
   <sheets>
     <sheet name="Fee Proposal" sheetId="11" r:id="rId1"/>
@@ -1887,7 +1887,7 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="23" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="262">
+  <cellXfs count="263">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2195,6 +2195,114 @@
     <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="50" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="51" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="47" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="49" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="48" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -2207,132 +2315,138 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="32" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="32" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="47" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="49" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="50" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="48" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="51" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2354,119 +2468,65 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2489,83 +2549,44 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="6" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2591,26 +2612,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="6" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -3641,9 +3644,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -3681,7 +3684,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -3787,7 +3790,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -3929,7 +3932,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -3940,8 +3943,8 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A27:Y502"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A403" zoomScale="130" zoomScaleNormal="85" zoomScaleSheetLayoutView="130" workbookViewId="0">
-      <selection activeCell="F410" sqref="F410:F411"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A427" zoomScale="130" zoomScaleNormal="85" zoomScaleSheetLayoutView="130" workbookViewId="0">
+      <selection activeCell="G410" sqref="G410:G411"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3958,67 +3961,67 @@
   </cols>
   <sheetData>
     <row r="27" spans="2:8" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="B27" s="159"/>
-      <c r="C27" s="159"/>
-      <c r="D27" s="159"/>
-      <c r="E27" s="159"/>
-      <c r="F27" s="159"/>
-      <c r="G27" s="159"/>
-      <c r="H27" s="159"/>
+      <c r="B27" s="126"/>
+      <c r="C27" s="126"/>
+      <c r="D27" s="126"/>
+      <c r="E27" s="126"/>
+      <c r="F27" s="126"/>
+      <c r="G27" s="126"/>
+      <c r="H27" s="126"/>
     </row>
     <row r="31" spans="2:8" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="C31" s="160"/>
-      <c r="D31" s="160"/>
-      <c r="E31" s="160"/>
-      <c r="F31" s="160"/>
-      <c r="G31" s="160"/>
+      <c r="C31" s="128"/>
+      <c r="D31" s="128"/>
+      <c r="E31" s="128"/>
+      <c r="F31" s="128"/>
+      <c r="G31" s="128"/>
     </row>
     <row r="37" spans="1:16" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A37" s="120" t="s">
         <v>228</v>
       </c>
-      <c r="F37" s="163" t="s">
+      <c r="F37" s="131" t="s">
         <v>231</v>
       </c>
-      <c r="G37" s="163"/>
-      <c r="H37" s="163"/>
-      <c r="I37" s="163"/>
+      <c r="G37" s="131"/>
+      <c r="H37" s="131"/>
+      <c r="I37" s="131"/>
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="F38" s="162" t="s">
+      <c r="F38" s="130" t="s">
         <v>67</v>
       </c>
-      <c r="G38" s="162"/>
-      <c r="H38" s="162"/>
-      <c r="I38" s="162"/>
+      <c r="G38" s="130"/>
+      <c r="H38" s="130"/>
+      <c r="I38" s="130"/>
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A39" s="35"/>
       <c r="B39" s="35"/>
       <c r="C39" s="35"/>
       <c r="D39" s="35"/>
-      <c r="F39" s="162" t="s">
+      <c r="F39" s="130" t="s">
         <v>5</v>
       </c>
-      <c r="G39" s="162"/>
-      <c r="H39" s="162"/>
-      <c r="I39" s="162"/>
+      <c r="G39" s="130"/>
+      <c r="H39" s="130"/>
+      <c r="I39" s="130"/>
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="F40" s="162" t="s">
+      <c r="F40" s="130" t="s">
         <v>229</v>
       </c>
-      <c r="G40" s="162"/>
-      <c r="H40" s="162"/>
-      <c r="I40" s="162"/>
+      <c r="G40" s="130"/>
+      <c r="H40" s="130"/>
+      <c r="I40" s="130"/>
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="F41" s="162" t="s">
+      <c r="F41" s="130" t="s">
         <v>230</v>
       </c>
-      <c r="G41" s="162"/>
-      <c r="H41" s="162"/>
-      <c r="I41" s="162"/>
+      <c r="G41" s="130"/>
+      <c r="H41" s="130"/>
+      <c r="I41" s="130"/>
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A42" s="11" t="s">
@@ -4026,10 +4029,10 @@
       </c>
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A43" s="161"/>
-      <c r="B43" s="161"/>
-      <c r="C43" s="161"/>
-      <c r="D43" s="161"/>
+      <c r="A43" s="129"/>
+      <c r="B43" s="129"/>
+      <c r="C43" s="129"/>
+      <c r="D43" s="129"/>
       <c r="I43" s="33" t="s">
         <v>242</v>
       </c>
@@ -4038,16 +4041,16 @@
       <c r="A45" s="57" t="s">
         <v>281</v>
       </c>
-      <c r="B45" s="130"/>
-      <c r="C45" s="130" t="e">
+      <c r="B45" s="123"/>
+      <c r="C45" s="123" t="e">
         <f>IF(#REF!&lt;&gt;"",#REF!,"")</f>
         <v>#REF!</v>
       </c>
       <c r="G45" s="35" t="s">
         <v>204</v>
       </c>
-      <c r="H45" s="130"/>
-      <c r="I45" s="130"/>
+      <c r="H45" s="123"/>
+      <c r="I45" s="123"/>
     </row>
     <row r="46" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D46" s="40"/>
@@ -4055,10 +4058,10 @@
       <c r="G46" s="35" t="s">
         <v>131</v>
       </c>
-      <c r="H46" s="146"/>
-      <c r="I46" s="146"/>
-      <c r="K46" s="130"/>
-      <c r="L46" s="130"/>
+      <c r="H46" s="137"/>
+      <c r="I46" s="137"/>
+      <c r="K46" s="123"/>
+      <c r="L46" s="123"/>
       <c r="M46" s="40"/>
       <c r="N46" s="40"/>
       <c r="O46" s="45"/>
@@ -4121,15 +4124,15 @@
       <c r="P50" s="39"/>
     </row>
     <row r="51" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="148"/>
-      <c r="B51" s="148"/>
-      <c r="C51" s="148"/>
-      <c r="D51" s="148"/>
-      <c r="E51" s="148"/>
-      <c r="F51" s="148"/>
-      <c r="G51" s="148"/>
-      <c r="H51" s="148"/>
-      <c r="I51" s="148"/>
+      <c r="A51" s="139"/>
+      <c r="B51" s="139"/>
+      <c r="C51" s="139"/>
+      <c r="D51" s="139"/>
+      <c r="E51" s="139"/>
+      <c r="F51" s="139"/>
+      <c r="G51" s="139"/>
+      <c r="H51" s="139"/>
+      <c r="I51" s="139"/>
       <c r="K51" s="44"/>
       <c r="L51" s="11"/>
       <c r="M51" s="11"/>
@@ -4154,26 +4157,26 @@
       <c r="P52" s="36"/>
     </row>
     <row r="53" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="131"/>
-      <c r="B53" s="131"/>
-      <c r="C53" s="131"/>
-      <c r="D53" s="131"/>
-      <c r="E53" s="131"/>
-      <c r="F53" s="131"/>
-      <c r="G53" s="131"/>
-      <c r="H53" s="131"/>
-      <c r="I53" s="131"/>
+      <c r="A53" s="127"/>
+      <c r="B53" s="127"/>
+      <c r="C53" s="127"/>
+      <c r="D53" s="127"/>
+      <c r="E53" s="127"/>
+      <c r="F53" s="127"/>
+      <c r="G53" s="127"/>
+      <c r="H53" s="127"/>
+      <c r="I53" s="127"/>
     </row>
     <row r="54" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="131"/>
-      <c r="B54" s="131"/>
-      <c r="C54" s="131"/>
-      <c r="D54" s="131"/>
-      <c r="E54" s="131"/>
-      <c r="F54" s="131"/>
-      <c r="G54" s="131"/>
-      <c r="H54" s="131"/>
-      <c r="I54" s="131"/>
+      <c r="A54" s="127"/>
+      <c r="B54" s="127"/>
+      <c r="C54" s="127"/>
+      <c r="D54" s="127"/>
+      <c r="E54" s="127"/>
+      <c r="F54" s="127"/>
+      <c r="G54" s="127"/>
+      <c r="H54" s="127"/>
+      <c r="I54" s="127"/>
       <c r="J54" s="29"/>
       <c r="K54" s="29"/>
       <c r="L54" s="29"/>
@@ -4181,93 +4184,93 @@
       <c r="N54" s="29"/>
       <c r="O54" s="29"/>
       <c r="P54" s="29"/>
-      <c r="Q54" s="147"/>
-      <c r="R54" s="147"/>
-      <c r="S54" s="147"/>
-      <c r="T54" s="147"/>
-      <c r="U54" s="147"/>
-      <c r="V54" s="147"/>
-      <c r="W54" s="147"/>
-      <c r="X54" s="147"/>
+      <c r="Q54" s="138"/>
+      <c r="R54" s="138"/>
+      <c r="S54" s="138"/>
+      <c r="T54" s="138"/>
+      <c r="U54" s="138"/>
+      <c r="V54" s="138"/>
+      <c r="W54" s="138"/>
+      <c r="X54" s="138"/>
     </row>
     <row r="55" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="56" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="131" t="s">
+      <c r="A56" s="127" t="s">
         <v>243</v>
       </c>
-      <c r="B56" s="131"/>
-      <c r="C56" s="131"/>
-      <c r="D56" s="131"/>
-      <c r="E56" s="131"/>
-      <c r="F56" s="131"/>
-      <c r="G56" s="131"/>
-      <c r="H56" s="131"/>
-      <c r="I56" s="131"/>
-      <c r="M56" s="145"/>
-      <c r="N56" s="145"/>
-      <c r="O56" s="145"/>
-      <c r="P56" s="145"/>
-      <c r="Q56" s="145"/>
-      <c r="R56" s="145"/>
-      <c r="S56" s="145"/>
-      <c r="T56" s="145"/>
+      <c r="B56" s="127"/>
+      <c r="C56" s="127"/>
+      <c r="D56" s="127"/>
+      <c r="E56" s="127"/>
+      <c r="F56" s="127"/>
+      <c r="G56" s="127"/>
+      <c r="H56" s="127"/>
+      <c r="I56" s="127"/>
+      <c r="M56" s="136"/>
+      <c r="N56" s="136"/>
+      <c r="O56" s="136"/>
+      <c r="P56" s="136"/>
+      <c r="Q56" s="136"/>
+      <c r="R56" s="136"/>
+      <c r="S56" s="136"/>
+      <c r="T56" s="136"/>
     </row>
     <row r="57" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="131"/>
-      <c r="B57" s="131"/>
-      <c r="C57" s="131"/>
-      <c r="D57" s="131"/>
-      <c r="E57" s="131"/>
-      <c r="F57" s="131"/>
-      <c r="G57" s="131"/>
-      <c r="H57" s="131"/>
-      <c r="I57" s="131"/>
-      <c r="M57" s="145"/>
-      <c r="N57" s="145"/>
-      <c r="O57" s="145"/>
-      <c r="P57" s="145"/>
-      <c r="Q57" s="145"/>
-      <c r="R57" s="145"/>
-      <c r="S57" s="145"/>
-      <c r="T57" s="145"/>
+      <c r="A57" s="127"/>
+      <c r="B57" s="127"/>
+      <c r="C57" s="127"/>
+      <c r="D57" s="127"/>
+      <c r="E57" s="127"/>
+      <c r="F57" s="127"/>
+      <c r="G57" s="127"/>
+      <c r="H57" s="127"/>
+      <c r="I57" s="127"/>
+      <c r="M57" s="136"/>
+      <c r="N57" s="136"/>
+      <c r="O57" s="136"/>
+      <c r="P57" s="136"/>
+      <c r="Q57" s="136"/>
+      <c r="R57" s="136"/>
+      <c r="S57" s="136"/>
+      <c r="T57" s="136"/>
     </row>
     <row r="58" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="131"/>
-      <c r="B58" s="131"/>
-      <c r="C58" s="131"/>
-      <c r="D58" s="131"/>
-      <c r="E58" s="131"/>
-      <c r="F58" s="131"/>
-      <c r="G58" s="131"/>
-      <c r="H58" s="131"/>
-      <c r="I58" s="131"/>
-      <c r="M58" s="145"/>
-      <c r="N58" s="145"/>
-      <c r="O58" s="145"/>
-      <c r="P58" s="145"/>
-      <c r="Q58" s="145"/>
-      <c r="R58" s="145"/>
-      <c r="S58" s="145"/>
-      <c r="T58" s="145"/>
+      <c r="A58" s="127"/>
+      <c r="B58" s="127"/>
+      <c r="C58" s="127"/>
+      <c r="D58" s="127"/>
+      <c r="E58" s="127"/>
+      <c r="F58" s="127"/>
+      <c r="G58" s="127"/>
+      <c r="H58" s="127"/>
+      <c r="I58" s="127"/>
+      <c r="M58" s="136"/>
+      <c r="N58" s="136"/>
+      <c r="O58" s="136"/>
+      <c r="P58" s="136"/>
+      <c r="Q58" s="136"/>
+      <c r="R58" s="136"/>
+      <c r="S58" s="136"/>
+      <c r="T58" s="136"/>
     </row>
     <row r="59" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="131"/>
-      <c r="B59" s="131"/>
-      <c r="C59" s="131"/>
-      <c r="D59" s="131"/>
-      <c r="E59" s="131"/>
-      <c r="F59" s="131"/>
-      <c r="G59" s="131"/>
-      <c r="H59" s="131"/>
-      <c r="I59" s="131"/>
-      <c r="M59" s="145"/>
-      <c r="N59" s="145"/>
-      <c r="O59" s="145"/>
-      <c r="P59" s="145"/>
-      <c r="Q59" s="145"/>
-      <c r="R59" s="145"/>
-      <c r="S59" s="145"/>
-      <c r="T59" s="145"/>
+      <c r="A59" s="127"/>
+      <c r="B59" s="127"/>
+      <c r="C59" s="127"/>
+      <c r="D59" s="127"/>
+      <c r="E59" s="127"/>
+      <c r="F59" s="127"/>
+      <c r="G59" s="127"/>
+      <c r="H59" s="127"/>
+      <c r="I59" s="127"/>
+      <c r="M59" s="136"/>
+      <c r="N59" s="136"/>
+      <c r="O59" s="136"/>
+      <c r="P59" s="136"/>
+      <c r="Q59" s="136"/>
+      <c r="R59" s="136"/>
+      <c r="S59" s="136"/>
+      <c r="T59" s="136"/>
     </row>
     <row r="60" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B60" s="16"/>
@@ -4285,30 +4288,30 @@
       <c r="P60" s="42"/>
     </row>
     <row r="61" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="131" t="s">
+      <c r="A61" s="127" t="s">
         <v>244</v>
       </c>
-      <c r="B61" s="131"/>
-      <c r="C61" s="131"/>
-      <c r="D61" s="131"/>
-      <c r="E61" s="131"/>
-      <c r="F61" s="131"/>
-      <c r="G61" s="131"/>
-      <c r="H61" s="131"/>
-      <c r="I61" s="131"/>
+      <c r="B61" s="127"/>
+      <c r="C61" s="127"/>
+      <c r="D61" s="127"/>
+      <c r="E61" s="127"/>
+      <c r="F61" s="127"/>
+      <c r="G61" s="127"/>
+      <c r="H61" s="127"/>
+      <c r="I61" s="127"/>
       <c r="K61" s="11"/>
       <c r="L61" s="11"/>
     </row>
     <row r="62" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="131"/>
-      <c r="B62" s="131"/>
-      <c r="C62" s="131"/>
-      <c r="D62" s="131"/>
-      <c r="E62" s="131"/>
-      <c r="F62" s="131"/>
-      <c r="G62" s="131"/>
-      <c r="H62" s="131"/>
-      <c r="I62" s="131"/>
+      <c r="A62" s="127"/>
+      <c r="B62" s="127"/>
+      <c r="C62" s="127"/>
+      <c r="D62" s="127"/>
+      <c r="E62" s="127"/>
+      <c r="F62" s="127"/>
+      <c r="G62" s="127"/>
+      <c r="H62" s="127"/>
+      <c r="I62" s="127"/>
       <c r="K62" s="35"/>
       <c r="M62" s="35"/>
       <c r="R62" s="35"/>
@@ -4320,16 +4323,16 @@
         <f t="shared" ref="A63:A66" si="0">IF(B63&lt;&gt;"","•","")</f>
         <v>•</v>
       </c>
-      <c r="B63" s="131" t="s">
+      <c r="B63" s="127" t="s">
         <v>275</v>
       </c>
-      <c r="C63" s="131"/>
-      <c r="D63" s="131"/>
-      <c r="E63" s="131"/>
-      <c r="F63" s="131"/>
-      <c r="G63" s="131"/>
-      <c r="H63" s="131"/>
-      <c r="I63" s="131"/>
+      <c r="C63" s="127"/>
+      <c r="D63" s="127"/>
+      <c r="E63" s="127"/>
+      <c r="F63" s="127"/>
+      <c r="G63" s="127"/>
+      <c r="H63" s="127"/>
+      <c r="I63" s="127"/>
       <c r="U63" s="47"/>
       <c r="V63" s="47"/>
       <c r="W63" s="48"/>
@@ -4339,32 +4342,32 @@
         <f t="shared" si="0"/>
         <v>•</v>
       </c>
-      <c r="B64" s="131" t="s">
+      <c r="B64" s="127" t="s">
         <v>246</v>
       </c>
-      <c r="C64" s="131"/>
-      <c r="D64" s="131"/>
-      <c r="E64" s="131"/>
-      <c r="F64" s="131"/>
-      <c r="G64" s="131"/>
-      <c r="H64" s="131"/>
-      <c r="I64" s="131"/>
+      <c r="C64" s="127"/>
+      <c r="D64" s="127"/>
+      <c r="E64" s="127"/>
+      <c r="F64" s="127"/>
+      <c r="G64" s="127"/>
+      <c r="H64" s="127"/>
+      <c r="I64" s="127"/>
     </row>
     <row r="65" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="31" t="str">
         <f t="shared" si="0"/>
         <v>•</v>
       </c>
-      <c r="B65" s="131" t="s">
+      <c r="B65" s="127" t="s">
         <v>247</v>
       </c>
-      <c r="C65" s="131"/>
-      <c r="D65" s="131"/>
-      <c r="E65" s="131"/>
-      <c r="F65" s="131"/>
-      <c r="G65" s="131"/>
-      <c r="H65" s="131"/>
-      <c r="I65" s="131"/>
+      <c r="C65" s="127"/>
+      <c r="D65" s="127"/>
+      <c r="E65" s="127"/>
+      <c r="F65" s="127"/>
+      <c r="G65" s="127"/>
+      <c r="H65" s="127"/>
+      <c r="I65" s="127"/>
       <c r="K65" s="36"/>
       <c r="L65" s="33"/>
     </row>
@@ -4373,16 +4376,16 @@
         <f t="shared" si="0"/>
         <v>•</v>
       </c>
-      <c r="B66" s="131" t="s">
+      <c r="B66" s="127" t="s">
         <v>248</v>
       </c>
-      <c r="C66" s="131"/>
-      <c r="D66" s="131"/>
-      <c r="E66" s="131"/>
-      <c r="F66" s="131"/>
-      <c r="G66" s="131"/>
-      <c r="H66" s="131"/>
-      <c r="I66" s="131"/>
+      <c r="C66" s="127"/>
+      <c r="D66" s="127"/>
+      <c r="E66" s="127"/>
+      <c r="F66" s="127"/>
+      <c r="G66" s="127"/>
+      <c r="H66" s="127"/>
+      <c r="I66" s="127"/>
       <c r="K66" s="11"/>
       <c r="L66" s="11"/>
       <c r="Q66" s="43"/>
@@ -4403,29 +4406,29 @@
       <c r="V67" s="43"/>
     </row>
     <row r="68" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="131" t="s">
+      <c r="A68" s="127" t="s">
         <v>245</v>
       </c>
-      <c r="B68" s="131"/>
-      <c r="C68" s="131"/>
-      <c r="D68" s="131"/>
-      <c r="E68" s="131"/>
-      <c r="F68" s="131"/>
-      <c r="G68" s="131"/>
-      <c r="H68" s="131"/>
-      <c r="I68" s="131"/>
+      <c r="B68" s="127"/>
+      <c r="C68" s="127"/>
+      <c r="D68" s="127"/>
+      <c r="E68" s="127"/>
+      <c r="F68" s="127"/>
+      <c r="G68" s="127"/>
+      <c r="H68" s="127"/>
+      <c r="I68" s="127"/>
       <c r="W68" s="43"/>
     </row>
     <row r="69" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="131"/>
-      <c r="B69" s="131"/>
-      <c r="C69" s="131"/>
-      <c r="D69" s="131"/>
-      <c r="E69" s="131"/>
-      <c r="F69" s="131"/>
-      <c r="G69" s="131"/>
-      <c r="H69" s="131"/>
-      <c r="I69" s="131"/>
+      <c r="A69" s="127"/>
+      <c r="B69" s="127"/>
+      <c r="C69" s="127"/>
+      <c r="D69" s="127"/>
+      <c r="E69" s="127"/>
+      <c r="F69" s="127"/>
+      <c r="G69" s="127"/>
+      <c r="H69" s="127"/>
+      <c r="I69" s="127"/>
       <c r="M69" s="35"/>
       <c r="W69" s="43"/>
     </row>
@@ -4574,24 +4577,24 @@
       </c>
     </row>
     <row r="86" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B86" s="131"/>
-      <c r="C86" s="131"/>
-      <c r="D86" s="131"/>
-      <c r="E86" s="131"/>
-      <c r="F86" s="131"/>
-      <c r="G86" s="131"/>
-      <c r="H86" s="131"/>
-      <c r="I86" s="131"/>
+      <c r="B86" s="127"/>
+      <c r="C86" s="127"/>
+      <c r="D86" s="127"/>
+      <c r="E86" s="127"/>
+      <c r="F86" s="127"/>
+      <c r="G86" s="127"/>
+      <c r="H86" s="127"/>
+      <c r="I86" s="127"/>
     </row>
     <row r="87" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B87" s="131"/>
-      <c r="C87" s="131"/>
-      <c r="D87" s="131"/>
-      <c r="E87" s="131"/>
-      <c r="F87" s="131"/>
-      <c r="G87" s="131"/>
-      <c r="H87" s="131"/>
-      <c r="I87" s="131"/>
+      <c r="B87" s="127"/>
+      <c r="C87" s="127"/>
+      <c r="D87" s="127"/>
+      <c r="E87" s="127"/>
+      <c r="F87" s="127"/>
+      <c r="G87" s="127"/>
+      <c r="H87" s="127"/>
+      <c r="I87" s="127"/>
     </row>
     <row r="88" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="89" spans="1:18" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4640,16 +4643,16 @@
     </row>
     <row r="91" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="1"/>
-      <c r="B91" s="131" t="s">
+      <c r="B91" s="127" t="s">
         <v>249</v>
       </c>
-      <c r="C91" s="131"/>
-      <c r="D91" s="131"/>
-      <c r="E91" s="131"/>
-      <c r="F91" s="131"/>
-      <c r="G91" s="131"/>
-      <c r="H91" s="131"/>
-      <c r="I91" s="131"/>
+      <c r="C91" s="127"/>
+      <c r="D91" s="127"/>
+      <c r="E91" s="127"/>
+      <c r="F91" s="127"/>
+      <c r="G91" s="127"/>
+      <c r="H91" s="127"/>
+      <c r="I91" s="127"/>
       <c r="L91" s="36"/>
       <c r="M91" s="36"/>
       <c r="N91" s="36"/>
@@ -4658,25 +4661,25 @@
     </row>
     <row r="92" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="1"/>
-      <c r="B92" s="131"/>
-      <c r="C92" s="131"/>
-      <c r="D92" s="131"/>
-      <c r="E92" s="131"/>
-      <c r="F92" s="131"/>
-      <c r="G92" s="131"/>
-      <c r="H92" s="131"/>
-      <c r="I92" s="131"/>
+      <c r="B92" s="127"/>
+      <c r="C92" s="127"/>
+      <c r="D92" s="127"/>
+      <c r="E92" s="127"/>
+      <c r="F92" s="127"/>
+      <c r="G92" s="127"/>
+      <c r="H92" s="127"/>
+      <c r="I92" s="127"/>
     </row>
     <row r="93" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="1"/>
-      <c r="B93" s="131"/>
-      <c r="C93" s="131"/>
-      <c r="D93" s="131"/>
-      <c r="E93" s="131"/>
-      <c r="F93" s="131"/>
-      <c r="G93" s="131"/>
-      <c r="H93" s="131"/>
-      <c r="I93" s="131"/>
+      <c r="B93" s="127"/>
+      <c r="C93" s="127"/>
+      <c r="D93" s="127"/>
+      <c r="E93" s="127"/>
+      <c r="F93" s="127"/>
+      <c r="G93" s="127"/>
+      <c r="H93" s="127"/>
+      <c r="I93" s="127"/>
     </row>
     <row r="94" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="1"/>
@@ -4912,255 +4915,255 @@
     </row>
     <row r="114" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="109"/>
-      <c r="B114" s="136"/>
-      <c r="C114" s="137"/>
-      <c r="D114" s="137"/>
-      <c r="E114" s="137"/>
-      <c r="F114" s="137"/>
-      <c r="G114" s="137"/>
-      <c r="H114" s="137"/>
-      <c r="I114" s="142"/>
+      <c r="B114" s="262"/>
+      <c r="C114" s="262"/>
+      <c r="D114" s="262"/>
+      <c r="E114" s="262"/>
+      <c r="F114" s="262"/>
+      <c r="G114" s="262"/>
+      <c r="H114" s="262"/>
+      <c r="I114" s="262"/>
       <c r="L114" s="1"/>
       <c r="M114" s="84"/>
       <c r="P114" s="42"/>
     </row>
     <row r="115" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="109"/>
-      <c r="B115" s="138"/>
-      <c r="C115" s="139"/>
-      <c r="D115" s="139"/>
-      <c r="E115" s="139"/>
-      <c r="F115" s="139"/>
-      <c r="G115" s="139"/>
-      <c r="H115" s="139"/>
-      <c r="I115" s="143"/>
+      <c r="B115" s="262"/>
+      <c r="C115" s="262"/>
+      <c r="D115" s="262"/>
+      <c r="E115" s="262"/>
+      <c r="F115" s="262"/>
+      <c r="G115" s="262"/>
+      <c r="H115" s="262"/>
+      <c r="I115" s="262"/>
       <c r="L115" s="1"/>
       <c r="M115" s="84"/>
       <c r="P115" s="42"/>
     </row>
     <row r="116" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="109"/>
-      <c r="B116" s="140"/>
-      <c r="C116" s="141"/>
-      <c r="D116" s="141"/>
-      <c r="E116" s="141"/>
-      <c r="F116" s="141"/>
-      <c r="G116" s="141"/>
-      <c r="H116" s="141"/>
-      <c r="I116" s="144"/>
+      <c r="B116" s="142"/>
+      <c r="C116" s="142"/>
+      <c r="D116" s="142"/>
+      <c r="E116" s="142"/>
+      <c r="F116" s="142"/>
+      <c r="G116" s="142"/>
+      <c r="H116" s="142"/>
+      <c r="I116" s="142"/>
       <c r="L116" s="1"/>
       <c r="M116" s="84"/>
       <c r="P116" s="42"/>
     </row>
     <row r="117" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="109"/>
-      <c r="B117" s="136" t="s">
+      <c r="B117" s="156" t="s">
         <v>291</v>
       </c>
-      <c r="C117" s="137"/>
-      <c r="D117" s="137" t="s">
+      <c r="C117" s="262"/>
+      <c r="D117" s="262" t="s">
         <v>238</v>
       </c>
-      <c r="E117" s="137"/>
-      <c r="F117" s="137"/>
-      <c r="G117" s="137"/>
-      <c r="H117" s="137"/>
-      <c r="I117" s="142"/>
+      <c r="E117" s="262"/>
+      <c r="F117" s="262"/>
+      <c r="G117" s="262"/>
+      <c r="H117" s="262"/>
+      <c r="I117" s="141"/>
       <c r="L117" s="1"/>
       <c r="M117" s="84"/>
       <c r="P117" s="42"/>
     </row>
     <row r="118" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="109"/>
-      <c r="B118" s="138"/>
-      <c r="C118" s="139"/>
-      <c r="D118" s="139" t="s">
+      <c r="B118" s="156"/>
+      <c r="C118" s="140"/>
+      <c r="D118" s="140" t="s">
         <v>273</v>
       </c>
-      <c r="E118" s="139"/>
-      <c r="F118" s="139"/>
-      <c r="G118" s="139"/>
-      <c r="H118" s="139"/>
-      <c r="I118" s="143"/>
+      <c r="E118" s="140"/>
+      <c r="F118" s="140"/>
+      <c r="G118" s="140"/>
+      <c r="H118" s="140"/>
+      <c r="I118" s="141"/>
       <c r="L118" s="1"/>
       <c r="M118" s="84"/>
       <c r="P118" s="42"/>
     </row>
     <row r="119" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="109"/>
-      <c r="B119" s="140"/>
-      <c r="C119" s="141"/>
-      <c r="D119" s="141" t="s">
+      <c r="B119" s="157"/>
+      <c r="C119" s="142"/>
+      <c r="D119" s="142" t="s">
         <v>257</v>
       </c>
-      <c r="E119" s="141"/>
-      <c r="F119" s="141"/>
-      <c r="G119" s="141"/>
-      <c r="H119" s="141"/>
-      <c r="I119" s="144"/>
+      <c r="E119" s="142"/>
+      <c r="F119" s="142"/>
+      <c r="G119" s="142"/>
+      <c r="H119" s="142"/>
+      <c r="I119" s="143"/>
       <c r="L119" s="1"/>
       <c r="M119" s="84"/>
       <c r="P119" s="42"/>
     </row>
     <row r="120" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="109"/>
-      <c r="B120" s="136" t="s">
+      <c r="B120" s="154" t="s">
         <v>292</v>
       </c>
-      <c r="C120" s="137"/>
-      <c r="D120" s="137" t="s">
+      <c r="C120" s="155"/>
+      <c r="D120" s="155" t="s">
         <v>238</v>
       </c>
-      <c r="E120" s="137"/>
-      <c r="F120" s="137"/>
-      <c r="G120" s="137"/>
-      <c r="H120" s="137"/>
-      <c r="I120" s="142"/>
+      <c r="E120" s="155"/>
+      <c r="F120" s="155"/>
+      <c r="G120" s="155"/>
+      <c r="H120" s="155"/>
+      <c r="I120" s="158"/>
       <c r="L120" s="1"/>
       <c r="M120" s="84"/>
       <c r="P120" s="42"/>
     </row>
     <row r="121" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="109"/>
-      <c r="B121" s="138"/>
-      <c r="C121" s="139"/>
-      <c r="D121" s="139" t="s">
+      <c r="B121" s="156"/>
+      <c r="C121" s="140"/>
+      <c r="D121" s="140" t="s">
         <v>239</v>
       </c>
-      <c r="E121" s="139"/>
-      <c r="F121" s="139"/>
-      <c r="G121" s="139"/>
-      <c r="H121" s="139"/>
-      <c r="I121" s="143"/>
+      <c r="E121" s="140"/>
+      <c r="F121" s="140"/>
+      <c r="G121" s="140"/>
+      <c r="H121" s="140"/>
+      <c r="I121" s="141"/>
       <c r="L121" s="1"/>
       <c r="M121" s="84"/>
       <c r="P121" s="42"/>
     </row>
     <row r="122" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="109"/>
-      <c r="B122" s="138"/>
-      <c r="C122" s="139"/>
-      <c r="D122" s="139" t="s">
+      <c r="B122" s="156"/>
+      <c r="C122" s="140"/>
+      <c r="D122" s="140" t="s">
         <v>293</v>
       </c>
-      <c r="E122" s="139"/>
-      <c r="F122" s="139"/>
-      <c r="G122" s="139"/>
-      <c r="H122" s="139"/>
-      <c r="I122" s="143"/>
+      <c r="E122" s="140"/>
+      <c r="F122" s="140"/>
+      <c r="G122" s="140"/>
+      <c r="H122" s="140"/>
+      <c r="I122" s="141"/>
       <c r="L122" s="1"/>
       <c r="M122" s="84"/>
       <c r="P122" s="42"/>
     </row>
     <row r="123" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="109"/>
-      <c r="B123" s="138"/>
-      <c r="C123" s="139"/>
-      <c r="D123" s="139" t="s">
+      <c r="B123" s="156"/>
+      <c r="C123" s="140"/>
+      <c r="D123" s="140" t="s">
         <v>257</v>
       </c>
-      <c r="E123" s="139"/>
-      <c r="F123" s="139"/>
-      <c r="G123" s="139"/>
-      <c r="H123" s="139"/>
-      <c r="I123" s="143"/>
+      <c r="E123" s="140"/>
+      <c r="F123" s="140"/>
+      <c r="G123" s="140"/>
+      <c r="H123" s="140"/>
+      <c r="I123" s="141"/>
       <c r="L123" s="1"/>
       <c r="M123" s="84"/>
       <c r="P123" s="42"/>
     </row>
     <row r="124" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="109"/>
-      <c r="B124" s="140"/>
-      <c r="C124" s="141"/>
-      <c r="D124" s="141" t="s">
+      <c r="B124" s="157"/>
+      <c r="C124" s="142"/>
+      <c r="D124" s="142" t="s">
         <v>276</v>
       </c>
-      <c r="E124" s="141"/>
-      <c r="F124" s="141"/>
-      <c r="G124" s="141"/>
-      <c r="H124" s="141"/>
-      <c r="I124" s="144"/>
+      <c r="E124" s="142"/>
+      <c r="F124" s="142"/>
+      <c r="G124" s="142"/>
+      <c r="H124" s="142"/>
+      <c r="I124" s="143"/>
       <c r="L124" s="1"/>
       <c r="M124" s="84"/>
       <c r="P124" s="42"/>
     </row>
     <row r="125" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="109"/>
-      <c r="B125" s="149" t="s">
+      <c r="B125" s="144" t="s">
         <v>256</v>
       </c>
-      <c r="C125" s="150"/>
-      <c r="D125" s="150" t="s">
+      <c r="C125" s="145"/>
+      <c r="D125" s="145" t="s">
         <v>261</v>
       </c>
-      <c r="E125" s="150"/>
-      <c r="F125" s="150"/>
-      <c r="G125" s="150"/>
-      <c r="H125" s="150"/>
-      <c r="I125" s="155"/>
+      <c r="E125" s="145"/>
+      <c r="F125" s="145"/>
+      <c r="G125" s="145"/>
+      <c r="H125" s="145"/>
+      <c r="I125" s="149"/>
       <c r="L125" s="1"/>
       <c r="M125" s="84"/>
       <c r="P125" s="42"/>
     </row>
     <row r="126" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="109"/>
-      <c r="B126" s="151"/>
-      <c r="C126" s="152"/>
-      <c r="D126" s="152" t="s">
+      <c r="B126" s="146"/>
+      <c r="C126" s="147"/>
+      <c r="D126" s="147" t="s">
         <v>262</v>
       </c>
-      <c r="E126" s="152"/>
-      <c r="F126" s="152"/>
-      <c r="G126" s="152"/>
-      <c r="H126" s="152"/>
-      <c r="I126" s="156"/>
+      <c r="E126" s="147"/>
+      <c r="F126" s="147"/>
+      <c r="G126" s="147"/>
+      <c r="H126" s="147"/>
+      <c r="I126" s="150"/>
       <c r="L126" s="1"/>
       <c r="M126" s="84"/>
       <c r="P126" s="42"/>
     </row>
     <row r="127" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="108"/>
-      <c r="B127" s="151"/>
-      <c r="C127" s="152"/>
-      <c r="D127" s="152" t="s">
+      <c r="B127" s="146"/>
+      <c r="C127" s="147"/>
+      <c r="D127" s="147" t="s">
         <v>263</v>
       </c>
-      <c r="E127" s="152"/>
-      <c r="F127" s="152"/>
-      <c r="G127" s="152"/>
-      <c r="H127" s="152"/>
-      <c r="I127" s="156"/>
+      <c r="E127" s="147"/>
+      <c r="F127" s="147"/>
+      <c r="G127" s="147"/>
+      <c r="H127" s="147"/>
+      <c r="I127" s="150"/>
       <c r="M127" s="85"/>
       <c r="P127" s="42"/>
     </row>
     <row r="128" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="108"/>
-      <c r="B128" s="151"/>
-      <c r="C128" s="152"/>
-      <c r="D128" s="152" t="s">
+      <c r="B128" s="146"/>
+      <c r="C128" s="147"/>
+      <c r="D128" s="147" t="s">
         <v>294</v>
       </c>
-      <c r="E128" s="152"/>
-      <c r="F128" s="152"/>
-      <c r="G128" s="152"/>
-      <c r="H128" s="152"/>
-      <c r="I128" s="156"/>
+      <c r="E128" s="147"/>
+      <c r="F128" s="147"/>
+      <c r="G128" s="147"/>
+      <c r="H128" s="147"/>
+      <c r="I128" s="150"/>
       <c r="M128" s="85"/>
       <c r="O128" s="42"/>
       <c r="P128" s="42"/>
     </row>
     <row r="129" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="108"/>
-      <c r="B129" s="153"/>
-      <c r="C129" s="154"/>
-      <c r="D129" s="154" t="s">
+      <c r="B129" s="148"/>
+      <c r="C129" s="132"/>
+      <c r="D129" s="132" t="s">
         <v>295</v>
       </c>
-      <c r="E129" s="154"/>
-      <c r="F129" s="154"/>
-      <c r="G129" s="154"/>
-      <c r="H129" s="154"/>
-      <c r="I129" s="164"/>
+      <c r="E129" s="132"/>
+      <c r="F129" s="132"/>
+      <c r="G129" s="132"/>
+      <c r="H129" s="132"/>
+      <c r="I129" s="133"/>
       <c r="M129" s="85"/>
       <c r="O129" s="42"/>
       <c r="P129" s="42"/>
@@ -6879,16 +6882,16 @@
         <f t="shared" ref="L272:L329" si="2">IF(M272&lt;&gt;"","•","")</f>
         <v>•</v>
       </c>
-      <c r="M272" s="132" t="s">
+      <c r="M272" s="125" t="s">
         <v>250</v>
       </c>
-      <c r="N272" s="132"/>
-      <c r="O272" s="132"/>
-      <c r="P272" s="132"/>
-      <c r="Q272" s="132"/>
-      <c r="R272" s="132"/>
-      <c r="S272" s="132"/>
-      <c r="T272" s="132"/>
+      <c r="N272" s="125"/>
+      <c r="O272" s="125"/>
+      <c r="P272" s="125"/>
+      <c r="Q272" s="125"/>
+      <c r="R272" s="125"/>
+      <c r="S272" s="125"/>
+      <c r="T272" s="125"/>
     </row>
     <row r="273" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A273" s="31"/>
@@ -7448,16 +7451,16 @@
         <f t="shared" si="2"/>
         <v>•</v>
       </c>
-      <c r="M319" s="132" t="s">
+      <c r="M319" s="125" t="s">
         <v>251</v>
       </c>
-      <c r="N319" s="132"/>
-      <c r="O319" s="132"/>
-      <c r="P319" s="132"/>
-      <c r="Q319" s="132"/>
-      <c r="R319" s="132"/>
-      <c r="S319" s="132"/>
-      <c r="T319" s="132"/>
+      <c r="N319" s="125"/>
+      <c r="O319" s="125"/>
+      <c r="P319" s="125"/>
+      <c r="Q319" s="125"/>
+      <c r="R319" s="125"/>
+      <c r="S319" s="125"/>
+      <c r="T319" s="125"/>
     </row>
     <row r="320" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A320" s="31" t="str">
@@ -7514,16 +7517,16 @@
         <f t="shared" si="2"/>
         <v>•</v>
       </c>
-      <c r="M323" s="131" t="s">
+      <c r="M323" s="127" t="s">
         <v>279</v>
       </c>
-      <c r="N323" s="131"/>
-      <c r="O323" s="131"/>
-      <c r="P323" s="131"/>
-      <c r="Q323" s="131"/>
-      <c r="R323" s="131"/>
-      <c r="S323" s="131"/>
-      <c r="T323" s="131"/>
+      <c r="N323" s="127"/>
+      <c r="O323" s="127"/>
+      <c r="P323" s="127"/>
+      <c r="Q323" s="127"/>
+      <c r="R323" s="127"/>
+      <c r="S323" s="127"/>
+      <c r="T323" s="127"/>
     </row>
     <row r="324" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A324" s="31"/>
@@ -7570,16 +7573,16 @@
         <f t="shared" si="2"/>
         <v>•</v>
       </c>
-      <c r="M327" s="132" t="s">
+      <c r="M327" s="125" t="s">
         <v>254</v>
       </c>
-      <c r="N327" s="132"/>
-      <c r="O327" s="132"/>
-      <c r="P327" s="132"/>
-      <c r="Q327" s="132"/>
-      <c r="R327" s="132"/>
-      <c r="S327" s="132"/>
-      <c r="T327" s="132"/>
+      <c r="N327" s="125"/>
+      <c r="O327" s="125"/>
+      <c r="P327" s="125"/>
+      <c r="Q327" s="125"/>
+      <c r="R327" s="125"/>
+      <c r="S327" s="125"/>
+      <c r="T327" s="125"/>
     </row>
     <row r="328" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A328" s="31"/>
@@ -7599,28 +7602,28 @@
         <f t="shared" si="2"/>
         <v>•</v>
       </c>
-      <c r="M329" s="132" t="s">
+      <c r="M329" s="125" t="s">
         <v>255</v>
       </c>
-      <c r="N329" s="132"/>
-      <c r="O329" s="132"/>
-      <c r="P329" s="132"/>
-      <c r="Q329" s="132"/>
-      <c r="R329" s="132"/>
-      <c r="S329" s="132"/>
-      <c r="T329" s="132"/>
+      <c r="N329" s="125"/>
+      <c r="O329" s="125"/>
+      <c r="P329" s="125"/>
+      <c r="Q329" s="125"/>
+      <c r="R329" s="125"/>
+      <c r="S329" s="125"/>
+      <c r="T329" s="125"/>
     </row>
     <row r="330" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A330" s="31"/>
       <c r="L330" s="31"/>
-      <c r="M330" s="132"/>
-      <c r="N330" s="132"/>
-      <c r="O330" s="132"/>
-      <c r="P330" s="132"/>
-      <c r="Q330" s="132"/>
-      <c r="R330" s="132"/>
-      <c r="S330" s="132"/>
-      <c r="T330" s="132"/>
+      <c r="M330" s="125"/>
+      <c r="N330" s="125"/>
+      <c r="O330" s="125"/>
+      <c r="P330" s="125"/>
+      <c r="Q330" s="125"/>
+      <c r="R330" s="125"/>
+      <c r="S330" s="125"/>
+      <c r="T330" s="125"/>
     </row>
     <row r="331" spans="1:20" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A331" s="31"/>
@@ -8152,16 +8155,16 @@
     </row>
     <row r="363" spans="1:20" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A363" s="60"/>
-      <c r="B363" s="131" t="s">
+      <c r="B363" s="127" t="s">
         <v>277</v>
       </c>
-      <c r="C363" s="131"/>
-      <c r="D363" s="131"/>
-      <c r="E363" s="131"/>
-      <c r="F363" s="131"/>
-      <c r="G363" s="131"/>
-      <c r="H363" s="131"/>
-      <c r="I363" s="131"/>
+      <c r="C363" s="127"/>
+      <c r="D363" s="127"/>
+      <c r="E363" s="127"/>
+      <c r="F363" s="127"/>
+      <c r="G363" s="127"/>
+      <c r="H363" s="127"/>
+      <c r="I363" s="127"/>
       <c r="K363" s="59"/>
       <c r="N363" s="42"/>
       <c r="O363" s="42"/>
@@ -8169,14 +8172,14 @@
     </row>
     <row r="364" spans="1:20" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A364" s="60"/>
-      <c r="B364" s="131"/>
-      <c r="C364" s="131"/>
-      <c r="D364" s="131"/>
-      <c r="E364" s="131"/>
-      <c r="F364" s="131"/>
-      <c r="G364" s="131"/>
-      <c r="H364" s="131"/>
-      <c r="I364" s="131"/>
+      <c r="B364" s="127"/>
+      <c r="C364" s="127"/>
+      <c r="D364" s="127"/>
+      <c r="E364" s="127"/>
+      <c r="F364" s="127"/>
+      <c r="G364" s="127"/>
+      <c r="H364" s="127"/>
+      <c r="I364" s="127"/>
       <c r="K364" s="59"/>
       <c r="M364" s="42"/>
       <c r="N364" s="42"/>
@@ -8185,14 +8188,14 @@
     </row>
     <row r="365" spans="1:20" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A365" s="60"/>
-      <c r="B365" s="131"/>
-      <c r="C365" s="131"/>
-      <c r="D365" s="131"/>
-      <c r="E365" s="131"/>
-      <c r="F365" s="131"/>
-      <c r="G365" s="131"/>
-      <c r="H365" s="131"/>
-      <c r="I365" s="131"/>
+      <c r="B365" s="127"/>
+      <c r="C365" s="127"/>
+      <c r="D365" s="127"/>
+      <c r="E365" s="127"/>
+      <c r="F365" s="127"/>
+      <c r="G365" s="127"/>
+      <c r="H365" s="127"/>
+      <c r="I365" s="127"/>
       <c r="K365" s="59"/>
       <c r="M365" s="42"/>
       <c r="N365" s="42"/>
@@ -8201,14 +8204,14 @@
     </row>
     <row r="366" spans="1:20" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A366" s="60"/>
-      <c r="B366" s="131"/>
-      <c r="C366" s="131"/>
-      <c r="D366" s="131"/>
-      <c r="E366" s="131"/>
-      <c r="F366" s="131"/>
-      <c r="G366" s="131"/>
-      <c r="H366" s="131"/>
-      <c r="I366" s="131"/>
+      <c r="B366" s="127"/>
+      <c r="C366" s="127"/>
+      <c r="D366" s="127"/>
+      <c r="E366" s="127"/>
+      <c r="F366" s="127"/>
+      <c r="G366" s="127"/>
+      <c r="H366" s="127"/>
+      <c r="I366" s="127"/>
       <c r="K366" s="59"/>
       <c r="M366" s="42"/>
       <c r="N366" s="42"/>
@@ -8251,16 +8254,16 @@
     </row>
     <row r="369" spans="1:25" s="16" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A369" s="60"/>
-      <c r="B369" s="131" t="s">
+      <c r="B369" s="127" t="s">
         <v>220</v>
       </c>
-      <c r="C369" s="131"/>
-      <c r="D369" s="131"/>
-      <c r="E369" s="131"/>
-      <c r="F369" s="131"/>
-      <c r="G369" s="131"/>
-      <c r="H369" s="131"/>
-      <c r="I369" s="131"/>
+      <c r="C369" s="127"/>
+      <c r="D369" s="127"/>
+      <c r="E369" s="127"/>
+      <c r="F369" s="127"/>
+      <c r="G369" s="127"/>
+      <c r="H369" s="127"/>
+      <c r="I369" s="127"/>
       <c r="K369" s="59"/>
       <c r="M369" s="42"/>
       <c r="N369" s="42"/>
@@ -8269,14 +8272,14 @@
     </row>
     <row r="370" spans="1:25" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A370" s="60"/>
-      <c r="B370" s="131"/>
-      <c r="C370" s="131"/>
-      <c r="D370" s="131"/>
-      <c r="E370" s="131"/>
-      <c r="F370" s="131"/>
-      <c r="G370" s="131"/>
-      <c r="H370" s="131"/>
-      <c r="I370" s="131"/>
+      <c r="B370" s="127"/>
+      <c r="C370" s="127"/>
+      <c r="D370" s="127"/>
+      <c r="E370" s="127"/>
+      <c r="F370" s="127"/>
+      <c r="G370" s="127"/>
+      <c r="H370" s="127"/>
+      <c r="I370" s="127"/>
       <c r="K370" s="59" t="s">
         <v>217</v>
       </c>
@@ -8399,16 +8402,16 @@
     </row>
     <row r="377" spans="1:25" s="16" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A377" s="59"/>
-      <c r="B377" s="132" t="s">
+      <c r="B377" s="125" t="s">
         <v>224</v>
       </c>
-      <c r="C377" s="132"/>
-      <c r="D377" s="132"/>
-      <c r="E377" s="132"/>
-      <c r="F377" s="132"/>
-      <c r="G377" s="132"/>
-      <c r="H377" s="132"/>
-      <c r="I377" s="132"/>
+      <c r="C377" s="125"/>
+      <c r="D377" s="125"/>
+      <c r="E377" s="125"/>
+      <c r="F377" s="125"/>
+      <c r="G377" s="125"/>
+      <c r="H377" s="125"/>
+      <c r="I377" s="125"/>
       <c r="K377" s="59" t="s">
         <v>274</v>
       </c>
@@ -8649,16 +8652,16 @@
     </row>
     <row r="390" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A390" s="59"/>
-      <c r="B390" s="130" t="s">
+      <c r="B390" s="123" t="s">
         <v>64</v>
       </c>
-      <c r="C390" s="130"/>
-      <c r="D390" s="130"/>
-      <c r="E390" s="130"/>
-      <c r="F390" s="130"/>
-      <c r="G390" s="130"/>
-      <c r="H390" s="130"/>
-      <c r="I390" s="130"/>
+      <c r="C390" s="123"/>
+      <c r="D390" s="123"/>
+      <c r="E390" s="123"/>
+      <c r="F390" s="123"/>
+      <c r="G390" s="123"/>
+      <c r="H390" s="123"/>
+      <c r="I390" s="123"/>
       <c r="K390" t="s">
         <v>65</v>
       </c>
@@ -8717,16 +8720,16 @@
       <c r="P394" s="42"/>
     </row>
     <row r="395" spans="1:24" s="16" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B395" s="132" t="s">
+      <c r="B395" s="125" t="s">
         <v>221</v>
       </c>
-      <c r="C395" s="132"/>
-      <c r="D395" s="132"/>
-      <c r="E395" s="132"/>
-      <c r="F395" s="132"/>
-      <c r="G395" s="132"/>
-      <c r="H395" s="132"/>
-      <c r="I395" s="132"/>
+      <c r="C395" s="125"/>
+      <c r="D395" s="125"/>
+      <c r="E395" s="125"/>
+      <c r="F395" s="125"/>
+      <c r="G395" s="125"/>
+      <c r="H395" s="125"/>
+      <c r="I395" s="125"/>
       <c r="K395" s="59"/>
       <c r="L395" s="61"/>
     </row>
@@ -8735,14 +8738,14 @@
         <v>142</v>
       </c>
       <c r="C396" s="77"/>
-      <c r="D396" s="133" t="s">
+      <c r="D396" s="152" t="s">
         <v>143</v>
       </c>
-      <c r="E396" s="133"/>
-      <c r="F396" s="133" t="s">
+      <c r="E396" s="152"/>
+      <c r="F396" s="152" t="s">
         <v>144</v>
       </c>
-      <c r="G396" s="133"/>
+      <c r="G396" s="152"/>
       <c r="H396" s="29"/>
       <c r="O396" s="25"/>
       <c r="P396" s="29"/>
@@ -8752,14 +8755,14 @@
         <v>138</v>
       </c>
       <c r="C397" s="54"/>
-      <c r="D397" s="135" t="s">
+      <c r="D397" s="124" t="s">
         <v>139</v>
       </c>
-      <c r="E397" s="135"/>
-      <c r="F397" s="134">
+      <c r="E397" s="124"/>
+      <c r="F397" s="153">
         <v>10000000</v>
       </c>
-      <c r="G397" s="134"/>
+      <c r="G397" s="153"/>
       <c r="H397" s="48"/>
       <c r="I397" s="25"/>
       <c r="O397" s="47"/>
@@ -8770,14 +8773,14 @@
         <v>140</v>
       </c>
       <c r="C398" s="54"/>
-      <c r="D398" s="135" t="s">
+      <c r="D398" s="124" t="s">
         <v>141</v>
       </c>
-      <c r="E398" s="135"/>
-      <c r="F398" s="134">
+      <c r="E398" s="124"/>
+      <c r="F398" s="153">
         <v>20000000</v>
       </c>
-      <c r="G398" s="134"/>
+      <c r="G398" s="153"/>
       <c r="H398" s="48"/>
       <c r="O398" s="47"/>
       <c r="P398" s="66"/>
@@ -8846,16 +8849,16 @@
     </row>
     <row r="402" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A402" s="1"/>
-      <c r="B402" s="131" t="s">
+      <c r="B402" s="127" t="s">
         <v>203</v>
       </c>
-      <c r="C402" s="131"/>
-      <c r="D402" s="131"/>
-      <c r="E402" s="131"/>
-      <c r="F402" s="131"/>
-      <c r="G402" s="131"/>
-      <c r="H402" s="131"/>
-      <c r="I402" s="131"/>
+      <c r="C402" s="127"/>
+      <c r="D402" s="127"/>
+      <c r="E402" s="127"/>
+      <c r="F402" s="127"/>
+      <c r="G402" s="127"/>
+      <c r="H402" s="127"/>
+      <c r="I402" s="127"/>
       <c r="P402" s="66"/>
       <c r="Q402" s="35"/>
       <c r="R402" s="35"/>
@@ -8864,39 +8867,39 @@
     </row>
     <row r="403" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A403" s="1"/>
-      <c r="B403" s="131"/>
-      <c r="C403" s="131"/>
-      <c r="D403" s="131"/>
-      <c r="E403" s="131"/>
-      <c r="F403" s="131"/>
-      <c r="G403" s="131"/>
-      <c r="H403" s="131"/>
-      <c r="I403" s="131"/>
+      <c r="B403" s="127"/>
+      <c r="C403" s="127"/>
+      <c r="D403" s="127"/>
+      <c r="E403" s="127"/>
+      <c r="F403" s="127"/>
+      <c r="G403" s="127"/>
+      <c r="H403" s="127"/>
+      <c r="I403" s="127"/>
       <c r="P403" s="66"/>
     </row>
     <row r="404" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A404" s="1"/>
-      <c r="B404" s="131"/>
-      <c r="C404" s="131"/>
-      <c r="D404" s="131"/>
-      <c r="E404" s="131"/>
-      <c r="F404" s="131"/>
-      <c r="G404" s="131"/>
-      <c r="H404" s="131"/>
-      <c r="I404" s="131"/>
+      <c r="B404" s="127"/>
+      <c r="C404" s="127"/>
+      <c r="D404" s="127"/>
+      <c r="E404" s="127"/>
+      <c r="F404" s="127"/>
+      <c r="G404" s="127"/>
+      <c r="H404" s="127"/>
+      <c r="I404" s="127"/>
       <c r="P404" s="66"/>
       <c r="S404" s="34"/>
     </row>
     <row r="405" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A405" s="1"/>
-      <c r="B405" s="131"/>
-      <c r="C405" s="131"/>
-      <c r="D405" s="131"/>
-      <c r="E405" s="131"/>
-      <c r="F405" s="131"/>
-      <c r="G405" s="131"/>
-      <c r="H405" s="131"/>
-      <c r="I405" s="131"/>
+      <c r="B405" s="127"/>
+      <c r="C405" s="127"/>
+      <c r="D405" s="127"/>
+      <c r="E405" s="127"/>
+      <c r="F405" s="127"/>
+      <c r="G405" s="127"/>
+      <c r="H405" s="127"/>
+      <c r="I405" s="127"/>
       <c r="P405" s="66"/>
       <c r="Q405" s="16"/>
       <c r="R405" s="16"/>
@@ -8942,43 +8945,43 @@
       <c r="P407" s="42"/>
     </row>
     <row r="408" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B408" s="131" t="s">
+      <c r="B408" s="127" t="s">
         <v>73</v>
       </c>
-      <c r="C408" s="131"/>
-      <c r="D408" s="131"/>
-      <c r="E408" s="131"/>
-      <c r="F408" s="131"/>
-      <c r="G408" s="131"/>
-      <c r="H408" s="131"/>
-      <c r="I408" s="131"/>
+      <c r="C408" s="127"/>
+      <c r="D408" s="127"/>
+      <c r="E408" s="127"/>
+      <c r="F408" s="127"/>
+      <c r="G408" s="127"/>
+      <c r="H408" s="127"/>
+      <c r="I408" s="127"/>
     </row>
     <row r="409" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B409" s="131"/>
-      <c r="C409" s="131"/>
-      <c r="D409" s="131"/>
-      <c r="E409" s="131"/>
-      <c r="F409" s="131"/>
-      <c r="G409" s="131"/>
-      <c r="H409" s="131"/>
-      <c r="I409" s="131"/>
+      <c r="B409" s="127"/>
+      <c r="C409" s="127"/>
+      <c r="D409" s="127"/>
+      <c r="E409" s="127"/>
+      <c r="F409" s="127"/>
+      <c r="G409" s="127"/>
+      <c r="H409" s="127"/>
+      <c r="I409" s="127"/>
     </row>
     <row r="410" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B410" s="127" t="s">
+      <c r="B410" s="151" t="s">
         <v>282</v>
       </c>
-      <c r="C410" s="127"/>
-      <c r="D410" s="128"/>
-      <c r="E410" s="128" t="s">
+      <c r="C410" s="151"/>
+      <c r="D410" s="163" t="s">
         <v>283</v>
       </c>
-      <c r="F410" s="128" t="s">
+      <c r="E410" s="163" t="s">
         <v>296</v>
       </c>
-      <c r="G410" s="128" t="s">
+      <c r="F410" s="163" t="s">
         <v>284</v>
       </c>
-      <c r="H410" s="127" t="s">
+      <c r="G410" s="163"/>
+      <c r="H410" s="151" t="s">
         <v>285</v>
       </c>
       <c r="I410" s="25"/>
@@ -8989,13 +8992,13 @@
       <c r="P410" s="116"/>
     </row>
     <row r="411" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B411" s="127"/>
-      <c r="C411" s="127"/>
-      <c r="D411" s="129"/>
-      <c r="E411" s="129"/>
-      <c r="F411" s="129"/>
-      <c r="G411" s="129"/>
-      <c r="H411" s="127"/>
+      <c r="B411" s="151"/>
+      <c r="C411" s="151"/>
+      <c r="D411" s="164"/>
+      <c r="E411" s="164"/>
+      <c r="F411" s="164"/>
+      <c r="G411" s="164"/>
+      <c r="H411" s="151"/>
       <c r="I411" s="25"/>
       <c r="L411" s="59"/>
       <c r="M411" s="59"/>
@@ -9004,8 +9007,8 @@
       <c r="P411" s="116"/>
     </row>
     <row r="412" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B412" s="123"/>
-      <c r="C412" s="123"/>
+      <c r="B412" s="159"/>
+      <c r="C412" s="159"/>
       <c r="D412" s="117"/>
       <c r="E412" s="117"/>
       <c r="F412" s="117"/>
@@ -9019,8 +9022,8 @@
       <c r="P412" s="116"/>
     </row>
     <row r="413" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B413" s="125"/>
-      <c r="C413" s="126"/>
+      <c r="B413" s="161"/>
+      <c r="C413" s="162"/>
       <c r="D413" s="117"/>
       <c r="E413" s="117"/>
       <c r="F413" s="117"/>
@@ -9034,8 +9037,8 @@
       <c r="P413" s="116"/>
     </row>
     <row r="414" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B414" s="125"/>
-      <c r="C414" s="126"/>
+      <c r="B414" s="161"/>
+      <c r="C414" s="162"/>
       <c r="D414" s="117"/>
       <c r="E414" s="117"/>
       <c r="F414" s="117"/>
@@ -9049,8 +9052,8 @@
       <c r="P414" s="116"/>
     </row>
     <row r="415" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B415" s="125"/>
-      <c r="C415" s="126"/>
+      <c r="B415" s="161"/>
+      <c r="C415" s="162"/>
       <c r="D415" s="117"/>
       <c r="E415" s="117"/>
       <c r="F415" s="117"/>
@@ -9064,8 +9067,8 @@
       <c r="P415" s="116"/>
     </row>
     <row r="416" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B416" s="125"/>
-      <c r="C416" s="126"/>
+      <c r="B416" s="161"/>
+      <c r="C416" s="162"/>
       <c r="D416" s="117"/>
       <c r="E416" s="117"/>
       <c r="F416" s="117"/>
@@ -9079,10 +9082,10 @@
       <c r="P416" s="116"/>
     </row>
     <row r="417" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B417" s="123" t="s">
+      <c r="B417" s="159" t="s">
         <v>286</v>
       </c>
-      <c r="C417" s="123"/>
+      <c r="C417" s="159"/>
       <c r="D417" s="119"/>
       <c r="E417" s="117"/>
       <c r="F417" s="117"/>
@@ -9096,14 +9099,14 @@
       <c r="P417" s="116"/>
     </row>
     <row r="418" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B418" s="124" t="s">
+      <c r="B418" s="160" t="s">
         <v>287</v>
       </c>
-      <c r="C418" s="124"/>
-      <c r="D418" s="124"/>
-      <c r="E418" s="124"/>
-      <c r="F418" s="124"/>
-      <c r="G418" s="124"/>
+      <c r="C418" s="160"/>
+      <c r="D418" s="160"/>
+      <c r="E418" s="160"/>
+      <c r="F418" s="160"/>
+      <c r="G418" s="160"/>
       <c r="H418" s="118"/>
       <c r="I418" s="25"/>
       <c r="L418" s="59"/>
@@ -9113,14 +9116,14 @@
       <c r="P418" s="116"/>
     </row>
     <row r="419" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B419" s="124" t="s">
+      <c r="B419" s="160" t="s">
         <v>288</v>
       </c>
-      <c r="C419" s="124"/>
-      <c r="D419" s="124"/>
-      <c r="E419" s="124"/>
-      <c r="F419" s="124"/>
-      <c r="G419" s="124"/>
+      <c r="C419" s="160"/>
+      <c r="D419" s="160"/>
+      <c r="E419" s="160"/>
+      <c r="F419" s="160"/>
+      <c r="G419" s="160"/>
       <c r="H419" s="118"/>
       <c r="I419" s="25"/>
       <c r="L419" s="59"/>
@@ -9175,28 +9178,28 @@
       <c r="P422" s="66"/>
     </row>
     <row r="423" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B423" s="131" t="s">
+      <c r="B423" s="127" t="s">
         <v>78</v>
       </c>
-      <c r="C423" s="131"/>
-      <c r="D423" s="131"/>
-      <c r="E423" s="131"/>
-      <c r="F423" s="131"/>
-      <c r="G423" s="131"/>
-      <c r="H423" s="131"/>
-      <c r="I423" s="131"/>
+      <c r="C423" s="127"/>
+      <c r="D423" s="127"/>
+      <c r="E423" s="127"/>
+      <c r="F423" s="127"/>
+      <c r="G423" s="127"/>
+      <c r="H423" s="127"/>
+      <c r="I423" s="127"/>
       <c r="P423" s="66"/>
     </row>
     <row r="424" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A424" s="46"/>
-      <c r="B424" s="131"/>
-      <c r="C424" s="131"/>
-      <c r="D424" s="131"/>
-      <c r="E424" s="131"/>
-      <c r="F424" s="131"/>
-      <c r="G424" s="131"/>
-      <c r="H424" s="131"/>
-      <c r="I424" s="131"/>
+      <c r="B424" s="127"/>
+      <c r="C424" s="127"/>
+      <c r="D424" s="127"/>
+      <c r="E424" s="127"/>
+      <c r="F424" s="127"/>
+      <c r="G424" s="127"/>
+      <c r="H424" s="127"/>
+      <c r="I424" s="127"/>
       <c r="P424" s="66"/>
     </row>
     <row r="425" spans="1:16" x14ac:dyDescent="0.25">
@@ -9438,11 +9441,11 @@
       <c r="B450" s="33" t="s">
         <v>131</v>
       </c>
-      <c r="F450" s="158">
+      <c r="F450" s="135">
         <f ca="1">TODAY()</f>
-        <v>45281</v>
-      </c>
-      <c r="G450" s="158"/>
+        <v>45306</v>
+      </c>
+      <c r="G450" s="135"/>
       <c r="K450" s="45"/>
     </row>
     <row r="451" spans="1:15" x14ac:dyDescent="0.25">
@@ -9462,374 +9465,374 @@
       <c r="A453" s="28">
         <v>1</v>
       </c>
-      <c r="B453" s="157" t="s">
+      <c r="B453" s="134" t="s">
         <v>162</v>
       </c>
-      <c r="C453" s="157"/>
-      <c r="D453" s="157"/>
-      <c r="E453" s="157"/>
-      <c r="F453" s="157"/>
-      <c r="G453" s="157"/>
-      <c r="H453" s="157"/>
-      <c r="I453" s="157"/>
+      <c r="C453" s="134"/>
+      <c r="D453" s="134"/>
+      <c r="E453" s="134"/>
+      <c r="F453" s="134"/>
+      <c r="G453" s="134"/>
+      <c r="H453" s="134"/>
+      <c r="I453" s="134"/>
     </row>
     <row r="454" spans="1:15" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A454" s="28">
         <v>2</v>
       </c>
-      <c r="B454" s="157" t="s">
+      <c r="B454" s="134" t="s">
         <v>163</v>
       </c>
-      <c r="C454" s="157"/>
-      <c r="D454" s="157"/>
-      <c r="E454" s="157"/>
-      <c r="F454" s="157"/>
-      <c r="G454" s="157"/>
-      <c r="H454" s="157"/>
-      <c r="I454" s="157"/>
+      <c r="C454" s="134"/>
+      <c r="D454" s="134"/>
+      <c r="E454" s="134"/>
+      <c r="F454" s="134"/>
+      <c r="G454" s="134"/>
+      <c r="H454" s="134"/>
+      <c r="I454" s="134"/>
     </row>
     <row r="455" spans="1:15" ht="34.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A455" s="28">
         <v>3</v>
       </c>
-      <c r="B455" s="157" t="s">
+      <c r="B455" s="134" t="s">
         <v>164</v>
       </c>
-      <c r="C455" s="157"/>
-      <c r="D455" s="157"/>
-      <c r="E455" s="157"/>
-      <c r="F455" s="157"/>
-      <c r="G455" s="157"/>
-      <c r="H455" s="157"/>
-      <c r="I455" s="157"/>
+      <c r="C455" s="134"/>
+      <c r="D455" s="134"/>
+      <c r="E455" s="134"/>
+      <c r="F455" s="134"/>
+      <c r="G455" s="134"/>
+      <c r="H455" s="134"/>
+      <c r="I455" s="134"/>
     </row>
     <row r="456" spans="1:15" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A456" s="28">
         <v>4</v>
       </c>
-      <c r="B456" s="157" t="s">
+      <c r="B456" s="134" t="s">
         <v>165</v>
       </c>
-      <c r="C456" s="157"/>
-      <c r="D456" s="157"/>
-      <c r="E456" s="157"/>
-      <c r="F456" s="157"/>
-      <c r="G456" s="157"/>
-      <c r="H456" s="157"/>
-      <c r="I456" s="157"/>
+      <c r="C456" s="134"/>
+      <c r="D456" s="134"/>
+      <c r="E456" s="134"/>
+      <c r="F456" s="134"/>
+      <c r="G456" s="134"/>
+      <c r="H456" s="134"/>
+      <c r="I456" s="134"/>
     </row>
     <row r="457" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A457" s="28">
         <v>5</v>
       </c>
-      <c r="B457" s="157" t="s">
+      <c r="B457" s="134" t="s">
         <v>166</v>
       </c>
-      <c r="C457" s="157"/>
-      <c r="D457" s="157"/>
-      <c r="E457" s="157"/>
-      <c r="F457" s="157"/>
-      <c r="G457" s="157"/>
-      <c r="H457" s="157"/>
-      <c r="I457" s="157"/>
+      <c r="C457" s="134"/>
+      <c r="D457" s="134"/>
+      <c r="E457" s="134"/>
+      <c r="F457" s="134"/>
+      <c r="G457" s="134"/>
+      <c r="H457" s="134"/>
+      <c r="I457" s="134"/>
     </row>
     <row r="458" spans="1:15" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A458" s="28"/>
-      <c r="B458" s="157" t="s">
+      <c r="B458" s="134" t="s">
         <v>167</v>
       </c>
-      <c r="C458" s="157"/>
-      <c r="D458" s="157"/>
-      <c r="E458" s="157"/>
-      <c r="F458" s="157"/>
-      <c r="G458" s="157"/>
-      <c r="H458" s="157"/>
-      <c r="I458" s="157"/>
+      <c r="C458" s="134"/>
+      <c r="D458" s="134"/>
+      <c r="E458" s="134"/>
+      <c r="F458" s="134"/>
+      <c r="G458" s="134"/>
+      <c r="H458" s="134"/>
+      <c r="I458" s="134"/>
     </row>
     <row r="459" spans="1:15" ht="34.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A459" s="28"/>
-      <c r="B459" s="157" t="s">
+      <c r="B459" s="134" t="s">
         <v>168</v>
       </c>
-      <c r="C459" s="157"/>
-      <c r="D459" s="157"/>
-      <c r="E459" s="157"/>
-      <c r="F459" s="157"/>
-      <c r="G459" s="157"/>
-      <c r="H459" s="157"/>
-      <c r="I459" s="157"/>
+      <c r="C459" s="134"/>
+      <c r="D459" s="134"/>
+      <c r="E459" s="134"/>
+      <c r="F459" s="134"/>
+      <c r="G459" s="134"/>
+      <c r="H459" s="134"/>
+      <c r="I459" s="134"/>
     </row>
     <row r="460" spans="1:15" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A460" s="28"/>
-      <c r="B460" s="157" t="s">
+      <c r="B460" s="134" t="s">
         <v>169</v>
       </c>
-      <c r="C460" s="157"/>
-      <c r="D460" s="157"/>
-      <c r="E460" s="157"/>
-      <c r="F460" s="157"/>
-      <c r="G460" s="157"/>
-      <c r="H460" s="157"/>
-      <c r="I460" s="157"/>
+      <c r="C460" s="134"/>
+      <c r="D460" s="134"/>
+      <c r="E460" s="134"/>
+      <c r="F460" s="134"/>
+      <c r="G460" s="134"/>
+      <c r="H460" s="134"/>
+      <c r="I460" s="134"/>
     </row>
     <row r="461" spans="1:15" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A461" s="28">
         <v>6</v>
       </c>
-      <c r="B461" s="157" t="s">
+      <c r="B461" s="134" t="s">
         <v>170</v>
       </c>
-      <c r="C461" s="157"/>
-      <c r="D461" s="157"/>
-      <c r="E461" s="157"/>
-      <c r="F461" s="157"/>
-      <c r="G461" s="157"/>
-      <c r="H461" s="157"/>
-      <c r="I461" s="157"/>
+      <c r="C461" s="134"/>
+      <c r="D461" s="134"/>
+      <c r="E461" s="134"/>
+      <c r="F461" s="134"/>
+      <c r="G461" s="134"/>
+      <c r="H461" s="134"/>
+      <c r="I461" s="134"/>
     </row>
     <row r="462" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A462" s="28"/>
-      <c r="B462" s="157" t="s">
+      <c r="B462" s="134" t="s">
         <v>171</v>
       </c>
-      <c r="C462" s="157"/>
-      <c r="D462" s="157"/>
-      <c r="E462" s="157"/>
-      <c r="F462" s="157"/>
-      <c r="G462" s="157"/>
-      <c r="H462" s="157"/>
-      <c r="I462" s="157"/>
+      <c r="C462" s="134"/>
+      <c r="D462" s="134"/>
+      <c r="E462" s="134"/>
+      <c r="F462" s="134"/>
+      <c r="G462" s="134"/>
+      <c r="H462" s="134"/>
+      <c r="I462" s="134"/>
     </row>
     <row r="463" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A463" s="28"/>
-      <c r="B463" s="157" t="s">
+      <c r="B463" s="134" t="s">
         <v>172</v>
       </c>
-      <c r="C463" s="157"/>
-      <c r="D463" s="157"/>
-      <c r="E463" s="157"/>
-      <c r="F463" s="157"/>
-      <c r="G463" s="157"/>
-      <c r="H463" s="157"/>
-      <c r="I463" s="157"/>
+      <c r="C463" s="134"/>
+      <c r="D463" s="134"/>
+      <c r="E463" s="134"/>
+      <c r="F463" s="134"/>
+      <c r="G463" s="134"/>
+      <c r="H463" s="134"/>
+      <c r="I463" s="134"/>
     </row>
     <row r="464" spans="1:15" ht="34.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A464" s="28">
         <v>7</v>
       </c>
-      <c r="B464" s="157" t="s">
+      <c r="B464" s="134" t="s">
         <v>173</v>
       </c>
-      <c r="C464" s="157"/>
-      <c r="D464" s="157"/>
-      <c r="E464" s="157"/>
-      <c r="F464" s="157"/>
-      <c r="G464" s="157"/>
-      <c r="H464" s="157"/>
-      <c r="I464" s="157"/>
+      <c r="C464" s="134"/>
+      <c r="D464" s="134"/>
+      <c r="E464" s="134"/>
+      <c r="F464" s="134"/>
+      <c r="G464" s="134"/>
+      <c r="H464" s="134"/>
+      <c r="I464" s="134"/>
     </row>
     <row r="465" spans="1:16" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A465" s="28">
         <v>8</v>
       </c>
-      <c r="B465" s="157" t="s">
+      <c r="B465" s="134" t="s">
         <v>174</v>
       </c>
-      <c r="C465" s="157"/>
-      <c r="D465" s="157"/>
-      <c r="E465" s="157"/>
-      <c r="F465" s="157"/>
-      <c r="G465" s="157"/>
-      <c r="H465" s="157"/>
-      <c r="I465" s="157"/>
+      <c r="C465" s="134"/>
+      <c r="D465" s="134"/>
+      <c r="E465" s="134"/>
+      <c r="F465" s="134"/>
+      <c r="G465" s="134"/>
+      <c r="H465" s="134"/>
+      <c r="I465" s="134"/>
     </row>
     <row r="466" spans="1:16" ht="34.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A466" s="28"/>
-      <c r="B466" s="157" t="s">
+      <c r="B466" s="134" t="s">
         <v>175</v>
       </c>
-      <c r="C466" s="157"/>
-      <c r="D466" s="157"/>
-      <c r="E466" s="157"/>
-      <c r="F466" s="157"/>
-      <c r="G466" s="157"/>
-      <c r="H466" s="157"/>
-      <c r="I466" s="157"/>
+      <c r="C466" s="134"/>
+      <c r="D466" s="134"/>
+      <c r="E466" s="134"/>
+      <c r="F466" s="134"/>
+      <c r="G466" s="134"/>
+      <c r="H466" s="134"/>
+      <c r="I466" s="134"/>
     </row>
     <row r="467" spans="1:16" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A467" s="28"/>
-      <c r="B467" s="157" t="s">
+      <c r="B467" s="134" t="s">
         <v>160</v>
       </c>
-      <c r="C467" s="157"/>
-      <c r="D467" s="157"/>
-      <c r="E467" s="157"/>
-      <c r="F467" s="157"/>
-      <c r="G467" s="157"/>
-      <c r="H467" s="157"/>
-      <c r="I467" s="157"/>
+      <c r="C467" s="134"/>
+      <c r="D467" s="134"/>
+      <c r="E467" s="134"/>
+      <c r="F467" s="134"/>
+      <c r="G467" s="134"/>
+      <c r="H467" s="134"/>
+      <c r="I467" s="134"/>
     </row>
     <row r="468" spans="1:16" ht="34.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A468" s="28"/>
-      <c r="B468" s="157" t="s">
+      <c r="B468" s="134" t="s">
         <v>176</v>
       </c>
-      <c r="C468" s="157"/>
-      <c r="D468" s="157"/>
-      <c r="E468" s="157"/>
-      <c r="F468" s="157"/>
-      <c r="G468" s="157"/>
-      <c r="H468" s="157"/>
-      <c r="I468" s="157"/>
+      <c r="C468" s="134"/>
+      <c r="D468" s="134"/>
+      <c r="E468" s="134"/>
+      <c r="F468" s="134"/>
+      <c r="G468" s="134"/>
+      <c r="H468" s="134"/>
+      <c r="I468" s="134"/>
     </row>
     <row r="469" spans="1:16" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A469" s="28"/>
-      <c r="B469" s="157" t="s">
+      <c r="B469" s="134" t="s">
         <v>177</v>
       </c>
-      <c r="C469" s="157"/>
-      <c r="D469" s="157"/>
-      <c r="E469" s="157"/>
-      <c r="F469" s="157"/>
-      <c r="G469" s="157"/>
-      <c r="H469" s="157"/>
-      <c r="I469" s="157"/>
+      <c r="C469" s="134"/>
+      <c r="D469" s="134"/>
+      <c r="E469" s="134"/>
+      <c r="F469" s="134"/>
+      <c r="G469" s="134"/>
+      <c r="H469" s="134"/>
+      <c r="I469" s="134"/>
     </row>
     <row r="470" spans="1:16" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A470" s="28"/>
-      <c r="B470" s="157" t="s">
+      <c r="B470" s="134" t="s">
         <v>178</v>
       </c>
-      <c r="C470" s="157"/>
-      <c r="D470" s="157"/>
-      <c r="E470" s="157"/>
-      <c r="F470" s="157"/>
-      <c r="G470" s="157"/>
-      <c r="H470" s="157"/>
-      <c r="I470" s="157"/>
+      <c r="C470" s="134"/>
+      <c r="D470" s="134"/>
+      <c r="E470" s="134"/>
+      <c r="F470" s="134"/>
+      <c r="G470" s="134"/>
+      <c r="H470" s="134"/>
+      <c r="I470" s="134"/>
     </row>
     <row r="471" spans="1:16" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A471" s="28"/>
-      <c r="B471" s="157" t="s">
+      <c r="B471" s="134" t="s">
         <v>179</v>
       </c>
-      <c r="C471" s="157"/>
-      <c r="D471" s="157"/>
-      <c r="E471" s="157"/>
-      <c r="F471" s="157"/>
-      <c r="G471" s="157"/>
-      <c r="H471" s="157"/>
-      <c r="I471" s="157"/>
+      <c r="C471" s="134"/>
+      <c r="D471" s="134"/>
+      <c r="E471" s="134"/>
+      <c r="F471" s="134"/>
+      <c r="G471" s="134"/>
+      <c r="H471" s="134"/>
+      <c r="I471" s="134"/>
     </row>
     <row r="472" spans="1:16" ht="55.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A472" s="28">
         <v>9</v>
       </c>
-      <c r="B472" s="157" t="s">
+      <c r="B472" s="134" t="s">
         <v>180</v>
       </c>
-      <c r="C472" s="157"/>
-      <c r="D472" s="157"/>
-      <c r="E472" s="157"/>
-      <c r="F472" s="157"/>
-      <c r="G472" s="157"/>
-      <c r="H472" s="157"/>
-      <c r="I472" s="157"/>
+      <c r="C472" s="134"/>
+      <c r="D472" s="134"/>
+      <c r="E472" s="134"/>
+      <c r="F472" s="134"/>
+      <c r="G472" s="134"/>
+      <c r="H472" s="134"/>
+      <c r="I472" s="134"/>
     </row>
     <row r="473" spans="1:16" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A473" s="28">
         <v>10</v>
       </c>
-      <c r="B473" s="157" t="s">
+      <c r="B473" s="134" t="s">
         <v>181</v>
       </c>
-      <c r="C473" s="157"/>
-      <c r="D473" s="157"/>
-      <c r="E473" s="157"/>
-      <c r="F473" s="157"/>
-      <c r="G473" s="157"/>
-      <c r="H473" s="157"/>
-      <c r="I473" s="157"/>
+      <c r="C473" s="134"/>
+      <c r="D473" s="134"/>
+      <c r="E473" s="134"/>
+      <c r="F473" s="134"/>
+      <c r="G473" s="134"/>
+      <c r="H473" s="134"/>
+      <c r="I473" s="134"/>
     </row>
     <row r="474" spans="1:16" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A474" s="28"/>
-      <c r="B474" s="157" t="s">
+      <c r="B474" s="134" t="s">
         <v>182</v>
       </c>
-      <c r="C474" s="157"/>
-      <c r="D474" s="157"/>
-      <c r="E474" s="157"/>
-      <c r="F474" s="157"/>
-      <c r="G474" s="157"/>
-      <c r="H474" s="157"/>
-      <c r="I474" s="157"/>
+      <c r="C474" s="134"/>
+      <c r="D474" s="134"/>
+      <c r="E474" s="134"/>
+      <c r="F474" s="134"/>
+      <c r="G474" s="134"/>
+      <c r="H474" s="134"/>
+      <c r="I474" s="134"/>
     </row>
     <row r="475" spans="1:16" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A475" s="28"/>
-      <c r="B475" s="157" t="s">
+      <c r="B475" s="134" t="s">
         <v>183</v>
       </c>
-      <c r="C475" s="157"/>
-      <c r="D475" s="157"/>
-      <c r="E475" s="157"/>
-      <c r="F475" s="157"/>
-      <c r="G475" s="157"/>
-      <c r="H475" s="157"/>
-      <c r="I475" s="157"/>
+      <c r="C475" s="134"/>
+      <c r="D475" s="134"/>
+      <c r="E475" s="134"/>
+      <c r="F475" s="134"/>
+      <c r="G475" s="134"/>
+      <c r="H475" s="134"/>
+      <c r="I475" s="134"/>
     </row>
     <row r="476" spans="1:16" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A476" s="28"/>
-      <c r="B476" s="157" t="s">
+      <c r="B476" s="134" t="s">
         <v>184</v>
       </c>
-      <c r="C476" s="157"/>
-      <c r="D476" s="157"/>
-      <c r="E476" s="157"/>
-      <c r="F476" s="157"/>
-      <c r="G476" s="157"/>
-      <c r="H476" s="157"/>
-      <c r="I476" s="157"/>
+      <c r="C476" s="134"/>
+      <c r="D476" s="134"/>
+      <c r="E476" s="134"/>
+      <c r="F476" s="134"/>
+      <c r="G476" s="134"/>
+      <c r="H476" s="134"/>
+      <c r="I476" s="134"/>
     </row>
     <row r="477" spans="1:16" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A477" s="28"/>
-      <c r="B477" s="157" t="s">
+      <c r="B477" s="134" t="s">
         <v>159</v>
       </c>
-      <c r="C477" s="157"/>
-      <c r="D477" s="157"/>
-      <c r="E477" s="157"/>
-      <c r="F477" s="157"/>
-      <c r="G477" s="157"/>
-      <c r="H477" s="157"/>
-      <c r="I477" s="157"/>
+      <c r="C477" s="134"/>
+      <c r="D477" s="134"/>
+      <c r="E477" s="134"/>
+      <c r="F477" s="134"/>
+      <c r="G477" s="134"/>
+      <c r="H477" s="134"/>
+      <c r="I477" s="134"/>
     </row>
     <row r="478" spans="1:16" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A478" s="28">
         <v>11</v>
       </c>
-      <c r="B478" s="157" t="s">
+      <c r="B478" s="134" t="s">
         <v>185</v>
       </c>
-      <c r="C478" s="157"/>
-      <c r="D478" s="157"/>
-      <c r="E478" s="157"/>
-      <c r="F478" s="157"/>
-      <c r="G478" s="157"/>
-      <c r="H478" s="157"/>
-      <c r="I478" s="157"/>
+      <c r="C478" s="134"/>
+      <c r="D478" s="134"/>
+      <c r="E478" s="134"/>
+      <c r="F478" s="134"/>
+      <c r="G478" s="134"/>
+      <c r="H478" s="134"/>
+      <c r="I478" s="134"/>
     </row>
     <row r="479" spans="1:16" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A479" s="28"/>
-      <c r="B479" s="157" t="s">
+      <c r="B479" s="134" t="s">
         <v>186</v>
       </c>
-      <c r="C479" s="157"/>
-      <c r="D479" s="157"/>
-      <c r="E479" s="157"/>
-      <c r="F479" s="157"/>
-      <c r="G479" s="157"/>
-      <c r="H479" s="157"/>
-      <c r="I479" s="157"/>
+      <c r="C479" s="134"/>
+      <c r="D479" s="134"/>
+      <c r="E479" s="134"/>
+      <c r="F479" s="134"/>
+      <c r="G479" s="134"/>
+      <c r="H479" s="134"/>
+      <c r="I479" s="134"/>
     </row>
     <row r="480" spans="1:16" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A480" s="28"/>
@@ -9850,236 +9853,236 @@
     </row>
     <row r="481" spans="1:9" ht="34.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A481" s="28"/>
-      <c r="B481" s="157" t="s">
+      <c r="B481" s="134" t="s">
         <v>187</v>
       </c>
-      <c r="C481" s="157"/>
-      <c r="D481" s="157"/>
-      <c r="E481" s="157"/>
-      <c r="F481" s="157"/>
-      <c r="G481" s="157"/>
-      <c r="H481" s="157"/>
-      <c r="I481" s="157"/>
+      <c r="C481" s="134"/>
+      <c r="D481" s="134"/>
+      <c r="E481" s="134"/>
+      <c r="F481" s="134"/>
+      <c r="G481" s="134"/>
+      <c r="H481" s="134"/>
+      <c r="I481" s="134"/>
     </row>
     <row r="482" spans="1:9" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A482" s="28">
         <v>12</v>
       </c>
-      <c r="B482" s="157" t="s">
+      <c r="B482" s="134" t="s">
         <v>188</v>
       </c>
-      <c r="C482" s="157"/>
-      <c r="D482" s="157"/>
-      <c r="E482" s="157"/>
-      <c r="F482" s="157"/>
-      <c r="G482" s="157"/>
-      <c r="H482" s="157"/>
-      <c r="I482" s="157"/>
+      <c r="C482" s="134"/>
+      <c r="D482" s="134"/>
+      <c r="E482" s="134"/>
+      <c r="F482" s="134"/>
+      <c r="G482" s="134"/>
+      <c r="H482" s="134"/>
+      <c r="I482" s="134"/>
     </row>
     <row r="483" spans="1:9" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A483" s="28"/>
-      <c r="B483" s="157" t="s">
+      <c r="B483" s="134" t="s">
         <v>189</v>
       </c>
-      <c r="C483" s="157"/>
-      <c r="D483" s="157"/>
-      <c r="E483" s="157"/>
-      <c r="F483" s="157"/>
-      <c r="G483" s="157"/>
-      <c r="H483" s="157"/>
-      <c r="I483" s="157"/>
+      <c r="C483" s="134"/>
+      <c r="D483" s="134"/>
+      <c r="E483" s="134"/>
+      <c r="F483" s="134"/>
+      <c r="G483" s="134"/>
+      <c r="H483" s="134"/>
+      <c r="I483" s="134"/>
     </row>
     <row r="484" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A484" s="28"/>
-      <c r="B484" s="157" t="s">
+      <c r="B484" s="134" t="s">
         <v>190</v>
       </c>
-      <c r="C484" s="157"/>
-      <c r="D484" s="157"/>
-      <c r="E484" s="157"/>
-      <c r="F484" s="157"/>
-      <c r="G484" s="157"/>
-      <c r="H484" s="157"/>
-      <c r="I484" s="157"/>
+      <c r="C484" s="134"/>
+      <c r="D484" s="134"/>
+      <c r="E484" s="134"/>
+      <c r="F484" s="134"/>
+      <c r="G484" s="134"/>
+      <c r="H484" s="134"/>
+      <c r="I484" s="134"/>
     </row>
     <row r="485" spans="1:9" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A485" s="28"/>
-      <c r="B485" s="157" t="s">
+      <c r="B485" s="134" t="s">
         <v>191</v>
       </c>
-      <c r="C485" s="157"/>
-      <c r="D485" s="157"/>
-      <c r="E485" s="157"/>
-      <c r="F485" s="157"/>
-      <c r="G485" s="157"/>
-      <c r="H485" s="157"/>
-      <c r="I485" s="157"/>
+      <c r="C485" s="134"/>
+      <c r="D485" s="134"/>
+      <c r="E485" s="134"/>
+      <c r="F485" s="134"/>
+      <c r="G485" s="134"/>
+      <c r="H485" s="134"/>
+      <c r="I485" s="134"/>
     </row>
     <row r="486" spans="1:9" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A486" s="28"/>
-      <c r="B486" s="157" t="s">
+      <c r="B486" s="134" t="s">
         <v>192</v>
       </c>
-      <c r="C486" s="157"/>
-      <c r="D486" s="157"/>
-      <c r="E486" s="157"/>
-      <c r="F486" s="157"/>
-      <c r="G486" s="157"/>
-      <c r="H486" s="157"/>
-      <c r="I486" s="157"/>
+      <c r="C486" s="134"/>
+      <c r="D486" s="134"/>
+      <c r="E486" s="134"/>
+      <c r="F486" s="134"/>
+      <c r="G486" s="134"/>
+      <c r="H486" s="134"/>
+      <c r="I486" s="134"/>
     </row>
     <row r="487" spans="1:9" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A487" s="28">
         <v>13</v>
       </c>
-      <c r="B487" s="157" t="s">
+      <c r="B487" s="134" t="s">
         <v>192</v>
       </c>
-      <c r="C487" s="157"/>
-      <c r="D487" s="157"/>
-      <c r="E487" s="157"/>
-      <c r="F487" s="157"/>
-      <c r="G487" s="157"/>
-      <c r="H487" s="157"/>
-      <c r="I487" s="157"/>
+      <c r="C487" s="134"/>
+      <c r="D487" s="134"/>
+      <c r="E487" s="134"/>
+      <c r="F487" s="134"/>
+      <c r="G487" s="134"/>
+      <c r="H487" s="134"/>
+      <c r="I487" s="134"/>
     </row>
     <row r="488" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A488" s="28"/>
-      <c r="B488" s="157" t="s">
+      <c r="B488" s="134" t="s">
         <v>193</v>
       </c>
-      <c r="C488" s="157"/>
-      <c r="D488" s="157"/>
-      <c r="E488" s="157"/>
-      <c r="F488" s="157"/>
-      <c r="G488" s="157"/>
-      <c r="H488" s="157"/>
-      <c r="I488" s="157"/>
+      <c r="C488" s="134"/>
+      <c r="D488" s="134"/>
+      <c r="E488" s="134"/>
+      <c r="F488" s="134"/>
+      <c r="G488" s="134"/>
+      <c r="H488" s="134"/>
+      <c r="I488" s="134"/>
     </row>
     <row r="489" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A489" s="28"/>
-      <c r="B489" s="157" t="s">
+      <c r="B489" s="134" t="s">
         <v>194</v>
       </c>
-      <c r="C489" s="157"/>
-      <c r="D489" s="157"/>
-      <c r="E489" s="157"/>
-      <c r="F489" s="157"/>
-      <c r="G489" s="157"/>
-      <c r="H489" s="157"/>
-      <c r="I489" s="157"/>
+      <c r="C489" s="134"/>
+      <c r="D489" s="134"/>
+      <c r="E489" s="134"/>
+      <c r="F489" s="134"/>
+      <c r="G489" s="134"/>
+      <c r="H489" s="134"/>
+      <c r="I489" s="134"/>
     </row>
     <row r="490" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A490" s="28">
         <v>14</v>
       </c>
-      <c r="B490" s="157" t="s">
+      <c r="B490" s="134" t="s">
         <v>195</v>
       </c>
-      <c r="C490" s="157"/>
-      <c r="D490" s="157"/>
-      <c r="E490" s="157"/>
-      <c r="F490" s="157"/>
-      <c r="G490" s="157"/>
-      <c r="H490" s="157"/>
-      <c r="I490" s="157"/>
+      <c r="C490" s="134"/>
+      <c r="D490" s="134"/>
+      <c r="E490" s="134"/>
+      <c r="F490" s="134"/>
+      <c r="G490" s="134"/>
+      <c r="H490" s="134"/>
+      <c r="I490" s="134"/>
     </row>
     <row r="491" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A491" s="28"/>
-      <c r="B491" s="157" t="s">
+      <c r="B491" s="134" t="s">
         <v>196</v>
       </c>
-      <c r="C491" s="157"/>
-      <c r="D491" s="157"/>
-      <c r="E491" s="157"/>
-      <c r="F491" s="157"/>
-      <c r="G491" s="157"/>
-      <c r="H491" s="157"/>
-      <c r="I491" s="157"/>
+      <c r="C491" s="134"/>
+      <c r="D491" s="134"/>
+      <c r="E491" s="134"/>
+      <c r="F491" s="134"/>
+      <c r="G491" s="134"/>
+      <c r="H491" s="134"/>
+      <c r="I491" s="134"/>
     </row>
     <row r="492" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A492" s="28"/>
-      <c r="B492" s="157" t="s">
+      <c r="B492" s="134" t="s">
         <v>161</v>
       </c>
-      <c r="C492" s="157"/>
-      <c r="D492" s="157"/>
-      <c r="E492" s="157"/>
-      <c r="F492" s="157"/>
-      <c r="G492" s="157"/>
-      <c r="H492" s="157"/>
-      <c r="I492" s="157"/>
+      <c r="C492" s="134"/>
+      <c r="D492" s="134"/>
+      <c r="E492" s="134"/>
+      <c r="F492" s="134"/>
+      <c r="G492" s="134"/>
+      <c r="H492" s="134"/>
+      <c r="I492" s="134"/>
     </row>
     <row r="493" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A493" s="28"/>
-      <c r="B493" s="157" t="s">
+      <c r="B493" s="134" t="s">
         <v>197</v>
       </c>
-      <c r="C493" s="157"/>
-      <c r="D493" s="157"/>
-      <c r="E493" s="157"/>
-      <c r="F493" s="157"/>
-      <c r="G493" s="157"/>
-      <c r="H493" s="157"/>
-      <c r="I493" s="157"/>
+      <c r="C493" s="134"/>
+      <c r="D493" s="134"/>
+      <c r="E493" s="134"/>
+      <c r="F493" s="134"/>
+      <c r="G493" s="134"/>
+      <c r="H493" s="134"/>
+      <c r="I493" s="134"/>
     </row>
     <row r="494" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A494" s="28"/>
-      <c r="B494" s="157" t="s">
+      <c r="B494" s="134" t="s">
         <v>198</v>
       </c>
-      <c r="C494" s="157"/>
-      <c r="D494" s="157"/>
-      <c r="E494" s="157"/>
-      <c r="F494" s="157"/>
-      <c r="G494" s="157"/>
-      <c r="H494" s="157"/>
-      <c r="I494" s="157"/>
+      <c r="C494" s="134"/>
+      <c r="D494" s="134"/>
+      <c r="E494" s="134"/>
+      <c r="F494" s="134"/>
+      <c r="G494" s="134"/>
+      <c r="H494" s="134"/>
+      <c r="I494" s="134"/>
     </row>
     <row r="495" spans="1:9" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A495" s="28">
         <v>15</v>
       </c>
-      <c r="B495" s="157" t="s">
+      <c r="B495" s="134" t="s">
         <v>199</v>
       </c>
-      <c r="C495" s="157"/>
-      <c r="D495" s="157"/>
-      <c r="E495" s="157"/>
-      <c r="F495" s="157"/>
-      <c r="G495" s="157"/>
-      <c r="H495" s="157"/>
-      <c r="I495" s="157"/>
+      <c r="C495" s="134"/>
+      <c r="D495" s="134"/>
+      <c r="E495" s="134"/>
+      <c r="F495" s="134"/>
+      <c r="G495" s="134"/>
+      <c r="H495" s="134"/>
+      <c r="I495" s="134"/>
     </row>
     <row r="496" spans="1:9" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A496" s="28">
         <v>16</v>
       </c>
-      <c r="B496" s="157" t="s">
+      <c r="B496" s="134" t="s">
         <v>200</v>
       </c>
-      <c r="C496" s="157"/>
-      <c r="D496" s="157"/>
-      <c r="E496" s="157"/>
-      <c r="F496" s="157"/>
-      <c r="G496" s="157"/>
-      <c r="H496" s="157"/>
-      <c r="I496" s="157"/>
+      <c r="C496" s="134"/>
+      <c r="D496" s="134"/>
+      <c r="E496" s="134"/>
+      <c r="F496" s="134"/>
+      <c r="G496" s="134"/>
+      <c r="H496" s="134"/>
+      <c r="I496" s="134"/>
     </row>
     <row r="497" spans="1:9" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A497" s="28">
         <v>17</v>
       </c>
-      <c r="B497" s="157" t="s">
+      <c r="B497" s="134" t="s">
         <v>201</v>
       </c>
-      <c r="C497" s="157"/>
-      <c r="D497" s="157"/>
-      <c r="E497" s="157"/>
-      <c r="F497" s="157"/>
-      <c r="G497" s="157"/>
-      <c r="H497" s="157"/>
-      <c r="I497" s="157"/>
+      <c r="C497" s="134"/>
+      <c r="D497" s="134"/>
+      <c r="E497" s="134"/>
+      <c r="F497" s="134"/>
+      <c r="G497" s="134"/>
+      <c r="H497" s="134"/>
+      <c r="I497" s="134"/>
     </row>
     <row r="498" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A498" s="52"/>
@@ -10098,69 +10101,43 @@
     </row>
   </sheetData>
   <mergeCells count="124">
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="D398:E398"/>
-    <mergeCell ref="B395:I395"/>
-    <mergeCell ref="B27:H27"/>
-    <mergeCell ref="B64:I64"/>
-    <mergeCell ref="B363:I366"/>
-    <mergeCell ref="A61:I62"/>
-    <mergeCell ref="A68:I69"/>
-    <mergeCell ref="C31:G31"/>
-    <mergeCell ref="A43:D43"/>
-    <mergeCell ref="F38:I38"/>
-    <mergeCell ref="F39:I39"/>
-    <mergeCell ref="F40:I40"/>
-    <mergeCell ref="F41:I41"/>
-    <mergeCell ref="F37:I37"/>
-    <mergeCell ref="H45:I45"/>
-    <mergeCell ref="D129:I129"/>
-    <mergeCell ref="B453:I453"/>
-    <mergeCell ref="B454:I454"/>
-    <mergeCell ref="B455:I455"/>
-    <mergeCell ref="B456:I456"/>
-    <mergeCell ref="B457:I457"/>
-    <mergeCell ref="F450:G450"/>
-    <mergeCell ref="B423:I424"/>
-    <mergeCell ref="B471:I471"/>
-    <mergeCell ref="B458:I458"/>
-    <mergeCell ref="B459:I459"/>
-    <mergeCell ref="B460:I460"/>
-    <mergeCell ref="B461:I461"/>
-    <mergeCell ref="B467:I467"/>
-    <mergeCell ref="B462:I462"/>
-    <mergeCell ref="B463:I463"/>
-    <mergeCell ref="B464:I464"/>
-    <mergeCell ref="B465:I465"/>
-    <mergeCell ref="B466:I466"/>
-    <mergeCell ref="B468:I468"/>
-    <mergeCell ref="B469:I469"/>
-    <mergeCell ref="B470:I470"/>
-    <mergeCell ref="B485:I485"/>
-    <mergeCell ref="B472:I472"/>
-    <mergeCell ref="B473:I473"/>
-    <mergeCell ref="B474:I474"/>
-    <mergeCell ref="B475:I475"/>
-    <mergeCell ref="B476:I476"/>
-    <mergeCell ref="B477:I477"/>
-    <mergeCell ref="B478:I478"/>
-    <mergeCell ref="B479:I479"/>
-    <mergeCell ref="B481:I481"/>
-    <mergeCell ref="B482:I482"/>
-    <mergeCell ref="B483:I483"/>
-    <mergeCell ref="B484:I484"/>
-    <mergeCell ref="B497:I497"/>
-    <mergeCell ref="B486:I486"/>
-    <mergeCell ref="B487:I487"/>
-    <mergeCell ref="B488:I488"/>
-    <mergeCell ref="B489:I489"/>
-    <mergeCell ref="B490:I490"/>
-    <mergeCell ref="B491:I491"/>
-    <mergeCell ref="B492:I492"/>
-    <mergeCell ref="B493:I493"/>
-    <mergeCell ref="B494:I494"/>
-    <mergeCell ref="B495:I495"/>
-    <mergeCell ref="B496:I496"/>
+    <mergeCell ref="B417:C417"/>
+    <mergeCell ref="B418:G418"/>
+    <mergeCell ref="B419:G419"/>
+    <mergeCell ref="B413:C413"/>
+    <mergeCell ref="B414:C414"/>
+    <mergeCell ref="B415:C415"/>
+    <mergeCell ref="B416:C416"/>
+    <mergeCell ref="B410:C411"/>
+    <mergeCell ref="D410:D411"/>
+    <mergeCell ref="E410:E411"/>
+    <mergeCell ref="F410:F411"/>
+    <mergeCell ref="B412:C412"/>
+    <mergeCell ref="G410:G411"/>
+    <mergeCell ref="H410:H411"/>
+    <mergeCell ref="K46:L46"/>
+    <mergeCell ref="A56:I59"/>
+    <mergeCell ref="B377:I377"/>
+    <mergeCell ref="B369:I370"/>
+    <mergeCell ref="B402:I405"/>
+    <mergeCell ref="B390:I390"/>
+    <mergeCell ref="B408:I409"/>
+    <mergeCell ref="F396:G396"/>
+    <mergeCell ref="F397:G397"/>
+    <mergeCell ref="F398:G398"/>
+    <mergeCell ref="D396:E396"/>
+    <mergeCell ref="D397:E397"/>
+    <mergeCell ref="B114:C116"/>
+    <mergeCell ref="D114:I114"/>
+    <mergeCell ref="D115:I115"/>
+    <mergeCell ref="D116:I116"/>
+    <mergeCell ref="B117:C119"/>
+    <mergeCell ref="D117:I117"/>
+    <mergeCell ref="D118:I118"/>
+    <mergeCell ref="D119:I119"/>
+    <mergeCell ref="B120:C124"/>
+    <mergeCell ref="D120:I120"/>
+    <mergeCell ref="D121:I121"/>
     <mergeCell ref="M56:T59"/>
     <mergeCell ref="H46:I46"/>
     <mergeCell ref="M330:T330"/>
@@ -10185,43 +10162,69 @@
     <mergeCell ref="D126:I126"/>
     <mergeCell ref="D127:I127"/>
     <mergeCell ref="D128:I128"/>
-    <mergeCell ref="H410:H411"/>
-    <mergeCell ref="K46:L46"/>
-    <mergeCell ref="A56:I59"/>
-    <mergeCell ref="B377:I377"/>
-    <mergeCell ref="B369:I370"/>
-    <mergeCell ref="B402:I405"/>
-    <mergeCell ref="B390:I390"/>
-    <mergeCell ref="B408:I409"/>
-    <mergeCell ref="F396:G396"/>
-    <mergeCell ref="F397:G397"/>
-    <mergeCell ref="F398:G398"/>
-    <mergeCell ref="D396:E396"/>
-    <mergeCell ref="D397:E397"/>
-    <mergeCell ref="B114:C116"/>
-    <mergeCell ref="D114:I114"/>
-    <mergeCell ref="D115:I115"/>
-    <mergeCell ref="D116:I116"/>
-    <mergeCell ref="B117:C119"/>
-    <mergeCell ref="D117:I117"/>
-    <mergeCell ref="D118:I118"/>
-    <mergeCell ref="D119:I119"/>
-    <mergeCell ref="B120:C124"/>
-    <mergeCell ref="D120:I120"/>
-    <mergeCell ref="D121:I121"/>
-    <mergeCell ref="B417:C417"/>
-    <mergeCell ref="B418:G418"/>
-    <mergeCell ref="B419:G419"/>
-    <mergeCell ref="B413:C413"/>
-    <mergeCell ref="B414:C414"/>
-    <mergeCell ref="B415:C415"/>
-    <mergeCell ref="B416:C416"/>
-    <mergeCell ref="B410:C411"/>
-    <mergeCell ref="D410:D411"/>
-    <mergeCell ref="E410:E411"/>
-    <mergeCell ref="F410:F411"/>
-    <mergeCell ref="B412:C412"/>
-    <mergeCell ref="G410:G411"/>
+    <mergeCell ref="B497:I497"/>
+    <mergeCell ref="B486:I486"/>
+    <mergeCell ref="B487:I487"/>
+    <mergeCell ref="B488:I488"/>
+    <mergeCell ref="B489:I489"/>
+    <mergeCell ref="B490:I490"/>
+    <mergeCell ref="B491:I491"/>
+    <mergeCell ref="B492:I492"/>
+    <mergeCell ref="B493:I493"/>
+    <mergeCell ref="B494:I494"/>
+    <mergeCell ref="B495:I495"/>
+    <mergeCell ref="B496:I496"/>
+    <mergeCell ref="B485:I485"/>
+    <mergeCell ref="B472:I472"/>
+    <mergeCell ref="B473:I473"/>
+    <mergeCell ref="B474:I474"/>
+    <mergeCell ref="B475:I475"/>
+    <mergeCell ref="B476:I476"/>
+    <mergeCell ref="B477:I477"/>
+    <mergeCell ref="B478:I478"/>
+    <mergeCell ref="B479:I479"/>
+    <mergeCell ref="B481:I481"/>
+    <mergeCell ref="B482:I482"/>
+    <mergeCell ref="B483:I483"/>
+    <mergeCell ref="B484:I484"/>
+    <mergeCell ref="B453:I453"/>
+    <mergeCell ref="B454:I454"/>
+    <mergeCell ref="B455:I455"/>
+    <mergeCell ref="B456:I456"/>
+    <mergeCell ref="B457:I457"/>
+    <mergeCell ref="F450:G450"/>
+    <mergeCell ref="B423:I424"/>
+    <mergeCell ref="B471:I471"/>
+    <mergeCell ref="B458:I458"/>
+    <mergeCell ref="B459:I459"/>
+    <mergeCell ref="B460:I460"/>
+    <mergeCell ref="B461:I461"/>
+    <mergeCell ref="B467:I467"/>
+    <mergeCell ref="B462:I462"/>
+    <mergeCell ref="B463:I463"/>
+    <mergeCell ref="B464:I464"/>
+    <mergeCell ref="B465:I465"/>
+    <mergeCell ref="B466:I466"/>
+    <mergeCell ref="B468:I468"/>
+    <mergeCell ref="B469:I469"/>
+    <mergeCell ref="B470:I470"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="D398:E398"/>
+    <mergeCell ref="B395:I395"/>
+    <mergeCell ref="B27:H27"/>
+    <mergeCell ref="B64:I64"/>
+    <mergeCell ref="B363:I366"/>
+    <mergeCell ref="A61:I62"/>
+    <mergeCell ref="A68:I69"/>
+    <mergeCell ref="C31:G31"/>
+    <mergeCell ref="A43:D43"/>
+    <mergeCell ref="F38:I38"/>
+    <mergeCell ref="F39:I39"/>
+    <mergeCell ref="F40:I40"/>
+    <mergeCell ref="F41:I41"/>
+    <mergeCell ref="F37:I37"/>
+    <mergeCell ref="H45:I45"/>
+    <mergeCell ref="D129:I129"/>
   </mergeCells>
   <conditionalFormatting sqref="B62">
     <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
@@ -10305,21 +10308,21 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H3" s="165"/>
-      <c r="I3" s="165"/>
+      <c r="H3" s="206"/>
+      <c r="I3" s="206"/>
       <c r="J3" s="2"/>
     </row>
     <row r="4" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H4" s="165"/>
-      <c r="I4" s="165"/>
+      <c r="H4" s="206"/>
+      <c r="I4" s="206"/>
       <c r="J4" s="2"/>
     </row>
     <row r="5" spans="1:10" ht="27.75" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="H5" s="165"/>
-      <c r="I5" s="165"/>
+      <c r="H5" s="206"/>
+      <c r="I5" s="206"/>
       <c r="J5" s="2"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
@@ -10335,24 +10338,24 @@
       <c r="E6" s="5"/>
       <c r="F6" s="5"/>
       <c r="G6" s="5"/>
-      <c r="H6" s="165"/>
-      <c r="I6" s="165"/>
+      <c r="H6" s="206"/>
+      <c r="I6" s="206"/>
       <c r="J6" s="2"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="H7" s="165"/>
-      <c r="I7" s="165"/>
+      <c r="H7" s="206"/>
+      <c r="I7" s="206"/>
       <c r="J7" s="2"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="H8" s="165"/>
-      <c r="I8" s="165"/>
+      <c r="H8" s="206"/>
+      <c r="I8" s="206"/>
       <c r="J8" s="2"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H9" s="23">
         <f ca="1">TODAY()</f>
-        <v>45281</v>
+        <v>45306</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -10375,46 +10378,46 @@
       <c r="A15" t="s">
         <v>2</v>
       </c>
-      <c r="B15" s="170" t="s">
+      <c r="B15" s="208" t="s">
         <v>3</v>
       </c>
-      <c r="C15" s="170"/>
-      <c r="D15" s="170"/>
+      <c r="C15" s="208"/>
+      <c r="D15" s="208"/>
       <c r="E15" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F15" s="170" t="s">
+      <c r="F15" s="208" t="s">
         <v>5</v>
       </c>
-      <c r="G15" s="170"/>
-      <c r="H15" s="170"/>
-      <c r="I15" s="170"/>
+      <c r="G15" s="208"/>
+      <c r="H15" s="208"/>
+      <c r="I15" s="208"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B16" s="174" t="s">
+      <c r="B16" s="212" t="s">
         <v>11</v>
       </c>
-      <c r="C16" s="175"/>
-      <c r="D16" s="175"/>
-      <c r="F16" s="174" t="s">
+      <c r="C16" s="213"/>
+      <c r="D16" s="213"/>
+      <c r="F16" s="212" t="s">
         <v>12</v>
       </c>
-      <c r="G16" s="175"/>
-      <c r="H16" s="175"/>
-      <c r="I16" s="175"/>
+      <c r="G16" s="213"/>
+      <c r="H16" s="213"/>
+      <c r="I16" s="213"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="170" t="s">
+      <c r="A18" s="208" t="s">
         <v>9</v>
       </c>
-      <c r="B18" s="170"/>
-      <c r="C18" s="170"/>
-      <c r="D18" s="170"/>
-      <c r="E18" s="170"/>
-      <c r="F18" s="170"/>
-      <c r="G18" s="170"/>
-      <c r="H18" s="170"/>
-      <c r="I18" s="170"/>
+      <c r="B18" s="208"/>
+      <c r="C18" s="208"/>
+      <c r="D18" s="208"/>
+      <c r="E18" s="208"/>
+      <c r="F18" s="208"/>
+      <c r="G18" s="208"/>
+      <c r="H18" s="208"/>
+      <c r="I18" s="208"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B19" s="8"/>
@@ -10428,43 +10431,43 @@
       <c r="I19" s="8"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="173" t="s">
+      <c r="A20" s="211" t="s">
         <v>8</v>
       </c>
-      <c r="B20" s="173"/>
-      <c r="C20" s="173"/>
-      <c r="D20" s="173"/>
-      <c r="E20" s="173"/>
-      <c r="F20" s="173"/>
-      <c r="G20" s="173"/>
-      <c r="H20" s="173"/>
-      <c r="I20" s="173"/>
+      <c r="B20" s="211"/>
+      <c r="C20" s="211"/>
+      <c r="D20" s="211"/>
+      <c r="E20" s="211"/>
+      <c r="F20" s="211"/>
+      <c r="G20" s="211"/>
+      <c r="H20" s="211"/>
+      <c r="I20" s="211"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="172" t="s">
+      <c r="A21" s="210" t="s">
         <v>7</v>
       </c>
-      <c r="B21" s="172"/>
-      <c r="C21" s="172"/>
-      <c r="D21" s="172"/>
-      <c r="E21" s="172"/>
-      <c r="F21" s="172"/>
-      <c r="G21" s="172"/>
-      <c r="H21" s="172"/>
-      <c r="I21" s="172"/>
+      <c r="B21" s="210"/>
+      <c r="C21" s="210"/>
+      <c r="D21" s="210"/>
+      <c r="E21" s="210"/>
+      <c r="F21" s="210"/>
+      <c r="G21" s="210"/>
+      <c r="H21" s="210"/>
+      <c r="I21" s="210"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="171" t="s">
+      <c r="A22" s="209" t="s">
         <v>6</v>
       </c>
-      <c r="B22" s="171"/>
-      <c r="C22" s="171"/>
-      <c r="D22" s="171"/>
-      <c r="E22" s="171"/>
-      <c r="F22" s="171"/>
-      <c r="G22" s="171"/>
-      <c r="H22" s="171"/>
-      <c r="I22" s="171"/>
+      <c r="B22" s="209"/>
+      <c r="C22" s="209"/>
+      <c r="D22" s="209"/>
+      <c r="E22" s="209"/>
+      <c r="F22" s="209"/>
+      <c r="G22" s="209"/>
+      <c r="H22" s="209"/>
+      <c r="I22" s="209"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="8"/>
@@ -10483,17 +10486,17 @@
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" s="169" t="s">
+      <c r="A25" s="207" t="s">
         <v>14</v>
       </c>
-      <c r="B25" s="169"/>
-      <c r="C25" s="169"/>
-      <c r="D25" s="169"/>
-      <c r="E25" s="169"/>
-      <c r="F25" s="169"/>
-      <c r="G25" s="169"/>
-      <c r="H25" s="169"/>
-      <c r="I25" s="169"/>
+      <c r="B25" s="207"/>
+      <c r="C25" s="207"/>
+      <c r="D25" s="207"/>
+      <c r="E25" s="207"/>
+      <c r="F25" s="207"/>
+      <c r="G25" s="207"/>
+      <c r="H25" s="207"/>
+      <c r="I25" s="207"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
@@ -10504,257 +10507,257 @@
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B28" s="166" t="s">
+      <c r="B28" s="168" t="s">
         <v>17</v>
       </c>
-      <c r="C28" s="166"/>
-      <c r="D28" s="166" t="s">
+      <c r="C28" s="168"/>
+      <c r="D28" s="168" t="s">
         <v>18</v>
       </c>
-      <c r="E28" s="166"/>
-      <c r="F28" s="166"/>
-      <c r="G28" s="166"/>
-      <c r="H28" s="166"/>
+      <c r="E28" s="168"/>
+      <c r="F28" s="168"/>
+      <c r="G28" s="168"/>
+      <c r="H28" s="168"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B29" s="166"/>
-      <c r="C29" s="166"/>
-      <c r="D29" s="166"/>
-      <c r="E29" s="166"/>
-      <c r="F29" s="166"/>
-      <c r="G29" s="166"/>
-      <c r="H29" s="166"/>
+      <c r="B29" s="168"/>
+      <c r="C29" s="168"/>
+      <c r="D29" s="168"/>
+      <c r="E29" s="168"/>
+      <c r="F29" s="168"/>
+      <c r="G29" s="168"/>
+      <c r="H29" s="168"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B30" s="176" t="s">
+      <c r="B30" s="165" t="s">
         <v>19</v>
       </c>
-      <c r="C30" s="176"/>
-      <c r="D30" s="167" t="s">
+      <c r="C30" s="165"/>
+      <c r="D30" s="204" t="s">
         <v>23</v>
       </c>
-      <c r="E30" s="168"/>
-      <c r="F30" s="168"/>
-      <c r="G30" s="168"/>
-      <c r="H30" s="168"/>
+      <c r="E30" s="205"/>
+      <c r="F30" s="205"/>
+      <c r="G30" s="205"/>
+      <c r="H30" s="205"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B31" s="176"/>
-      <c r="C31" s="176"/>
-      <c r="D31" s="168"/>
-      <c r="E31" s="168"/>
-      <c r="F31" s="168"/>
-      <c r="G31" s="168"/>
-      <c r="H31" s="168"/>
+      <c r="B31" s="165"/>
+      <c r="C31" s="165"/>
+      <c r="D31" s="205"/>
+      <c r="E31" s="205"/>
+      <c r="F31" s="205"/>
+      <c r="G31" s="205"/>
+      <c r="H31" s="205"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B32" s="176"/>
-      <c r="C32" s="176"/>
-      <c r="D32" s="168"/>
-      <c r="E32" s="168"/>
-      <c r="F32" s="168"/>
-      <c r="G32" s="168"/>
-      <c r="H32" s="168"/>
+      <c r="B32" s="165"/>
+      <c r="C32" s="165"/>
+      <c r="D32" s="205"/>
+      <c r="E32" s="205"/>
+      <c r="F32" s="205"/>
+      <c r="G32" s="205"/>
+      <c r="H32" s="205"/>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B33" s="176" t="s">
+      <c r="B33" s="165" t="s">
         <v>20</v>
       </c>
-      <c r="C33" s="176"/>
-      <c r="D33" s="167" t="s">
+      <c r="C33" s="165"/>
+      <c r="D33" s="204" t="s">
         <v>24</v>
       </c>
-      <c r="E33" s="168"/>
-      <c r="F33" s="168"/>
-      <c r="G33" s="168"/>
-      <c r="H33" s="168"/>
+      <c r="E33" s="205"/>
+      <c r="F33" s="205"/>
+      <c r="G33" s="205"/>
+      <c r="H33" s="205"/>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B34" s="176"/>
-      <c r="C34" s="176"/>
-      <c r="D34" s="168"/>
-      <c r="E34" s="168"/>
-      <c r="F34" s="168"/>
-      <c r="G34" s="168"/>
-      <c r="H34" s="168"/>
+      <c r="B34" s="165"/>
+      <c r="C34" s="165"/>
+      <c r="D34" s="205"/>
+      <c r="E34" s="205"/>
+      <c r="F34" s="205"/>
+      <c r="G34" s="205"/>
+      <c r="H34" s="205"/>
       <c r="K34" s="16"/>
       <c r="L34" s="16"/>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B35" s="176"/>
-      <c r="C35" s="176"/>
-      <c r="D35" s="168"/>
-      <c r="E35" s="168"/>
-      <c r="F35" s="168"/>
-      <c r="G35" s="168"/>
-      <c r="H35" s="168"/>
+      <c r="B35" s="165"/>
+      <c r="C35" s="165"/>
+      <c r="D35" s="205"/>
+      <c r="E35" s="205"/>
+      <c r="F35" s="205"/>
+      <c r="G35" s="205"/>
+      <c r="H35" s="205"/>
       <c r="K35" s="16"/>
       <c r="L35" s="16"/>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B36" s="176" t="s">
+      <c r="B36" s="165" t="s">
         <v>21</v>
       </c>
-      <c r="C36" s="176"/>
-      <c r="D36" s="167" t="s">
+      <c r="C36" s="165"/>
+      <c r="D36" s="204" t="s">
         <v>25</v>
       </c>
-      <c r="E36" s="168"/>
-      <c r="F36" s="168"/>
-      <c r="G36" s="168"/>
-      <c r="H36" s="168"/>
+      <c r="E36" s="205"/>
+      <c r="F36" s="205"/>
+      <c r="G36" s="205"/>
+      <c r="H36" s="205"/>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B37" s="176"/>
-      <c r="C37" s="176"/>
-      <c r="D37" s="168"/>
-      <c r="E37" s="168"/>
-      <c r="F37" s="168"/>
-      <c r="G37" s="168"/>
-      <c r="H37" s="168"/>
+      <c r="B37" s="165"/>
+      <c r="C37" s="165"/>
+      <c r="D37" s="205"/>
+      <c r="E37" s="205"/>
+      <c r="F37" s="205"/>
+      <c r="G37" s="205"/>
+      <c r="H37" s="205"/>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B38" s="176"/>
-      <c r="C38" s="176"/>
-      <c r="D38" s="168"/>
-      <c r="E38" s="168"/>
-      <c r="F38" s="168"/>
-      <c r="G38" s="168"/>
-      <c r="H38" s="168"/>
+      <c r="B38" s="165"/>
+      <c r="C38" s="165"/>
+      <c r="D38" s="205"/>
+      <c r="E38" s="205"/>
+      <c r="F38" s="205"/>
+      <c r="G38" s="205"/>
+      <c r="H38" s="205"/>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B39" s="176" t="s">
+      <c r="B39" s="165" t="s">
         <v>22</v>
       </c>
-      <c r="C39" s="176"/>
-      <c r="D39" s="167" t="s">
+      <c r="C39" s="165"/>
+      <c r="D39" s="204" t="s">
         <v>26</v>
       </c>
-      <c r="E39" s="168"/>
-      <c r="F39" s="168"/>
-      <c r="G39" s="168"/>
-      <c r="H39" s="168"/>
+      <c r="E39" s="205"/>
+      <c r="F39" s="205"/>
+      <c r="G39" s="205"/>
+      <c r="H39" s="205"/>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B40" s="176"/>
-      <c r="C40" s="176"/>
-      <c r="D40" s="168"/>
-      <c r="E40" s="168"/>
-      <c r="F40" s="168"/>
-      <c r="G40" s="168"/>
-      <c r="H40" s="168"/>
+      <c r="B40" s="165"/>
+      <c r="C40" s="165"/>
+      <c r="D40" s="205"/>
+      <c r="E40" s="205"/>
+      <c r="F40" s="205"/>
+      <c r="G40" s="205"/>
+      <c r="H40" s="205"/>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A44" s="178" t="s">
+      <c r="A44" s="167" t="s">
         <v>27</v>
       </c>
-      <c r="B44" s="178"/>
-      <c r="C44" s="178"/>
-      <c r="D44" s="178"/>
-      <c r="E44" s="178"/>
-      <c r="F44" s="178"/>
-      <c r="G44" s="178"/>
-      <c r="H44" s="178"/>
-      <c r="I44" s="178"/>
+      <c r="B44" s="167"/>
+      <c r="C44" s="167"/>
+      <c r="D44" s="167"/>
+      <c r="E44" s="167"/>
+      <c r="F44" s="167"/>
+      <c r="G44" s="167"/>
+      <c r="H44" s="167"/>
+      <c r="I44" s="167"/>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A45" s="178"/>
-      <c r="B45" s="178"/>
-      <c r="C45" s="178"/>
-      <c r="D45" s="178"/>
-      <c r="E45" s="178"/>
-      <c r="F45" s="178"/>
-      <c r="G45" s="178"/>
-      <c r="H45" s="178"/>
-      <c r="I45" s="178"/>
+      <c r="A45" s="167"/>
+      <c r="B45" s="167"/>
+      <c r="C45" s="167"/>
+      <c r="D45" s="167"/>
+      <c r="E45" s="167"/>
+      <c r="F45" s="167"/>
+      <c r="G45" s="167"/>
+      <c r="H45" s="167"/>
+      <c r="I45" s="167"/>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B47" s="179" t="s">
+      <c r="B47" s="169" t="s">
         <v>91</v>
       </c>
-      <c r="C47" s="180"/>
-      <c r="D47" s="179" t="s">
+      <c r="C47" s="170"/>
+      <c r="D47" s="169" t="s">
         <v>18</v>
       </c>
-      <c r="E47" s="183"/>
-      <c r="F47" s="183"/>
-      <c r="G47" s="183"/>
-      <c r="H47" s="184"/>
+      <c r="E47" s="173"/>
+      <c r="F47" s="173"/>
+      <c r="G47" s="173"/>
+      <c r="H47" s="174"/>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B48" s="181"/>
-      <c r="C48" s="182"/>
-      <c r="D48" s="185"/>
-      <c r="E48" s="186"/>
-      <c r="F48" s="186"/>
-      <c r="G48" s="186"/>
-      <c r="H48" s="187"/>
+      <c r="B48" s="171"/>
+      <c r="C48" s="172"/>
+      <c r="D48" s="175"/>
+      <c r="E48" s="176"/>
+      <c r="F48" s="176"/>
+      <c r="G48" s="176"/>
+      <c r="H48" s="177"/>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B49" s="193" t="s">
+      <c r="B49" s="183" t="s">
         <v>94</v>
       </c>
-      <c r="C49" s="194"/>
-      <c r="D49" s="197" t="s">
+      <c r="C49" s="184"/>
+      <c r="D49" s="187" t="s">
         <v>92</v>
       </c>
-      <c r="E49" s="198"/>
-      <c r="F49" s="198"/>
-      <c r="G49" s="198"/>
-      <c r="H49" s="199"/>
+      <c r="E49" s="188"/>
+      <c r="F49" s="188"/>
+      <c r="G49" s="188"/>
+      <c r="H49" s="189"/>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B50" s="195"/>
-      <c r="C50" s="196"/>
-      <c r="D50" s="200"/>
-      <c r="E50" s="201"/>
-      <c r="F50" s="201"/>
-      <c r="G50" s="201"/>
-      <c r="H50" s="202"/>
+      <c r="B50" s="185"/>
+      <c r="C50" s="186"/>
+      <c r="D50" s="190"/>
+      <c r="E50" s="191"/>
+      <c r="F50" s="191"/>
+      <c r="G50" s="191"/>
+      <c r="H50" s="192"/>
     </row>
     <row r="51" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B51" s="193" t="s">
+      <c r="B51" s="183" t="s">
         <v>95</v>
       </c>
-      <c r="C51" s="194"/>
-      <c r="D51" s="203" t="s">
+      <c r="C51" s="184"/>
+      <c r="D51" s="193" t="s">
         <v>93</v>
       </c>
-      <c r="E51" s="204"/>
-      <c r="F51" s="204"/>
-      <c r="G51" s="204"/>
-      <c r="H51" s="205"/>
+      <c r="E51" s="194"/>
+      <c r="F51" s="194"/>
+      <c r="G51" s="194"/>
+      <c r="H51" s="195"/>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B52" s="212"/>
-      <c r="C52" s="213"/>
-      <c r="D52" s="206"/>
-      <c r="E52" s="207"/>
-      <c r="F52" s="207"/>
-      <c r="G52" s="207"/>
-      <c r="H52" s="208"/>
+      <c r="B52" s="202"/>
+      <c r="C52" s="203"/>
+      <c r="D52" s="196"/>
+      <c r="E52" s="197"/>
+      <c r="F52" s="197"/>
+      <c r="G52" s="197"/>
+      <c r="H52" s="198"/>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B53" s="195"/>
-      <c r="C53" s="196"/>
-      <c r="D53" s="209"/>
-      <c r="E53" s="210"/>
-      <c r="F53" s="210"/>
-      <c r="G53" s="210"/>
-      <c r="H53" s="211"/>
+      <c r="B53" s="185"/>
+      <c r="C53" s="186"/>
+      <c r="D53" s="199"/>
+      <c r="E53" s="200"/>
+      <c r="F53" s="200"/>
+      <c r="G53" s="200"/>
+      <c r="H53" s="201"/>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B54" s="191" t="s">
+      <c r="B54" s="181" t="s">
         <v>96</v>
       </c>
-      <c r="C54" s="192"/>
-      <c r="D54" s="188" t="s">
+      <c r="C54" s="182"/>
+      <c r="D54" s="178" t="s">
         <v>98</v>
       </c>
-      <c r="E54" s="189"/>
-      <c r="F54" s="189"/>
-      <c r="G54" s="189"/>
-      <c r="H54" s="190"/>
+      <c r="E54" s="179"/>
+      <c r="F54" s="179"/>
+      <c r="G54" s="179"/>
+      <c r="H54" s="180"/>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B55" s="17" t="s">
@@ -10792,90 +10795,110 @@
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B61" s="166" t="s">
+      <c r="B61" s="168" t="s">
         <v>30</v>
       </c>
-      <c r="C61" s="166"/>
-      <c r="D61" s="166"/>
-      <c r="E61" s="166"/>
-      <c r="F61" s="166" t="s">
+      <c r="C61" s="168"/>
+      <c r="D61" s="168"/>
+      <c r="E61" s="168"/>
+      <c r="F61" s="168" t="s">
         <v>31</v>
       </c>
-      <c r="G61" s="166"/>
-      <c r="H61" s="166"/>
+      <c r="G61" s="168"/>
+      <c r="H61" s="168"/>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B62" s="166"/>
-      <c r="C62" s="166"/>
-      <c r="D62" s="166"/>
-      <c r="E62" s="166"/>
-      <c r="F62" s="166"/>
-      <c r="G62" s="166"/>
-      <c r="H62" s="166"/>
+      <c r="B62" s="168"/>
+      <c r="C62" s="168"/>
+      <c r="D62" s="168"/>
+      <c r="E62" s="168"/>
+      <c r="F62" s="168"/>
+      <c r="G62" s="168"/>
+      <c r="H62" s="168"/>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B63" s="176" t="s">
+      <c r="B63" s="165" t="s">
         <v>32</v>
       </c>
-      <c r="C63" s="176"/>
-      <c r="D63" s="176"/>
-      <c r="E63" s="176"/>
-      <c r="F63" s="176" t="s">
+      <c r="C63" s="165"/>
+      <c r="D63" s="165"/>
+      <c r="E63" s="165"/>
+      <c r="F63" s="165" t="s">
         <v>34</v>
       </c>
-      <c r="G63" s="176"/>
-      <c r="H63" s="176"/>
+      <c r="G63" s="165"/>
+      <c r="H63" s="165"/>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B64" s="176"/>
-      <c r="C64" s="176"/>
-      <c r="D64" s="176"/>
-      <c r="E64" s="176"/>
-      <c r="F64" s="176"/>
-      <c r="G64" s="176"/>
-      <c r="H64" s="176"/>
+      <c r="B64" s="165"/>
+      <c r="C64" s="165"/>
+      <c r="D64" s="165"/>
+      <c r="E64" s="165"/>
+      <c r="F64" s="165"/>
+      <c r="G64" s="165"/>
+      <c r="H64" s="165"/>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B65" s="176" t="s">
+      <c r="B65" s="165" t="s">
         <v>33</v>
       </c>
-      <c r="C65" s="176"/>
-      <c r="D65" s="176"/>
-      <c r="E65" s="176"/>
-      <c r="F65" s="176" t="s">
+      <c r="C65" s="165"/>
+      <c r="D65" s="165"/>
+      <c r="E65" s="165"/>
+      <c r="F65" s="165" t="s">
         <v>34</v>
       </c>
-      <c r="G65" s="176"/>
-      <c r="H65" s="176"/>
+      <c r="G65" s="165"/>
+      <c r="H65" s="165"/>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B66" s="176"/>
-      <c r="C66" s="176"/>
-      <c r="D66" s="176"/>
-      <c r="E66" s="176"/>
-      <c r="F66" s="176"/>
-      <c r="G66" s="176"/>
-      <c r="H66" s="176"/>
+      <c r="B66" s="165"/>
+      <c r="C66" s="165"/>
+      <c r="D66" s="165"/>
+      <c r="E66" s="165"/>
+      <c r="F66" s="165"/>
+      <c r="G66" s="165"/>
+      <c r="H66" s="165"/>
     </row>
     <row r="73" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="177" t="s">
+      <c r="A73" s="166" t="s">
         <v>35</v>
       </c>
-      <c r="B73" s="177"/>
-      <c r="C73" s="177"/>
+      <c r="B73" s="166"/>
+      <c r="C73" s="166"/>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A74" s="178"/>
-      <c r="B74" s="178"/>
-      <c r="C74" s="178"/>
+      <c r="A74" s="167"/>
+      <c r="B74" s="167"/>
+      <c r="C74" s="167"/>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A75" s="178"/>
-      <c r="B75" s="178"/>
-      <c r="C75" s="178"/>
+      <c r="A75" s="167"/>
+      <c r="B75" s="167"/>
+      <c r="C75" s="167"/>
     </row>
   </sheetData>
   <mergeCells count="36">
+    <mergeCell ref="H3:I8"/>
+    <mergeCell ref="B28:C29"/>
+    <mergeCell ref="D28:H29"/>
+    <mergeCell ref="D30:H32"/>
+    <mergeCell ref="A25:I25"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="F15:I15"/>
+    <mergeCell ref="A22:I22"/>
+    <mergeCell ref="A21:I21"/>
+    <mergeCell ref="A20:I20"/>
+    <mergeCell ref="A18:I18"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="F16:I16"/>
+    <mergeCell ref="D33:H35"/>
+    <mergeCell ref="D36:H38"/>
+    <mergeCell ref="D39:H40"/>
+    <mergeCell ref="B30:C32"/>
+    <mergeCell ref="B33:C35"/>
+    <mergeCell ref="B36:C38"/>
+    <mergeCell ref="B39:C40"/>
     <mergeCell ref="B65:E66"/>
     <mergeCell ref="F63:H64"/>
     <mergeCell ref="F65:H66"/>
@@ -10892,26 +10915,6 @@
     <mergeCell ref="D49:H50"/>
     <mergeCell ref="D51:H53"/>
     <mergeCell ref="B51:C53"/>
-    <mergeCell ref="D33:H35"/>
-    <mergeCell ref="D36:H38"/>
-    <mergeCell ref="D39:H40"/>
-    <mergeCell ref="B30:C32"/>
-    <mergeCell ref="B33:C35"/>
-    <mergeCell ref="B36:C38"/>
-    <mergeCell ref="B39:C40"/>
-    <mergeCell ref="H3:I8"/>
-    <mergeCell ref="B28:C29"/>
-    <mergeCell ref="D28:H29"/>
-    <mergeCell ref="D30:H32"/>
-    <mergeCell ref="A25:I25"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="F15:I15"/>
-    <mergeCell ref="A22:I22"/>
-    <mergeCell ref="A21:I21"/>
-    <mergeCell ref="A20:I20"/>
-    <mergeCell ref="A18:I18"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="F16:I16"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -11030,39 +11033,39 @@
       <c r="C13" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D13" s="221" t="s">
+      <c r="D13" s="214" t="s">
         <v>3</v>
       </c>
-      <c r="E13" s="221"/>
+      <c r="E13" s="214"/>
       <c r="F13" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G13" s="237" t="s">
+      <c r="G13" s="215" t="s">
         <v>5</v>
       </c>
-      <c r="H13" s="237"/>
-      <c r="I13" s="237"/>
+      <c r="H13" s="215"/>
+      <c r="I13" s="215"/>
       <c r="J13" s="33"/>
     </row>
     <row r="14" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="D14" s="238" t="s">
+      <c r="D14" s="216" t="s">
         <v>11</v>
       </c>
-      <c r="E14" s="238"/>
-      <c r="G14" s="239" t="s">
+      <c r="E14" s="216"/>
+      <c r="G14" s="217" t="s">
         <v>130</v>
       </c>
-      <c r="H14" s="239"/>
-      <c r="I14" s="239"/>
+      <c r="H14" s="217"/>
+      <c r="I14" s="217"/>
     </row>
     <row r="15" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="D15" s="237" t="s">
+      <c r="D15" s="215" t="s">
         <v>103</v>
       </c>
-      <c r="E15" s="237"/>
-      <c r="F15" s="237"/>
-      <c r="G15" s="237"/>
-      <c r="H15" s="237"/>
+      <c r="E15" s="215"/>
+      <c r="F15" s="215"/>
+      <c r="G15" s="215"/>
+      <c r="H15" s="215"/>
       <c r="I15" s="1"/>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.25">
@@ -11072,265 +11075,265 @@
       <c r="G16" s="28"/>
     </row>
     <row r="17" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B17" s="173" t="s">
+      <c r="B17" s="211" t="s">
         <v>8</v>
       </c>
-      <c r="C17" s="173"/>
-      <c r="D17" s="173"/>
-      <c r="E17" s="173"/>
-      <c r="F17" s="173"/>
-      <c r="G17" s="173"/>
-      <c r="H17" s="173"/>
-      <c r="I17" s="173"/>
-      <c r="J17" s="173"/>
+      <c r="C17" s="211"/>
+      <c r="D17" s="211"/>
+      <c r="E17" s="211"/>
+      <c r="F17" s="211"/>
+      <c r="G17" s="211"/>
+      <c r="H17" s="211"/>
+      <c r="I17" s="211"/>
+      <c r="J17" s="211"/>
     </row>
     <row r="18" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B18" s="240" t="s">
+      <c r="B18" s="218" t="s">
         <v>119</v>
       </c>
-      <c r="C18" s="240"/>
-      <c r="D18" s="240"/>
-      <c r="E18" s="240"/>
-      <c r="F18" s="240"/>
-      <c r="G18" s="240"/>
-      <c r="H18" s="240"/>
-      <c r="I18" s="240"/>
+      <c r="C18" s="218"/>
+      <c r="D18" s="218"/>
+      <c r="E18" s="218"/>
+      <c r="F18" s="218"/>
+      <c r="G18" s="218"/>
+      <c r="H18" s="218"/>
+      <c r="I18" s="218"/>
       <c r="J18" s="41"/>
       <c r="M18" s="1"/>
     </row>
     <row r="19" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B19" s="241" t="s">
+      <c r="B19" s="219" t="s">
         <v>116</v>
       </c>
-      <c r="C19" s="241"/>
-      <c r="D19" s="241"/>
-      <c r="E19" s="241"/>
-      <c r="F19" s="241"/>
-      <c r="G19" s="241"/>
-      <c r="H19" s="241"/>
-      <c r="I19" s="241"/>
+      <c r="C19" s="219"/>
+      <c r="D19" s="219"/>
+      <c r="E19" s="219"/>
+      <c r="F19" s="219"/>
+      <c r="G19" s="219"/>
+      <c r="H19" s="219"/>
+      <c r="I19" s="219"/>
       <c r="J19" s="35"/>
     </row>
     <row r="20" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B20" s="241" t="s">
+      <c r="B20" s="219" t="s">
         <v>117</v>
       </c>
-      <c r="C20" s="241"/>
-      <c r="D20" s="241"/>
-      <c r="E20" s="241"/>
-      <c r="F20" s="241"/>
-      <c r="G20" s="241"/>
-      <c r="H20" s="241"/>
-      <c r="I20" s="241"/>
+      <c r="C20" s="219"/>
+      <c r="D20" s="219"/>
+      <c r="E20" s="219"/>
+      <c r="F20" s="219"/>
+      <c r="G20" s="219"/>
+      <c r="H20" s="219"/>
+      <c r="I20" s="219"/>
       <c r="J20" s="35"/>
     </row>
     <row r="22" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B22" s="130" t="s">
+      <c r="B22" s="123" t="s">
         <v>118</v>
       </c>
-      <c r="C22" s="130"/>
-      <c r="D22" s="130"/>
-      <c r="E22" s="130"/>
-      <c r="F22" s="130"/>
-      <c r="G22" s="130"/>
-      <c r="H22" s="130"/>
-      <c r="I22" s="130"/>
-      <c r="J22" s="130"/>
+      <c r="C22" s="123"/>
+      <c r="D22" s="123"/>
+      <c r="E22" s="123"/>
+      <c r="F22" s="123"/>
+      <c r="G22" s="123"/>
+      <c r="H22" s="123"/>
+      <c r="I22" s="123"/>
+      <c r="J22" s="123"/>
     </row>
     <row r="23" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B23" s="130" t="s">
+      <c r="B23" s="123" t="s">
         <v>14</v>
       </c>
-      <c r="C23" s="130"/>
-      <c r="D23" s="130"/>
-      <c r="E23" s="130"/>
-      <c r="F23" s="130"/>
-      <c r="G23" s="130"/>
-      <c r="H23" s="130"/>
-      <c r="I23" s="130"/>
-      <c r="J23" s="130"/>
+      <c r="C23" s="123"/>
+      <c r="D23" s="123"/>
+      <c r="E23" s="123"/>
+      <c r="F23" s="123"/>
+      <c r="G23" s="123"/>
+      <c r="H23" s="123"/>
+      <c r="I23" s="123"/>
+      <c r="J23" s="123"/>
     </row>
     <row r="24" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B24" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="C24" s="147" t="s">
+      <c r="C24" s="138" t="s">
         <v>104</v>
       </c>
-      <c r="D24" s="147"/>
-      <c r="E24" s="147"/>
-      <c r="F24" s="147"/>
-      <c r="G24" s="147"/>
-      <c r="H24" s="147"/>
-      <c r="I24" s="147"/>
-      <c r="J24" s="147"/>
+      <c r="D24" s="138"/>
+      <c r="E24" s="138"/>
+      <c r="F24" s="138"/>
+      <c r="G24" s="138"/>
+      <c r="H24" s="138"/>
+      <c r="I24" s="138"/>
+      <c r="J24" s="138"/>
     </row>
     <row r="26" spans="2:13" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C26" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="D26" s="234" t="s">
+      <c r="D26" s="220" t="s">
         <v>18</v>
       </c>
-      <c r="E26" s="235"/>
-      <c r="F26" s="235"/>
-      <c r="G26" s="235"/>
-      <c r="H26" s="235"/>
-      <c r="I26" s="236"/>
+      <c r="E26" s="221"/>
+      <c r="F26" s="221"/>
+      <c r="G26" s="221"/>
+      <c r="H26" s="221"/>
+      <c r="I26" s="222"/>
     </row>
     <row r="27" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C27" s="223" t="s">
         <v>19</v>
       </c>
-      <c r="D27" s="225" t="s">
+      <c r="D27" s="226" t="s">
         <v>23</v>
       </c>
-      <c r="E27" s="226"/>
-      <c r="F27" s="226"/>
-      <c r="G27" s="226"/>
-      <c r="H27" s="226"/>
-      <c r="I27" s="227"/>
+      <c r="E27" s="227"/>
+      <c r="F27" s="227"/>
+      <c r="G27" s="227"/>
+      <c r="H27" s="227"/>
+      <c r="I27" s="228"/>
     </row>
     <row r="28" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="C28" s="231"/>
-      <c r="D28" s="232"/>
-      <c r="E28" s="131"/>
-      <c r="F28" s="131"/>
-      <c r="G28" s="131"/>
-      <c r="H28" s="131"/>
-      <c r="I28" s="233"/>
+      <c r="C28" s="224"/>
+      <c r="D28" s="229"/>
+      <c r="E28" s="127"/>
+      <c r="F28" s="127"/>
+      <c r="G28" s="127"/>
+      <c r="H28" s="127"/>
+      <c r="I28" s="230"/>
     </row>
     <row r="29" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="C29" s="224"/>
-      <c r="D29" s="228"/>
-      <c r="E29" s="229"/>
-      <c r="F29" s="229"/>
-      <c r="G29" s="229"/>
-      <c r="H29" s="229"/>
-      <c r="I29" s="230"/>
+      <c r="C29" s="225"/>
+      <c r="D29" s="231"/>
+      <c r="E29" s="232"/>
+      <c r="F29" s="232"/>
+      <c r="G29" s="232"/>
+      <c r="H29" s="232"/>
+      <c r="I29" s="233"/>
     </row>
     <row r="30" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C30" s="223" t="s">
         <v>20</v>
       </c>
-      <c r="D30" s="225" t="s">
+      <c r="D30" s="226" t="s">
         <v>24</v>
       </c>
-      <c r="E30" s="226"/>
-      <c r="F30" s="226"/>
-      <c r="G30" s="226"/>
-      <c r="H30" s="226"/>
-      <c r="I30" s="227"/>
+      <c r="E30" s="227"/>
+      <c r="F30" s="227"/>
+      <c r="G30" s="227"/>
+      <c r="H30" s="227"/>
+      <c r="I30" s="228"/>
     </row>
     <row r="31" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="C31" s="231"/>
-      <c r="D31" s="232"/>
-      <c r="E31" s="131"/>
-      <c r="F31" s="131"/>
-      <c r="G31" s="131"/>
-      <c r="H31" s="131"/>
-      <c r="I31" s="233"/>
+      <c r="C31" s="224"/>
+      <c r="D31" s="229"/>
+      <c r="E31" s="127"/>
+      <c r="F31" s="127"/>
+      <c r="G31" s="127"/>
+      <c r="H31" s="127"/>
+      <c r="I31" s="230"/>
     </row>
     <row r="32" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="C32" s="224"/>
-      <c r="D32" s="228"/>
-      <c r="E32" s="229"/>
-      <c r="F32" s="229"/>
-      <c r="G32" s="229"/>
-      <c r="H32" s="229"/>
-      <c r="I32" s="230"/>
+      <c r="C32" s="225"/>
+      <c r="D32" s="231"/>
+      <c r="E32" s="232"/>
+      <c r="F32" s="232"/>
+      <c r="G32" s="232"/>
+      <c r="H32" s="232"/>
+      <c r="I32" s="233"/>
     </row>
     <row r="33" spans="3:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C33" s="223" t="s">
         <v>21</v>
       </c>
-      <c r="D33" s="225" t="s">
+      <c r="D33" s="226" t="s">
         <v>25</v>
       </c>
-      <c r="E33" s="226"/>
-      <c r="F33" s="226"/>
-      <c r="G33" s="226"/>
-      <c r="H33" s="226"/>
-      <c r="I33" s="227"/>
+      <c r="E33" s="227"/>
+      <c r="F33" s="227"/>
+      <c r="G33" s="227"/>
+      <c r="H33" s="227"/>
+      <c r="I33" s="228"/>
     </row>
     <row r="34" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C34" s="231"/>
-      <c r="D34" s="232"/>
-      <c r="E34" s="131"/>
-      <c r="F34" s="131"/>
-      <c r="G34" s="131"/>
-      <c r="H34" s="131"/>
-      <c r="I34" s="233"/>
+      <c r="C34" s="224"/>
+      <c r="D34" s="229"/>
+      <c r="E34" s="127"/>
+      <c r="F34" s="127"/>
+      <c r="G34" s="127"/>
+      <c r="H34" s="127"/>
+      <c r="I34" s="230"/>
     </row>
     <row r="35" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C35" s="224"/>
-      <c r="D35" s="228"/>
-      <c r="E35" s="229"/>
-      <c r="F35" s="229"/>
-      <c r="G35" s="229"/>
-      <c r="H35" s="229"/>
-      <c r="I35" s="230"/>
+      <c r="C35" s="225"/>
+      <c r="D35" s="231"/>
+      <c r="E35" s="232"/>
+      <c r="F35" s="232"/>
+      <c r="G35" s="232"/>
+      <c r="H35" s="232"/>
+      <c r="I35" s="233"/>
     </row>
     <row r="36" spans="3:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C36" s="223" t="s">
         <v>22</v>
       </c>
-      <c r="D36" s="225" t="s">
+      <c r="D36" s="226" t="s">
         <v>26</v>
       </c>
-      <c r="E36" s="226"/>
-      <c r="F36" s="226"/>
-      <c r="G36" s="226"/>
-      <c r="H36" s="226"/>
-      <c r="I36" s="227"/>
+      <c r="E36" s="227"/>
+      <c r="F36" s="227"/>
+      <c r="G36" s="227"/>
+      <c r="H36" s="227"/>
+      <c r="I36" s="228"/>
     </row>
     <row r="37" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C37" s="231"/>
-      <c r="D37" s="232"/>
-      <c r="E37" s="131"/>
-      <c r="F37" s="131"/>
-      <c r="G37" s="131"/>
-      <c r="H37" s="131"/>
-      <c r="I37" s="233"/>
+      <c r="C37" s="224"/>
+      <c r="D37" s="229"/>
+      <c r="E37" s="127"/>
+      <c r="F37" s="127"/>
+      <c r="G37" s="127"/>
+      <c r="H37" s="127"/>
+      <c r="I37" s="230"/>
     </row>
     <row r="38" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C38" s="224"/>
-      <c r="D38" s="228"/>
-      <c r="E38" s="229"/>
-      <c r="F38" s="229"/>
-      <c r="G38" s="229"/>
-      <c r="H38" s="229"/>
-      <c r="I38" s="230"/>
+      <c r="C38" s="225"/>
+      <c r="D38" s="231"/>
+      <c r="E38" s="232"/>
+      <c r="F38" s="232"/>
+      <c r="G38" s="232"/>
+      <c r="H38" s="232"/>
+      <c r="I38" s="233"/>
     </row>
     <row r="39" spans="3:19" x14ac:dyDescent="0.25">
       <c r="K39" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="L39" s="147" t="s">
+      <c r="L39" s="138" t="s">
         <v>128</v>
       </c>
-      <c r="M39" s="147"/>
-      <c r="N39" s="147"/>
-      <c r="O39" s="147"/>
-      <c r="P39" s="147"/>
-      <c r="Q39" s="147"/>
-      <c r="R39" s="147"/>
-      <c r="S39" s="147"/>
+      <c r="M39" s="138"/>
+      <c r="N39" s="138"/>
+      <c r="O39" s="138"/>
+      <c r="P39" s="138"/>
+      <c r="Q39" s="138"/>
+      <c r="R39" s="138"/>
+      <c r="S39" s="138"/>
     </row>
     <row r="42" spans="3:19" x14ac:dyDescent="0.25">
       <c r="K42" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="L42" s="147" t="s">
+      <c r="L42" s="138" t="s">
         <v>129</v>
       </c>
-      <c r="M42" s="147"/>
-      <c r="N42" s="147"/>
-      <c r="O42" s="147"/>
-      <c r="P42" s="147"/>
-      <c r="Q42" s="147"/>
-      <c r="R42" s="147"/>
-      <c r="S42" s="147"/>
+      <c r="M42" s="138"/>
+      <c r="N42" s="138"/>
+      <c r="O42" s="138"/>
+      <c r="P42" s="138"/>
+      <c r="Q42" s="138"/>
+      <c r="R42" s="138"/>
+      <c r="S42" s="138"/>
     </row>
     <row r="50" spans="2:10" x14ac:dyDescent="0.25">
       <c r="G50" s="34" t="s">
@@ -11371,157 +11374,157 @@
       <c r="B56" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="C56" s="131" t="s">
+      <c r="C56" s="127" t="s">
         <v>105</v>
       </c>
-      <c r="D56" s="131"/>
-      <c r="E56" s="131"/>
-      <c r="F56" s="131"/>
-      <c r="G56" s="131"/>
-      <c r="H56" s="131"/>
-      <c r="I56" s="131"/>
-      <c r="J56" s="131"/>
+      <c r="D56" s="127"/>
+      <c r="E56" s="127"/>
+      <c r="F56" s="127"/>
+      <c r="G56" s="127"/>
+      <c r="H56" s="127"/>
+      <c r="I56" s="127"/>
+      <c r="J56" s="127"/>
     </row>
     <row r="58" spans="2:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C58" s="37" t="s">
         <v>91</v>
       </c>
-      <c r="D58" s="234" t="s">
+      <c r="D58" s="220" t="s">
         <v>18</v>
       </c>
-      <c r="E58" s="235"/>
-      <c r="F58" s="235"/>
-      <c r="G58" s="235"/>
-      <c r="H58" s="235"/>
-      <c r="I58" s="236"/>
+      <c r="E58" s="221"/>
+      <c r="F58" s="221"/>
+      <c r="G58" s="221"/>
+      <c r="H58" s="221"/>
+      <c r="I58" s="222"/>
     </row>
     <row r="59" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C59" s="223" t="s">
         <v>122</v>
       </c>
-      <c r="D59" s="225" t="s">
+      <c r="D59" s="226" t="s">
         <v>106</v>
       </c>
-      <c r="E59" s="226"/>
-      <c r="F59" s="226"/>
-      <c r="G59" s="226"/>
-      <c r="H59" s="226"/>
-      <c r="I59" s="227"/>
+      <c r="E59" s="227"/>
+      <c r="F59" s="227"/>
+      <c r="G59" s="227"/>
+      <c r="H59" s="227"/>
+      <c r="I59" s="228"/>
     </row>
     <row r="60" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="C60" s="224"/>
-      <c r="D60" s="228"/>
-      <c r="E60" s="229"/>
-      <c r="F60" s="229"/>
-      <c r="G60" s="229"/>
-      <c r="H60" s="229"/>
-      <c r="I60" s="230"/>
+      <c r="C60" s="225"/>
+      <c r="D60" s="231"/>
+      <c r="E60" s="232"/>
+      <c r="F60" s="232"/>
+      <c r="G60" s="232"/>
+      <c r="H60" s="232"/>
+      <c r="I60" s="233"/>
     </row>
     <row r="61" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C61" s="223" t="s">
         <v>123</v>
       </c>
-      <c r="D61" s="225" t="s">
+      <c r="D61" s="226" t="s">
         <v>107</v>
       </c>
-      <c r="E61" s="226"/>
-      <c r="F61" s="226"/>
-      <c r="G61" s="226"/>
-      <c r="H61" s="226"/>
-      <c r="I61" s="227"/>
+      <c r="E61" s="227"/>
+      <c r="F61" s="227"/>
+      <c r="G61" s="227"/>
+      <c r="H61" s="227"/>
+      <c r="I61" s="228"/>
     </row>
     <row r="62" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C62" s="224"/>
-      <c r="D62" s="228"/>
-      <c r="E62" s="229"/>
-      <c r="F62" s="229"/>
-      <c r="G62" s="229"/>
-      <c r="H62" s="229"/>
-      <c r="I62" s="230"/>
+      <c r="C62" s="225"/>
+      <c r="D62" s="231"/>
+      <c r="E62" s="232"/>
+      <c r="F62" s="232"/>
+      <c r="G62" s="232"/>
+      <c r="H62" s="232"/>
+      <c r="I62" s="233"/>
     </row>
     <row r="63" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C63" s="223" t="s">
         <v>124</v>
       </c>
-      <c r="D63" s="225" t="s">
+      <c r="D63" s="226" t="s">
         <v>108</v>
       </c>
-      <c r="E63" s="226"/>
-      <c r="F63" s="226"/>
-      <c r="G63" s="226"/>
-      <c r="H63" s="226"/>
-      <c r="I63" s="227"/>
+      <c r="E63" s="227"/>
+      <c r="F63" s="227"/>
+      <c r="G63" s="227"/>
+      <c r="H63" s="227"/>
+      <c r="I63" s="228"/>
     </row>
     <row r="64" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="C64" s="224"/>
-      <c r="D64" s="228"/>
-      <c r="E64" s="229"/>
-      <c r="F64" s="229"/>
-      <c r="G64" s="229"/>
-      <c r="H64" s="229"/>
-      <c r="I64" s="230"/>
+      <c r="C64" s="225"/>
+      <c r="D64" s="231"/>
+      <c r="E64" s="232"/>
+      <c r="F64" s="232"/>
+      <c r="G64" s="232"/>
+      <c r="H64" s="232"/>
+      <c r="I64" s="233"/>
     </row>
     <row r="65" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C65" s="223" t="s">
         <v>125</v>
       </c>
-      <c r="D65" s="225" t="s">
+      <c r="D65" s="226" t="s">
         <v>109</v>
       </c>
-      <c r="E65" s="226"/>
-      <c r="F65" s="226"/>
-      <c r="G65" s="226"/>
-      <c r="H65" s="226"/>
-      <c r="I65" s="227"/>
+      <c r="E65" s="227"/>
+      <c r="F65" s="227"/>
+      <c r="G65" s="227"/>
+      <c r="H65" s="227"/>
+      <c r="I65" s="228"/>
     </row>
     <row r="66" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C66" s="231"/>
-      <c r="D66" s="232"/>
-      <c r="E66" s="131"/>
-      <c r="F66" s="131"/>
-      <c r="G66" s="131"/>
-      <c r="H66" s="131"/>
-      <c r="I66" s="233"/>
+      <c r="C66" s="224"/>
+      <c r="D66" s="229"/>
+      <c r="E66" s="127"/>
+      <c r="F66" s="127"/>
+      <c r="G66" s="127"/>
+      <c r="H66" s="127"/>
+      <c r="I66" s="230"/>
     </row>
     <row r="67" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C67" s="224"/>
-      <c r="D67" s="228"/>
-      <c r="E67" s="229"/>
-      <c r="F67" s="229"/>
-      <c r="G67" s="229"/>
-      <c r="H67" s="229"/>
-      <c r="I67" s="230"/>
+      <c r="C67" s="225"/>
+      <c r="D67" s="231"/>
+      <c r="E67" s="232"/>
+      <c r="F67" s="232"/>
+      <c r="G67" s="232"/>
+      <c r="H67" s="232"/>
+      <c r="I67" s="233"/>
     </row>
     <row r="68" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C68" s="223" t="s">
         <v>126</v>
       </c>
-      <c r="D68" s="225" t="s">
+      <c r="D68" s="226" t="s">
         <v>110</v>
       </c>
-      <c r="E68" s="226"/>
-      <c r="F68" s="226"/>
-      <c r="G68" s="226"/>
-      <c r="H68" s="226"/>
-      <c r="I68" s="227"/>
+      <c r="E68" s="227"/>
+      <c r="F68" s="227"/>
+      <c r="G68" s="227"/>
+      <c r="H68" s="227"/>
+      <c r="I68" s="228"/>
     </row>
     <row r="69" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C69" s="231"/>
-      <c r="D69" s="232"/>
-      <c r="E69" s="131"/>
-      <c r="F69" s="131"/>
-      <c r="G69" s="131"/>
-      <c r="H69" s="131"/>
-      <c r="I69" s="233"/>
+      <c r="C69" s="224"/>
+      <c r="D69" s="229"/>
+      <c r="E69" s="127"/>
+      <c r="F69" s="127"/>
+      <c r="G69" s="127"/>
+      <c r="H69" s="127"/>
+      <c r="I69" s="230"/>
     </row>
     <row r="70" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C70" s="224"/>
-      <c r="D70" s="228"/>
-      <c r="E70" s="229"/>
-      <c r="F70" s="229"/>
-      <c r="G70" s="229"/>
-      <c r="H70" s="229"/>
-      <c r="I70" s="230"/>
+      <c r="C70" s="225"/>
+      <c r="D70" s="231"/>
+      <c r="E70" s="232"/>
+      <c r="F70" s="232"/>
+      <c r="G70" s="232"/>
+      <c r="H70" s="232"/>
+      <c r="I70" s="233"/>
     </row>
     <row r="72" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B72" t="s">
@@ -11532,53 +11535,53 @@
       <c r="C74" s="37" t="s">
         <v>30</v>
       </c>
-      <c r="D74" s="215" t="s">
+      <c r="D74" s="235" t="s">
         <v>31</v>
       </c>
-      <c r="E74" s="216"/>
-      <c r="F74" s="216"/>
-      <c r="G74" s="216"/>
-      <c r="H74" s="216"/>
-      <c r="I74" s="217"/>
+      <c r="E74" s="236"/>
+      <c r="F74" s="236"/>
+      <c r="G74" s="236"/>
+      <c r="H74" s="236"/>
+      <c r="I74" s="237"/>
     </row>
     <row r="75" spans="2:9" s="25" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C75" s="38" t="s">
         <v>32</v>
       </c>
-      <c r="D75" s="218" t="s">
+      <c r="D75" s="238" t="s">
         <v>34</v>
       </c>
-      <c r="E75" s="219"/>
-      <c r="F75" s="219"/>
-      <c r="G75" s="219"/>
-      <c r="H75" s="219"/>
-      <c r="I75" s="220"/>
+      <c r="E75" s="239"/>
+      <c r="F75" s="239"/>
+      <c r="G75" s="239"/>
+      <c r="H75" s="239"/>
+      <c r="I75" s="240"/>
     </row>
     <row r="76" spans="2:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C76" s="38" t="s">
         <v>33</v>
       </c>
-      <c r="D76" s="218" t="s">
+      <c r="D76" s="238" t="s">
         <v>34</v>
       </c>
-      <c r="E76" s="219"/>
-      <c r="F76" s="219"/>
-      <c r="G76" s="219"/>
-      <c r="H76" s="219"/>
-      <c r="I76" s="220"/>
+      <c r="E76" s="239"/>
+      <c r="F76" s="239"/>
+      <c r="G76" s="239"/>
+      <c r="H76" s="239"/>
+      <c r="I76" s="240"/>
     </row>
     <row r="77" spans="2:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C77" s="38" t="s">
         <v>111</v>
       </c>
-      <c r="D77" s="218" t="s">
+      <c r="D77" s="238" t="s">
         <v>34</v>
       </c>
-      <c r="E77" s="219"/>
-      <c r="F77" s="219"/>
-      <c r="G77" s="219"/>
-      <c r="H77" s="219"/>
-      <c r="I77" s="220"/>
+      <c r="E77" s="239"/>
+      <c r="F77" s="239"/>
+      <c r="G77" s="239"/>
+      <c r="H77" s="239"/>
+      <c r="I77" s="240"/>
     </row>
     <row r="84" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B84" t="s">
@@ -11597,36 +11600,45 @@
       <c r="B91" t="s">
         <v>113</v>
       </c>
-      <c r="C91" s="221" t="s">
+      <c r="C91" s="214" t="s">
         <v>114</v>
       </c>
-      <c r="D91" s="221"/>
+      <c r="D91" s="214"/>
       <c r="F91" t="s">
         <v>115</v>
       </c>
-      <c r="G91" s="222">
+      <c r="G91" s="241">
         <f ca="1">TODAY()</f>
-        <v>45281</v>
-      </c>
-      <c r="H91" s="222"/>
-      <c r="I91" s="222"/>
+        <v>45306</v>
+      </c>
+      <c r="H91" s="241"/>
+      <c r="I91" s="241"/>
     </row>
     <row r="92" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="G92" s="214"/>
-      <c r="H92" s="214"/>
+      <c r="G92" s="234"/>
+      <c r="H92" s="234"/>
     </row>
   </sheetData>
   <mergeCells count="42">
-    <mergeCell ref="B22:J22"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="D15:H15"/>
-    <mergeCell ref="B17:J17"/>
-    <mergeCell ref="B18:I18"/>
-    <mergeCell ref="B19:I19"/>
-    <mergeCell ref="B20:I20"/>
+    <mergeCell ref="G92:H92"/>
+    <mergeCell ref="D74:I74"/>
+    <mergeCell ref="D75:I75"/>
+    <mergeCell ref="D76:I76"/>
+    <mergeCell ref="D77:I77"/>
+    <mergeCell ref="C91:D91"/>
+    <mergeCell ref="G91:I91"/>
+    <mergeCell ref="C63:C64"/>
+    <mergeCell ref="D63:I64"/>
+    <mergeCell ref="C65:C67"/>
+    <mergeCell ref="D65:I67"/>
+    <mergeCell ref="C68:C70"/>
+    <mergeCell ref="D68:I70"/>
+    <mergeCell ref="C56:J56"/>
+    <mergeCell ref="D58:I58"/>
+    <mergeCell ref="C59:C60"/>
+    <mergeCell ref="D59:I60"/>
+    <mergeCell ref="C61:C62"/>
+    <mergeCell ref="D61:I62"/>
     <mergeCell ref="L42:S42"/>
     <mergeCell ref="B23:J23"/>
     <mergeCell ref="C24:J24"/>
@@ -11640,25 +11652,16 @@
     <mergeCell ref="C36:C38"/>
     <mergeCell ref="D36:I38"/>
     <mergeCell ref="L39:S39"/>
-    <mergeCell ref="C56:J56"/>
-    <mergeCell ref="D58:I58"/>
-    <mergeCell ref="C59:C60"/>
-    <mergeCell ref="D59:I60"/>
-    <mergeCell ref="C61:C62"/>
-    <mergeCell ref="D61:I62"/>
-    <mergeCell ref="C63:C64"/>
-    <mergeCell ref="D63:I64"/>
-    <mergeCell ref="C65:C67"/>
-    <mergeCell ref="D65:I67"/>
-    <mergeCell ref="C68:C70"/>
-    <mergeCell ref="D68:I70"/>
-    <mergeCell ref="G92:H92"/>
-    <mergeCell ref="D74:I74"/>
-    <mergeCell ref="D75:I75"/>
-    <mergeCell ref="D76:I76"/>
-    <mergeCell ref="D77:I77"/>
-    <mergeCell ref="C91:D91"/>
-    <mergeCell ref="G91:I91"/>
+    <mergeCell ref="B22:J22"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="D15:H15"/>
+    <mergeCell ref="B17:J17"/>
+    <mergeCell ref="B18:I18"/>
+    <mergeCell ref="B19:I19"/>
+    <mergeCell ref="B20:I20"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="G2" r:id="rId1" xr:uid="{027AC6F8-6212-42AF-BEE9-C1D52F5D423A}"/>
@@ -11781,40 +11784,40 @@
       <c r="B13" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="C13" s="221" t="s">
+      <c r="C13" s="214" t="s">
         <v>3</v>
       </c>
-      <c r="D13" s="221"/>
+      <c r="D13" s="214"/>
       <c r="E13" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F13" s="221" t="s">
+      <c r="F13" s="214" t="s">
         <v>5</v>
       </c>
-      <c r="G13" s="221"/>
-      <c r="H13" s="221"/>
+      <c r="G13" s="214"/>
+      <c r="H13" s="214"/>
     </row>
     <row r="14" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="C14" s="238" t="s">
+      <c r="C14" s="216" t="s">
         <v>11</v>
       </c>
-      <c r="D14" s="238"/>
-      <c r="F14" s="238" t="s">
+      <c r="D14" s="216"/>
+      <c r="F14" s="216" t="s">
         <v>12</v>
       </c>
-      <c r="G14" s="238"/>
-      <c r="H14" s="238"/>
+      <c r="G14" s="216"/>
+      <c r="H14" s="216"/>
       <c r="J14" s="16"/>
     </row>
     <row r="15" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="C15" s="221" t="s">
+      <c r="C15" s="214" t="s">
         <v>103</v>
       </c>
-      <c r="D15" s="221"/>
-      <c r="E15" s="221"/>
-      <c r="F15" s="221"/>
-      <c r="G15" s="221"/>
-      <c r="H15" s="221"/>
+      <c r="D15" s="214"/>
+      <c r="E15" s="214"/>
+      <c r="F15" s="214"/>
+      <c r="G15" s="214"/>
+      <c r="H15" s="214"/>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.25">
       <c r="E16" s="32" t="s">
@@ -11823,108 +11826,108 @@
       <c r="F16" s="28"/>
     </row>
     <row r="17" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B17" s="173" t="s">
+      <c r="B17" s="211" t="s">
         <v>8</v>
       </c>
-      <c r="C17" s="173"/>
-      <c r="D17" s="173"/>
-      <c r="E17" s="173"/>
-      <c r="F17" s="173"/>
-      <c r="G17" s="173"/>
-      <c r="H17" s="173"/>
-      <c r="I17" s="173"/>
-      <c r="J17" s="173"/>
+      <c r="C17" s="211"/>
+      <c r="D17" s="211"/>
+      <c r="E17" s="211"/>
+      <c r="F17" s="211"/>
+      <c r="G17" s="211"/>
+      <c r="H17" s="211"/>
+      <c r="I17" s="211"/>
+      <c r="J17" s="211"/>
     </row>
     <row r="18" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B18" s="240" t="s">
+      <c r="B18" s="218" t="s">
         <v>119</v>
       </c>
-      <c r="C18" s="240"/>
-      <c r="D18" s="240"/>
-      <c r="E18" s="240"/>
-      <c r="F18" s="240"/>
-      <c r="G18" s="240"/>
-      <c r="H18" s="240"/>
-      <c r="I18" s="240"/>
+      <c r="C18" s="218"/>
+      <c r="D18" s="218"/>
+      <c r="E18" s="218"/>
+      <c r="F18" s="218"/>
+      <c r="G18" s="218"/>
+      <c r="H18" s="218"/>
+      <c r="I18" s="218"/>
       <c r="M18" s="1"/>
     </row>
     <row r="19" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B19" s="241" t="s">
+      <c r="B19" s="219" t="s">
         <v>116</v>
       </c>
-      <c r="C19" s="241"/>
-      <c r="D19" s="241"/>
-      <c r="E19" s="241"/>
-      <c r="F19" s="241"/>
-      <c r="G19" s="241"/>
-      <c r="H19" s="241"/>
-      <c r="I19" s="241"/>
+      <c r="C19" s="219"/>
+      <c r="D19" s="219"/>
+      <c r="E19" s="219"/>
+      <c r="F19" s="219"/>
+      <c r="G19" s="219"/>
+      <c r="H19" s="219"/>
+      <c r="I19" s="219"/>
     </row>
     <row r="20" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B20" s="241" t="s">
+      <c r="B20" s="219" t="s">
         <v>117</v>
       </c>
-      <c r="C20" s="241"/>
-      <c r="D20" s="241"/>
-      <c r="E20" s="241"/>
-      <c r="F20" s="241"/>
-      <c r="G20" s="241"/>
-      <c r="H20" s="241"/>
-      <c r="I20" s="241"/>
+      <c r="C20" s="219"/>
+      <c r="D20" s="219"/>
+      <c r="E20" s="219"/>
+      <c r="F20" s="219"/>
+      <c r="G20" s="219"/>
+      <c r="H20" s="219"/>
+      <c r="I20" s="219"/>
     </row>
     <row r="22" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B22" s="130" t="s">
+      <c r="B22" s="123" t="s">
         <v>118</v>
       </c>
-      <c r="C22" s="130"/>
-      <c r="D22" s="130"/>
-      <c r="E22" s="130"/>
-      <c r="F22" s="130"/>
-      <c r="G22" s="130"/>
-      <c r="H22" s="130"/>
-      <c r="I22" s="130"/>
-      <c r="J22" s="130"/>
+      <c r="C22" s="123"/>
+      <c r="D22" s="123"/>
+      <c r="E22" s="123"/>
+      <c r="F22" s="123"/>
+      <c r="G22" s="123"/>
+      <c r="H22" s="123"/>
+      <c r="I22" s="123"/>
+      <c r="J22" s="123"/>
     </row>
     <row r="23" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B23" s="130" t="s">
+      <c r="B23" s="123" t="s">
         <v>14</v>
       </c>
-      <c r="C23" s="130"/>
-      <c r="D23" s="130"/>
-      <c r="E23" s="130"/>
-      <c r="F23" s="130"/>
-      <c r="G23" s="130"/>
-      <c r="H23" s="130"/>
-      <c r="I23" s="130"/>
-      <c r="J23" s="130"/>
+      <c r="C23" s="123"/>
+      <c r="D23" s="123"/>
+      <c r="E23" s="123"/>
+      <c r="F23" s="123"/>
+      <c r="G23" s="123"/>
+      <c r="H23" s="123"/>
+      <c r="I23" s="123"/>
+      <c r="J23" s="123"/>
     </row>
     <row r="24" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B24" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="C24" s="147" t="s">
+      <c r="C24" s="138" t="s">
         <v>104</v>
       </c>
-      <c r="D24" s="147"/>
-      <c r="E24" s="147"/>
-      <c r="F24" s="147"/>
-      <c r="G24" s="147"/>
-      <c r="H24" s="147"/>
-      <c r="I24" s="147"/>
-      <c r="J24" s="147"/>
+      <c r="D24" s="138"/>
+      <c r="E24" s="138"/>
+      <c r="F24" s="138"/>
+      <c r="G24" s="138"/>
+      <c r="H24" s="138"/>
+      <c r="I24" s="138"/>
+      <c r="J24" s="138"/>
     </row>
     <row r="26" spans="2:13" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C26" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="D26" s="246" t="s">
+      <c r="D26" s="242" t="s">
         <v>18</v>
       </c>
-      <c r="E26" s="246"/>
-      <c r="F26" s="246"/>
-      <c r="G26" s="246"/>
-      <c r="H26" s="246"/>
-      <c r="I26" s="246"/>
+      <c r="E26" s="242"/>
+      <c r="F26" s="242"/>
+      <c r="G26" s="242"/>
+      <c r="H26" s="242"/>
+      <c r="I26" s="242"/>
     </row>
     <row r="27" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C27" s="243" t="s">
@@ -12089,29 +12092,29 @@
       <c r="B56" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="C56" s="131" t="s">
+      <c r="C56" s="127" t="s">
         <v>105</v>
       </c>
-      <c r="D56" s="131"/>
-      <c r="E56" s="131"/>
-      <c r="F56" s="131"/>
-      <c r="G56" s="131"/>
-      <c r="H56" s="131"/>
-      <c r="I56" s="131"/>
-      <c r="J56" s="131"/>
+      <c r="D56" s="127"/>
+      <c r="E56" s="127"/>
+      <c r="F56" s="127"/>
+      <c r="G56" s="127"/>
+      <c r="H56" s="127"/>
+      <c r="I56" s="127"/>
+      <c r="J56" s="127"/>
     </row>
     <row r="58" spans="2:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C58" s="37" t="s">
         <v>91</v>
       </c>
-      <c r="D58" s="246" t="s">
+      <c r="D58" s="242" t="s">
         <v>18</v>
       </c>
-      <c r="E58" s="246"/>
-      <c r="F58" s="246"/>
-      <c r="G58" s="246"/>
-      <c r="H58" s="246"/>
-      <c r="I58" s="246"/>
+      <c r="E58" s="242"/>
+      <c r="F58" s="242"/>
+      <c r="G58" s="242"/>
+      <c r="H58" s="242"/>
+      <c r="I58" s="242"/>
     </row>
     <row r="59" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C59" s="243" t="s">
@@ -12250,53 +12253,53 @@
       <c r="C74" s="37" t="s">
         <v>30</v>
       </c>
-      <c r="D74" s="245" t="s">
+      <c r="D74" s="246" t="s">
         <v>31</v>
       </c>
-      <c r="E74" s="245"/>
-      <c r="F74" s="245"/>
-      <c r="G74" s="245"/>
-      <c r="H74" s="245"/>
-      <c r="I74" s="245"/>
+      <c r="E74" s="246"/>
+      <c r="F74" s="246"/>
+      <c r="G74" s="246"/>
+      <c r="H74" s="246"/>
+      <c r="I74" s="246"/>
     </row>
     <row r="75" spans="2:9" s="25" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C75" s="38" t="s">
         <v>32</v>
       </c>
-      <c r="D75" s="242" t="s">
+      <c r="D75" s="245" t="s">
         <v>34</v>
       </c>
-      <c r="E75" s="242"/>
-      <c r="F75" s="242"/>
-      <c r="G75" s="242"/>
-      <c r="H75" s="242"/>
-      <c r="I75" s="242"/>
+      <c r="E75" s="245"/>
+      <c r="F75" s="245"/>
+      <c r="G75" s="245"/>
+      <c r="H75" s="245"/>
+      <c r="I75" s="245"/>
     </row>
     <row r="76" spans="2:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C76" s="38" t="s">
         <v>33</v>
       </c>
-      <c r="D76" s="242" t="s">
+      <c r="D76" s="245" t="s">
         <v>34</v>
       </c>
-      <c r="E76" s="242"/>
-      <c r="F76" s="242"/>
-      <c r="G76" s="242"/>
-      <c r="H76" s="242"/>
-      <c r="I76" s="242"/>
+      <c r="E76" s="245"/>
+      <c r="F76" s="245"/>
+      <c r="G76" s="245"/>
+      <c r="H76" s="245"/>
+      <c r="I76" s="245"/>
     </row>
     <row r="77" spans="2:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C77" s="38" t="s">
         <v>111</v>
       </c>
-      <c r="D77" s="242" t="s">
+      <c r="D77" s="245" t="s">
         <v>34</v>
       </c>
-      <c r="E77" s="242"/>
-      <c r="F77" s="242"/>
-      <c r="G77" s="242"/>
-      <c r="H77" s="242"/>
-      <c r="I77" s="242"/>
+      <c r="E77" s="245"/>
+      <c r="F77" s="245"/>
+      <c r="G77" s="245"/>
+      <c r="H77" s="245"/>
+      <c r="I77" s="245"/>
     </row>
     <row r="84" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B84" t="s">
@@ -12313,36 +12316,43 @@
       <c r="B91" t="s">
         <v>113</v>
       </c>
-      <c r="C91" s="221" t="s">
+      <c r="C91" s="214" t="s">
         <v>114</v>
       </c>
-      <c r="D91" s="221"/>
+      <c r="D91" s="214"/>
       <c r="F91" t="s">
         <v>115</v>
       </c>
-      <c r="G91" s="222">
+      <c r="G91" s="241">
         <f ca="1">TODAY()</f>
-        <v>45281</v>
-      </c>
-      <c r="H91" s="222"/>
-      <c r="I91" s="222"/>
+        <v>45306</v>
+      </c>
+      <c r="H91" s="241"/>
+      <c r="I91" s="241"/>
     </row>
     <row r="92" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="G92" s="158"/>
-      <c r="H92" s="158"/>
+      <c r="G92" s="135"/>
+      <c r="H92" s="135"/>
     </row>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="B22:J22"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="F13:H13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="F14:H14"/>
-    <mergeCell ref="C15:H15"/>
-    <mergeCell ref="B17:J17"/>
-    <mergeCell ref="B18:I18"/>
-    <mergeCell ref="B19:I19"/>
-    <mergeCell ref="B20:I20"/>
+    <mergeCell ref="D76:I76"/>
+    <mergeCell ref="D77:I77"/>
+    <mergeCell ref="C91:D91"/>
+    <mergeCell ref="G91:I91"/>
+    <mergeCell ref="G92:H92"/>
+    <mergeCell ref="D75:I75"/>
+    <mergeCell ref="C59:C60"/>
+    <mergeCell ref="D59:I60"/>
+    <mergeCell ref="C61:C62"/>
+    <mergeCell ref="D61:I62"/>
+    <mergeCell ref="C63:C64"/>
+    <mergeCell ref="D63:I64"/>
+    <mergeCell ref="C65:C67"/>
+    <mergeCell ref="D65:I67"/>
+    <mergeCell ref="C68:C70"/>
+    <mergeCell ref="D68:I70"/>
+    <mergeCell ref="D74:I74"/>
     <mergeCell ref="D58:I58"/>
     <mergeCell ref="B23:J23"/>
     <mergeCell ref="C24:J24"/>
@@ -12356,23 +12366,16 @@
     <mergeCell ref="C36:C38"/>
     <mergeCell ref="D36:I38"/>
     <mergeCell ref="C56:J56"/>
-    <mergeCell ref="D75:I75"/>
-    <mergeCell ref="C59:C60"/>
-    <mergeCell ref="D59:I60"/>
-    <mergeCell ref="C61:C62"/>
-    <mergeCell ref="D61:I62"/>
-    <mergeCell ref="C63:C64"/>
-    <mergeCell ref="D63:I64"/>
-    <mergeCell ref="C65:C67"/>
-    <mergeCell ref="D65:I67"/>
-    <mergeCell ref="C68:C70"/>
-    <mergeCell ref="D68:I70"/>
-    <mergeCell ref="D74:I74"/>
-    <mergeCell ref="D76:I76"/>
-    <mergeCell ref="D77:I77"/>
-    <mergeCell ref="C91:D91"/>
-    <mergeCell ref="G91:I91"/>
-    <mergeCell ref="G92:H92"/>
+    <mergeCell ref="B22:J22"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="F13:H13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="F14:H14"/>
+    <mergeCell ref="C15:H15"/>
+    <mergeCell ref="B17:J17"/>
+    <mergeCell ref="B18:I18"/>
+    <mergeCell ref="B19:I19"/>
+    <mergeCell ref="B20:I20"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="G2" r:id="rId1" xr:uid="{6E9829A0-4BB3-4C8C-A320-546D81175A58}"/>
@@ -12404,7 +12407,7 @@
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <f ca="1">TODAY()</f>
-        <v>45281</v>
+        <v>45306</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
@@ -12441,28 +12444,28 @@
       <c r="G13" s="11"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="178" t="s">
+      <c r="A15" s="167" t="s">
         <v>42</v>
       </c>
-      <c r="B15" s="178"/>
-      <c r="C15" s="178"/>
-      <c r="D15" s="178"/>
-      <c r="E15" s="178"/>
-      <c r="F15" s="178"/>
-      <c r="G15" s="178"/>
-      <c r="H15" s="178"/>
-      <c r="I15" s="178"/>
+      <c r="B15" s="167"/>
+      <c r="C15" s="167"/>
+      <c r="D15" s="167"/>
+      <c r="E15" s="167"/>
+      <c r="F15" s="167"/>
+      <c r="G15" s="167"/>
+      <c r="H15" s="167"/>
+      <c r="I15" s="167"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="178"/>
-      <c r="B16" s="178"/>
-      <c r="C16" s="178"/>
-      <c r="D16" s="178"/>
-      <c r="E16" s="178"/>
-      <c r="F16" s="178"/>
-      <c r="G16" s="178"/>
-      <c r="H16" s="178"/>
-      <c r="I16" s="178"/>
+      <c r="A16" s="167"/>
+      <c r="B16" s="167"/>
+      <c r="C16" s="167"/>
+      <c r="D16" s="167"/>
+      <c r="E16" s="167"/>
+      <c r="F16" s="167"/>
+      <c r="G16" s="167"/>
+      <c r="H16" s="167"/>
+      <c r="I16" s="167"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="13" t="s">
@@ -12489,15 +12492,15 @@
       <c r="B21" t="s">
         <v>15</v>
       </c>
-      <c r="C21" s="130" t="s">
+      <c r="C21" s="123" t="s">
         <v>46</v>
       </c>
-      <c r="D21" s="130"/>
-      <c r="E21" s="130"/>
-      <c r="F21" s="130"/>
-      <c r="G21" s="130"/>
-      <c r="H21" s="130"/>
-      <c r="I21" s="130"/>
+      <c r="D21" s="123"/>
+      <c r="E21" s="123"/>
+      <c r="F21" s="123"/>
+      <c r="G21" s="123"/>
+      <c r="H21" s="123"/>
+      <c r="I21" s="123"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="12"/>
@@ -12522,15 +12525,15 @@
       <c r="B24" t="s">
         <v>15</v>
       </c>
-      <c r="C24" s="130" t="s">
+      <c r="C24" s="123" t="s">
         <v>49</v>
       </c>
-      <c r="D24" s="130"/>
-      <c r="E24" s="130"/>
-      <c r="F24" s="130"/>
-      <c r="G24" s="130"/>
-      <c r="H24" s="130"/>
-      <c r="I24" s="130"/>
+      <c r="D24" s="123"/>
+      <c r="E24" s="123"/>
+      <c r="F24" s="123"/>
+      <c r="G24" s="123"/>
+      <c r="H24" s="123"/>
+      <c r="I24" s="123"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="12"/>
@@ -12571,16 +12574,16 @@
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="12"/>
-      <c r="B31" s="130" t="s">
+      <c r="B31" s="123" t="s">
         <v>55</v>
       </c>
-      <c r="C31" s="130"/>
-      <c r="D31" s="130"/>
-      <c r="E31" s="130"/>
-      <c r="F31" s="130"/>
-      <c r="G31" s="130"/>
-      <c r="H31" s="130"/>
-      <c r="I31" s="130"/>
+      <c r="C31" s="123"/>
+      <c r="D31" s="123"/>
+      <c r="E31" s="123"/>
+      <c r="F31" s="123"/>
+      <c r="G31" s="123"/>
+      <c r="H31" s="123"/>
+      <c r="I31" s="123"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="12"/>
@@ -12670,48 +12673,48 @@
       <c r="D43" s="15"/>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B45" s="130" t="s">
+      <c r="B45" s="123" t="s">
         <v>60</v>
       </c>
-      <c r="C45" s="130"/>
-      <c r="D45" s="130"/>
-      <c r="E45" s="130"/>
-      <c r="F45" s="130"/>
-      <c r="G45" s="130"/>
-      <c r="H45" s="130"/>
-      <c r="I45" s="130"/>
+      <c r="C45" s="123"/>
+      <c r="D45" s="123"/>
+      <c r="E45" s="123"/>
+      <c r="F45" s="123"/>
+      <c r="G45" s="123"/>
+      <c r="H45" s="123"/>
+      <c r="I45" s="123"/>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B46" s="178" t="s">
+      <c r="B46" s="167" t="s">
         <v>61</v>
       </c>
-      <c r="C46" s="178"/>
-      <c r="D46" s="178"/>
-      <c r="E46" s="178"/>
-      <c r="F46" s="178"/>
-      <c r="G46" s="178"/>
-      <c r="H46" s="178"/>
-      <c r="I46" s="178"/>
+      <c r="C46" s="167"/>
+      <c r="D46" s="167"/>
+      <c r="E46" s="167"/>
+      <c r="F46" s="167"/>
+      <c r="G46" s="167"/>
+      <c r="H46" s="167"/>
+      <c r="I46" s="167"/>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B47" s="178"/>
-      <c r="C47" s="178"/>
-      <c r="D47" s="178"/>
-      <c r="E47" s="178"/>
-      <c r="F47" s="178"/>
-      <c r="G47" s="178"/>
-      <c r="H47" s="178"/>
-      <c r="I47" s="178"/>
+      <c r="B47" s="167"/>
+      <c r="C47" s="167"/>
+      <c r="D47" s="167"/>
+      <c r="E47" s="167"/>
+      <c r="F47" s="167"/>
+      <c r="G47" s="167"/>
+      <c r="H47" s="167"/>
+      <c r="I47" s="167"/>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B48" s="178"/>
-      <c r="C48" s="178"/>
-      <c r="D48" s="178"/>
-      <c r="E48" s="178"/>
-      <c r="F48" s="178"/>
-      <c r="G48" s="178"/>
-      <c r="H48" s="178"/>
-      <c r="I48" s="178"/>
+      <c r="B48" s="167"/>
+      <c r="C48" s="167"/>
+      <c r="D48" s="167"/>
+      <c r="E48" s="167"/>
+      <c r="F48" s="167"/>
+      <c r="G48" s="167"/>
+      <c r="H48" s="167"/>
+      <c r="I48" s="167"/>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" s="12" t="s">
@@ -12724,16 +12727,16 @@
       <c r="D57" s="15"/>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B59" s="130" t="s">
+      <c r="B59" s="123" t="s">
         <v>64</v>
       </c>
-      <c r="C59" s="130"/>
-      <c r="D59" s="130"/>
-      <c r="E59" s="130"/>
-      <c r="F59" s="130"/>
-      <c r="G59" s="130"/>
-      <c r="H59" s="130"/>
-      <c r="I59" s="130"/>
+      <c r="C59" s="123"/>
+      <c r="D59" s="123"/>
+      <c r="E59" s="123"/>
+      <c r="F59" s="123"/>
+      <c r="G59" s="123"/>
+      <c r="H59" s="123"/>
+      <c r="I59" s="123"/>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C60" t="s">
@@ -12747,16 +12750,16 @@
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B62" s="130" t="s">
+      <c r="B62" s="123" t="s">
         <v>68</v>
       </c>
-      <c r="C62" s="130"/>
-      <c r="D62" s="130"/>
-      <c r="E62" s="130"/>
-      <c r="F62" s="130"/>
-      <c r="G62" s="130"/>
-      <c r="H62" s="130"/>
-      <c r="I62" s="130"/>
+      <c r="C62" s="123"/>
+      <c r="D62" s="123"/>
+      <c r="E62" s="123"/>
+      <c r="F62" s="123"/>
+      <c r="G62" s="123"/>
+      <c r="H62" s="123"/>
+      <c r="I62" s="123"/>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64" s="12" t="s">
@@ -12779,221 +12782,234 @@
       <c r="B67" s="1"/>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B68" s="178" t="s">
+      <c r="B68" s="167" t="s">
         <v>73</v>
       </c>
-      <c r="C68" s="178"/>
-      <c r="D68" s="178"/>
-      <c r="E68" s="178"/>
-      <c r="F68" s="178"/>
-      <c r="G68" s="178"/>
-      <c r="H68" s="178"/>
-      <c r="I68" s="178"/>
+      <c r="C68" s="167"/>
+      <c r="D68" s="167"/>
+      <c r="E68" s="167"/>
+      <c r="F68" s="167"/>
+      <c r="G68" s="167"/>
+      <c r="H68" s="167"/>
+      <c r="I68" s="167"/>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B69" s="178"/>
-      <c r="C69" s="178"/>
-      <c r="D69" s="178"/>
-      <c r="E69" s="178"/>
-      <c r="F69" s="178"/>
-      <c r="G69" s="178"/>
-      <c r="H69" s="178"/>
-      <c r="I69" s="178"/>
+      <c r="B69" s="167"/>
+      <c r="C69" s="167"/>
+      <c r="D69" s="167"/>
+      <c r="E69" s="167"/>
+      <c r="F69" s="167"/>
+      <c r="G69" s="167"/>
+      <c r="H69" s="167"/>
+      <c r="I69" s="167"/>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B71" s="247"/>
-      <c r="C71" s="248"/>
-      <c r="D71" s="251" t="s">
+      <c r="B71" s="254"/>
+      <c r="C71" s="255"/>
+      <c r="D71" s="258" t="s">
         <v>74</v>
       </c>
-      <c r="E71" s="252"/>
-      <c r="F71" s="251" t="s">
+      <c r="E71" s="259"/>
+      <c r="F71" s="258" t="s">
         <v>75</v>
       </c>
-      <c r="G71" s="252"/>
-      <c r="H71" s="251" t="s">
+      <c r="G71" s="259"/>
+      <c r="H71" s="258" t="s">
         <v>76</v>
       </c>
-      <c r="I71" s="252"/>
+      <c r="I71" s="259"/>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B72" s="249"/>
-      <c r="C72" s="250"/>
-      <c r="D72" s="253"/>
-      <c r="E72" s="254"/>
-      <c r="F72" s="253"/>
-      <c r="G72" s="254"/>
-      <c r="H72" s="253"/>
-      <c r="I72" s="254"/>
+      <c r="B72" s="256"/>
+      <c r="C72" s="257"/>
+      <c r="D72" s="260"/>
+      <c r="E72" s="261"/>
+      <c r="F72" s="260"/>
+      <c r="G72" s="261"/>
+      <c r="H72" s="260"/>
+      <c r="I72" s="261"/>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B73" s="258" t="s">
+      <c r="B73" s="250" t="s">
         <v>77</v>
       </c>
-      <c r="C73" s="259"/>
-      <c r="D73" s="255"/>
-      <c r="E73" s="256"/>
-      <c r="F73" s="257"/>
-      <c r="G73" s="256"/>
-      <c r="H73" s="257"/>
-      <c r="I73" s="256"/>
+      <c r="C73" s="251"/>
+      <c r="D73" s="247"/>
+      <c r="E73" s="248"/>
+      <c r="F73" s="249"/>
+      <c r="G73" s="248"/>
+      <c r="H73" s="249"/>
+      <c r="I73" s="248"/>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B75" s="178" t="s">
+      <c r="B75" s="167" t="s">
         <v>78</v>
       </c>
-      <c r="C75" s="178"/>
-      <c r="D75" s="178"/>
-      <c r="E75" s="178"/>
-      <c r="F75" s="178"/>
-      <c r="G75" s="178"/>
-      <c r="H75" s="178"/>
-      <c r="I75" s="178"/>
+      <c r="C75" s="167"/>
+      <c r="D75" s="167"/>
+      <c r="E75" s="167"/>
+      <c r="F75" s="167"/>
+      <c r="G75" s="167"/>
+      <c r="H75" s="167"/>
+      <c r="I75" s="167"/>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B76" s="178"/>
-      <c r="C76" s="178"/>
-      <c r="D76" s="178"/>
-      <c r="E76" s="178"/>
-      <c r="F76" s="178"/>
-      <c r="G76" s="178"/>
-      <c r="H76" s="178"/>
-      <c r="I76" s="178"/>
+      <c r="B76" s="167"/>
+      <c r="C76" s="167"/>
+      <c r="D76" s="167"/>
+      <c r="E76" s="167"/>
+      <c r="F76" s="167"/>
+      <c r="G76" s="167"/>
+      <c r="H76" s="167"/>
+      <c r="I76" s="167"/>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B78" t="s">
         <v>79</v>
       </c>
-      <c r="E78" s="260" t="s">
+      <c r="E78" s="252" t="s">
         <v>81</v>
       </c>
-      <c r="F78" s="261"/>
-      <c r="G78" s="261"/>
-      <c r="H78" s="261"/>
+      <c r="F78" s="253"/>
+      <c r="G78" s="253"/>
+      <c r="H78" s="253"/>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B79" t="s">
         <v>80</v>
       </c>
-      <c r="E79" s="261"/>
-      <c r="F79" s="261"/>
-      <c r="G79" s="261"/>
-      <c r="H79" s="261"/>
+      <c r="E79" s="253"/>
+      <c r="F79" s="253"/>
+      <c r="G79" s="253"/>
+      <c r="H79" s="253"/>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A81" s="131" t="s">
+      <c r="A81" s="127" t="s">
         <v>82</v>
       </c>
-      <c r="B81" s="131"/>
-      <c r="C81" s="131"/>
-      <c r="D81" s="131"/>
-      <c r="E81" s="131"/>
-      <c r="F81" s="131"/>
-      <c r="G81" s="131"/>
-      <c r="H81" s="131"/>
-      <c r="I81" s="131"/>
+      <c r="B81" s="127"/>
+      <c r="C81" s="127"/>
+      <c r="D81" s="127"/>
+      <c r="E81" s="127"/>
+      <c r="F81" s="127"/>
+      <c r="G81" s="127"/>
+      <c r="H81" s="127"/>
+      <c r="I81" s="127"/>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A82" s="131"/>
-      <c r="B82" s="131"/>
-      <c r="C82" s="131"/>
-      <c r="D82" s="131"/>
-      <c r="E82" s="131"/>
-      <c r="F82" s="131"/>
-      <c r="G82" s="131"/>
-      <c r="H82" s="131"/>
-      <c r="I82" s="131"/>
+      <c r="A82" s="127"/>
+      <c r="B82" s="127"/>
+      <c r="C82" s="127"/>
+      <c r="D82" s="127"/>
+      <c r="E82" s="127"/>
+      <c r="F82" s="127"/>
+      <c r="G82" s="127"/>
+      <c r="H82" s="127"/>
+      <c r="I82" s="127"/>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A83" s="131"/>
-      <c r="B83" s="131"/>
-      <c r="C83" s="131"/>
-      <c r="D83" s="131"/>
-      <c r="E83" s="131"/>
-      <c r="F83" s="131"/>
-      <c r="G83" s="131"/>
-      <c r="H83" s="131"/>
-      <c r="I83" s="131"/>
+      <c r="A83" s="127"/>
+      <c r="B83" s="127"/>
+      <c r="C83" s="127"/>
+      <c r="D83" s="127"/>
+      <c r="E83" s="127"/>
+      <c r="F83" s="127"/>
+      <c r="G83" s="127"/>
+      <c r="H83" s="127"/>
+      <c r="I83" s="127"/>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A84" s="131"/>
-      <c r="B84" s="131"/>
-      <c r="C84" s="131"/>
-      <c r="D84" s="131"/>
-      <c r="E84" s="131"/>
-      <c r="F84" s="131"/>
-      <c r="G84" s="131"/>
-      <c r="H84" s="131"/>
-      <c r="I84" s="131"/>
+      <c r="A84" s="127"/>
+      <c r="B84" s="127"/>
+      <c r="C84" s="127"/>
+      <c r="D84" s="127"/>
+      <c r="E84" s="127"/>
+      <c r="F84" s="127"/>
+      <c r="G84" s="127"/>
+      <c r="H84" s="127"/>
+      <c r="I84" s="127"/>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A85" s="131"/>
-      <c r="B85" s="131"/>
-      <c r="C85" s="131"/>
-      <c r="D85" s="131"/>
-      <c r="E85" s="131"/>
-      <c r="F85" s="131"/>
-      <c r="G85" s="131"/>
-      <c r="H85" s="131"/>
-      <c r="I85" s="131"/>
+      <c r="A85" s="127"/>
+      <c r="B85" s="127"/>
+      <c r="C85" s="127"/>
+      <c r="D85" s="127"/>
+      <c r="E85" s="127"/>
+      <c r="F85" s="127"/>
+      <c r="G85" s="127"/>
+      <c r="H85" s="127"/>
+      <c r="I85" s="127"/>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A86" s="131"/>
-      <c r="B86" s="131"/>
-      <c r="C86" s="131"/>
-      <c r="D86" s="131"/>
-      <c r="E86" s="131"/>
-      <c r="F86" s="131"/>
-      <c r="G86" s="131"/>
-      <c r="H86" s="131"/>
-      <c r="I86" s="131"/>
+      <c r="A86" s="127"/>
+      <c r="B86" s="127"/>
+      <c r="C86" s="127"/>
+      <c r="D86" s="127"/>
+      <c r="E86" s="127"/>
+      <c r="F86" s="127"/>
+      <c r="G86" s="127"/>
+      <c r="H86" s="127"/>
+      <c r="I86" s="127"/>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A87" s="131"/>
-      <c r="B87" s="131"/>
-      <c r="C87" s="131"/>
-      <c r="D87" s="131"/>
-      <c r="E87" s="131"/>
-      <c r="F87" s="131"/>
-      <c r="G87" s="131"/>
-      <c r="H87" s="131"/>
-      <c r="I87" s="131"/>
+      <c r="A87" s="127"/>
+      <c r="B87" s="127"/>
+      <c r="C87" s="127"/>
+      <c r="D87" s="127"/>
+      <c r="E87" s="127"/>
+      <c r="F87" s="127"/>
+      <c r="G87" s="127"/>
+      <c r="H87" s="127"/>
+      <c r="I87" s="127"/>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A88" s="131"/>
-      <c r="B88" s="131"/>
-      <c r="C88" s="131"/>
-      <c r="D88" s="131"/>
-      <c r="E88" s="131"/>
-      <c r="F88" s="131"/>
-      <c r="G88" s="131"/>
-      <c r="H88" s="131"/>
-      <c r="I88" s="131"/>
+      <c r="A88" s="127"/>
+      <c r="B88" s="127"/>
+      <c r="C88" s="127"/>
+      <c r="D88" s="127"/>
+      <c r="E88" s="127"/>
+      <c r="F88" s="127"/>
+      <c r="G88" s="127"/>
+      <c r="H88" s="127"/>
+      <c r="I88" s="127"/>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A89" s="131"/>
-      <c r="B89" s="131"/>
-      <c r="C89" s="131"/>
-      <c r="D89" s="131"/>
-      <c r="E89" s="131"/>
-      <c r="F89" s="131"/>
-      <c r="G89" s="131"/>
-      <c r="H89" s="131"/>
-      <c r="I89" s="131"/>
+      <c r="A89" s="127"/>
+      <c r="B89" s="127"/>
+      <c r="C89" s="127"/>
+      <c r="D89" s="127"/>
+      <c r="E89" s="127"/>
+      <c r="F89" s="127"/>
+      <c r="G89" s="127"/>
+      <c r="H89" s="127"/>
+      <c r="I89" s="127"/>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A90" s="131"/>
-      <c r="B90" s="131"/>
-      <c r="C90" s="131"/>
-      <c r="D90" s="131"/>
-      <c r="E90" s="131"/>
-      <c r="F90" s="131"/>
-      <c r="G90" s="131"/>
-      <c r="H90" s="131"/>
-      <c r="I90" s="131"/>
+      <c r="A90" s="127"/>
+      <c r="B90" s="127"/>
+      <c r="C90" s="127"/>
+      <c r="D90" s="127"/>
+      <c r="E90" s="127"/>
+      <c r="F90" s="127"/>
+      <c r="G90" s="127"/>
+      <c r="H90" s="127"/>
+      <c r="I90" s="127"/>
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="B46:I48"/>
+    <mergeCell ref="A15:I16"/>
+    <mergeCell ref="C21:I21"/>
+    <mergeCell ref="C24:I24"/>
+    <mergeCell ref="B31:I31"/>
+    <mergeCell ref="B45:I45"/>
+    <mergeCell ref="B59:I59"/>
+    <mergeCell ref="B62:I62"/>
+    <mergeCell ref="B68:I69"/>
+    <mergeCell ref="B71:C72"/>
+    <mergeCell ref="D71:E72"/>
+    <mergeCell ref="F71:G72"/>
+    <mergeCell ref="H71:I72"/>
     <mergeCell ref="A81:I90"/>
     <mergeCell ref="D73:E73"/>
     <mergeCell ref="F73:G73"/>
@@ -13001,19 +13017,6 @@
     <mergeCell ref="B73:C73"/>
     <mergeCell ref="B75:I76"/>
     <mergeCell ref="E78:H79"/>
-    <mergeCell ref="B59:I59"/>
-    <mergeCell ref="B62:I62"/>
-    <mergeCell ref="B68:I69"/>
-    <mergeCell ref="B71:C72"/>
-    <mergeCell ref="D71:E72"/>
-    <mergeCell ref="F71:G72"/>
-    <mergeCell ref="H71:I72"/>
-    <mergeCell ref="B46:I48"/>
-    <mergeCell ref="A15:I16"/>
-    <mergeCell ref="C21:I21"/>
-    <mergeCell ref="C24:I24"/>
-    <mergeCell ref="B31:I31"/>
-    <mergeCell ref="B45:I45"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -13038,7 +13041,7 @@
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <f ca="1">TODAY()</f>
-        <v>45281</v>
+        <v>45306</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
@@ -13075,28 +13078,28 @@
       <c r="G13" s="11"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="178" t="s">
+      <c r="A15" s="167" t="s">
         <v>42</v>
       </c>
-      <c r="B15" s="178"/>
-      <c r="C15" s="178"/>
-      <c r="D15" s="178"/>
-      <c r="E15" s="178"/>
-      <c r="F15" s="178"/>
-      <c r="G15" s="178"/>
-      <c r="H15" s="178"/>
-      <c r="I15" s="178"/>
+      <c r="B15" s="167"/>
+      <c r="C15" s="167"/>
+      <c r="D15" s="167"/>
+      <c r="E15" s="167"/>
+      <c r="F15" s="167"/>
+      <c r="G15" s="167"/>
+      <c r="H15" s="167"/>
+      <c r="I15" s="167"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="178"/>
-      <c r="B16" s="178"/>
-      <c r="C16" s="178"/>
-      <c r="D16" s="178"/>
-      <c r="E16" s="178"/>
-      <c r="F16" s="178"/>
-      <c r="G16" s="178"/>
-      <c r="H16" s="178"/>
-      <c r="I16" s="178"/>
+      <c r="A16" s="167"/>
+      <c r="B16" s="167"/>
+      <c r="C16" s="167"/>
+      <c r="D16" s="167"/>
+      <c r="E16" s="167"/>
+      <c r="F16" s="167"/>
+      <c r="G16" s="167"/>
+      <c r="H16" s="167"/>
+      <c r="I16" s="167"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="13" t="s">
@@ -13123,15 +13126,15 @@
       <c r="B21" t="s">
         <v>15</v>
       </c>
-      <c r="C21" s="130" t="s">
+      <c r="C21" s="123" t="s">
         <v>46</v>
       </c>
-      <c r="D21" s="130"/>
-      <c r="E21" s="130"/>
-      <c r="F21" s="130"/>
-      <c r="G21" s="130"/>
-      <c r="H21" s="130"/>
-      <c r="I21" s="130"/>
+      <c r="D21" s="123"/>
+      <c r="E21" s="123"/>
+      <c r="F21" s="123"/>
+      <c r="G21" s="123"/>
+      <c r="H21" s="123"/>
+      <c r="I21" s="123"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="12"/>
@@ -13156,15 +13159,15 @@
       <c r="B24" t="s">
         <v>15</v>
       </c>
-      <c r="C24" s="130" t="s">
+      <c r="C24" s="123" t="s">
         <v>49</v>
       </c>
-      <c r="D24" s="130"/>
-      <c r="E24" s="130"/>
-      <c r="F24" s="130"/>
-      <c r="G24" s="130"/>
-      <c r="H24" s="130"/>
-      <c r="I24" s="130"/>
+      <c r="D24" s="123"/>
+      <c r="E24" s="123"/>
+      <c r="F24" s="123"/>
+      <c r="G24" s="123"/>
+      <c r="H24" s="123"/>
+      <c r="I24" s="123"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="12"/>
@@ -13205,16 +13208,16 @@
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="12"/>
-      <c r="B31" s="130" t="s">
+      <c r="B31" s="123" t="s">
         <v>55</v>
       </c>
-      <c r="C31" s="130"/>
-      <c r="D31" s="130"/>
-      <c r="E31" s="130"/>
-      <c r="F31" s="130"/>
-      <c r="G31" s="130"/>
-      <c r="H31" s="130"/>
-      <c r="I31" s="130"/>
+      <c r="C31" s="123"/>
+      <c r="D31" s="123"/>
+      <c r="E31" s="123"/>
+      <c r="F31" s="123"/>
+      <c r="G31" s="123"/>
+      <c r="H31" s="123"/>
+      <c r="I31" s="123"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="12"/>
@@ -13304,48 +13307,48 @@
       <c r="D43" s="15"/>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B45" s="130" t="s">
+      <c r="B45" s="123" t="s">
         <v>60</v>
       </c>
-      <c r="C45" s="130"/>
-      <c r="D45" s="130"/>
-      <c r="E45" s="130"/>
-      <c r="F45" s="130"/>
-      <c r="G45" s="130"/>
-      <c r="H45" s="130"/>
-      <c r="I45" s="130"/>
+      <c r="C45" s="123"/>
+      <c r="D45" s="123"/>
+      <c r="E45" s="123"/>
+      <c r="F45" s="123"/>
+      <c r="G45" s="123"/>
+      <c r="H45" s="123"/>
+      <c r="I45" s="123"/>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B46" s="178" t="s">
+      <c r="B46" s="167" t="s">
         <v>61</v>
       </c>
-      <c r="C46" s="178"/>
-      <c r="D46" s="178"/>
-      <c r="E46" s="178"/>
-      <c r="F46" s="178"/>
-      <c r="G46" s="178"/>
-      <c r="H46" s="178"/>
-      <c r="I46" s="178"/>
+      <c r="C46" s="167"/>
+      <c r="D46" s="167"/>
+      <c r="E46" s="167"/>
+      <c r="F46" s="167"/>
+      <c r="G46" s="167"/>
+      <c r="H46" s="167"/>
+      <c r="I46" s="167"/>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B47" s="178"/>
-      <c r="C47" s="178"/>
-      <c r="D47" s="178"/>
-      <c r="E47" s="178"/>
-      <c r="F47" s="178"/>
-      <c r="G47" s="178"/>
-      <c r="H47" s="178"/>
-      <c r="I47" s="178"/>
+      <c r="B47" s="167"/>
+      <c r="C47" s="167"/>
+      <c r="D47" s="167"/>
+      <c r="E47" s="167"/>
+      <c r="F47" s="167"/>
+      <c r="G47" s="167"/>
+      <c r="H47" s="167"/>
+      <c r="I47" s="167"/>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B48" s="178"/>
-      <c r="C48" s="178"/>
-      <c r="D48" s="178"/>
-      <c r="E48" s="178"/>
-      <c r="F48" s="178"/>
-      <c r="G48" s="178"/>
-      <c r="H48" s="178"/>
-      <c r="I48" s="178"/>
+      <c r="B48" s="167"/>
+      <c r="C48" s="167"/>
+      <c r="D48" s="167"/>
+      <c r="E48" s="167"/>
+      <c r="F48" s="167"/>
+      <c r="G48" s="167"/>
+      <c r="H48" s="167"/>
+      <c r="I48" s="167"/>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" s="12" t="s">
@@ -13358,16 +13361,16 @@
       <c r="D57" s="15"/>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B59" s="130" t="s">
+      <c r="B59" s="123" t="s">
         <v>64</v>
       </c>
-      <c r="C59" s="130"/>
-      <c r="D59" s="130"/>
-      <c r="E59" s="130"/>
-      <c r="F59" s="130"/>
-      <c r="G59" s="130"/>
-      <c r="H59" s="130"/>
-      <c r="I59" s="130"/>
+      <c r="C59" s="123"/>
+      <c r="D59" s="123"/>
+      <c r="E59" s="123"/>
+      <c r="F59" s="123"/>
+      <c r="G59" s="123"/>
+      <c r="H59" s="123"/>
+      <c r="I59" s="123"/>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C60" t="s">
@@ -13381,16 +13384,16 @@
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B62" s="130" t="s">
+      <c r="B62" s="123" t="s">
         <v>68</v>
       </c>
-      <c r="C62" s="130"/>
-      <c r="D62" s="130"/>
-      <c r="E62" s="130"/>
-      <c r="F62" s="130"/>
-      <c r="G62" s="130"/>
-      <c r="H62" s="130"/>
-      <c r="I62" s="130"/>
+      <c r="C62" s="123"/>
+      <c r="D62" s="123"/>
+      <c r="E62" s="123"/>
+      <c r="F62" s="123"/>
+      <c r="G62" s="123"/>
+      <c r="H62" s="123"/>
+      <c r="I62" s="123"/>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64" s="12" t="s">
@@ -13413,227 +13416,228 @@
       <c r="B67" s="1"/>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B68" s="178" t="s">
+      <c r="B68" s="167" t="s">
         <v>73</v>
       </c>
-      <c r="C68" s="178"/>
-      <c r="D68" s="178"/>
-      <c r="E68" s="178"/>
-      <c r="F68" s="178"/>
-      <c r="G68" s="178"/>
-      <c r="H68" s="178"/>
-      <c r="I68" s="178"/>
+      <c r="C68" s="167"/>
+      <c r="D68" s="167"/>
+      <c r="E68" s="167"/>
+      <c r="F68" s="167"/>
+      <c r="G68" s="167"/>
+      <c r="H68" s="167"/>
+      <c r="I68" s="167"/>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B69" s="178"/>
-      <c r="C69" s="178"/>
-      <c r="D69" s="178"/>
-      <c r="E69" s="178"/>
-      <c r="F69" s="178"/>
-      <c r="G69" s="178"/>
-      <c r="H69" s="178"/>
-      <c r="I69" s="178"/>
+      <c r="B69" s="167"/>
+      <c r="C69" s="167"/>
+      <c r="D69" s="167"/>
+      <c r="E69" s="167"/>
+      <c r="F69" s="167"/>
+      <c r="G69" s="167"/>
+      <c r="H69" s="167"/>
+      <c r="I69" s="167"/>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B71" s="247"/>
-      <c r="C71" s="248"/>
-      <c r="D71" s="251" t="s">
+      <c r="B71" s="254"/>
+      <c r="C71" s="255"/>
+      <c r="D71" s="258" t="s">
         <v>74</v>
       </c>
-      <c r="E71" s="252"/>
-      <c r="F71" s="251" t="s">
+      <c r="E71" s="259"/>
+      <c r="F71" s="258" t="s">
         <v>75</v>
       </c>
-      <c r="G71" s="252"/>
-      <c r="H71" s="251" t="s">
+      <c r="G71" s="259"/>
+      <c r="H71" s="258" t="s">
         <v>76</v>
       </c>
-      <c r="I71" s="252"/>
+      <c r="I71" s="259"/>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B72" s="249"/>
-      <c r="C72" s="250"/>
-      <c r="D72" s="253"/>
-      <c r="E72" s="254"/>
-      <c r="F72" s="253"/>
-      <c r="G72" s="254"/>
-      <c r="H72" s="253"/>
-      <c r="I72" s="254"/>
+      <c r="B72" s="256"/>
+      <c r="C72" s="257"/>
+      <c r="D72" s="260"/>
+      <c r="E72" s="261"/>
+      <c r="F72" s="260"/>
+      <c r="G72" s="261"/>
+      <c r="H72" s="260"/>
+      <c r="I72" s="261"/>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B73" s="258" t="s">
+      <c r="B73" s="250" t="s">
         <v>77</v>
       </c>
-      <c r="C73" s="259"/>
-      <c r="D73" s="255"/>
-      <c r="E73" s="256"/>
-      <c r="F73" s="257"/>
-      <c r="G73" s="256"/>
-      <c r="H73" s="257"/>
-      <c r="I73" s="256"/>
+      <c r="C73" s="251"/>
+      <c r="D73" s="247"/>
+      <c r="E73" s="248"/>
+      <c r="F73" s="249"/>
+      <c r="G73" s="248"/>
+      <c r="H73" s="249"/>
+      <c r="I73" s="248"/>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B75" s="178" t="s">
+      <c r="B75" s="167" t="s">
         <v>78</v>
       </c>
-      <c r="C75" s="178"/>
-      <c r="D75" s="178"/>
-      <c r="E75" s="178"/>
-      <c r="F75" s="178"/>
-      <c r="G75" s="178"/>
-      <c r="H75" s="178"/>
-      <c r="I75" s="178"/>
+      <c r="C75" s="167"/>
+      <c r="D75" s="167"/>
+      <c r="E75" s="167"/>
+      <c r="F75" s="167"/>
+      <c r="G75" s="167"/>
+      <c r="H75" s="167"/>
+      <c r="I75" s="167"/>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B76" s="178"/>
-      <c r="C76" s="178"/>
-      <c r="D76" s="178"/>
-      <c r="E76" s="178"/>
-      <c r="F76" s="178"/>
-      <c r="G76" s="178"/>
-      <c r="H76" s="178"/>
-      <c r="I76" s="178"/>
+      <c r="B76" s="167"/>
+      <c r="C76" s="167"/>
+      <c r="D76" s="167"/>
+      <c r="E76" s="167"/>
+      <c r="F76" s="167"/>
+      <c r="G76" s="167"/>
+      <c r="H76" s="167"/>
+      <c r="I76" s="167"/>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B78" t="s">
         <v>79</v>
       </c>
-      <c r="E78" s="260" t="s">
+      <c r="E78" s="252" t="s">
         <v>81</v>
       </c>
-      <c r="F78" s="261"/>
-      <c r="G78" s="261"/>
-      <c r="H78" s="261"/>
+      <c r="F78" s="253"/>
+      <c r="G78" s="253"/>
+      <c r="H78" s="253"/>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B79" t="s">
         <v>80</v>
       </c>
-      <c r="E79" s="261"/>
-      <c r="F79" s="261"/>
-      <c r="G79" s="261"/>
-      <c r="H79" s="261"/>
+      <c r="E79" s="253"/>
+      <c r="F79" s="253"/>
+      <c r="G79" s="253"/>
+      <c r="H79" s="253"/>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A81" s="131" t="s">
+      <c r="A81" s="127" t="s">
         <v>82</v>
       </c>
-      <c r="B81" s="131"/>
-      <c r="C81" s="131"/>
-      <c r="D81" s="131"/>
-      <c r="E81" s="131"/>
-      <c r="F81" s="131"/>
-      <c r="G81" s="131"/>
-      <c r="H81" s="131"/>
-      <c r="I81" s="131"/>
+      <c r="B81" s="127"/>
+      <c r="C81" s="127"/>
+      <c r="D81" s="127"/>
+      <c r="E81" s="127"/>
+      <c r="F81" s="127"/>
+      <c r="G81" s="127"/>
+      <c r="H81" s="127"/>
+      <c r="I81" s="127"/>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A82" s="131"/>
-      <c r="B82" s="131"/>
-      <c r="C82" s="131"/>
-      <c r="D82" s="131"/>
-      <c r="E82" s="131"/>
-      <c r="F82" s="131"/>
-      <c r="G82" s="131"/>
-      <c r="H82" s="131"/>
-      <c r="I82" s="131"/>
+      <c r="A82" s="127"/>
+      <c r="B82" s="127"/>
+      <c r="C82" s="127"/>
+      <c r="D82" s="127"/>
+      <c r="E82" s="127"/>
+      <c r="F82" s="127"/>
+      <c r="G82" s="127"/>
+      <c r="H82" s="127"/>
+      <c r="I82" s="127"/>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A83" s="131"/>
-      <c r="B83" s="131"/>
-      <c r="C83" s="131"/>
-      <c r="D83" s="131"/>
-      <c r="E83" s="131"/>
-      <c r="F83" s="131"/>
-      <c r="G83" s="131"/>
-      <c r="H83" s="131"/>
-      <c r="I83" s="131"/>
+      <c r="A83" s="127"/>
+      <c r="B83" s="127"/>
+      <c r="C83" s="127"/>
+      <c r="D83" s="127"/>
+      <c r="E83" s="127"/>
+      <c r="F83" s="127"/>
+      <c r="G83" s="127"/>
+      <c r="H83" s="127"/>
+      <c r="I83" s="127"/>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A84" s="131"/>
-      <c r="B84" s="131"/>
-      <c r="C84" s="131"/>
-      <c r="D84" s="131"/>
-      <c r="E84" s="131"/>
-      <c r="F84" s="131"/>
-      <c r="G84" s="131"/>
-      <c r="H84" s="131"/>
-      <c r="I84" s="131"/>
+      <c r="A84" s="127"/>
+      <c r="B84" s="127"/>
+      <c r="C84" s="127"/>
+      <c r="D84" s="127"/>
+      <c r="E84" s="127"/>
+      <c r="F84" s="127"/>
+      <c r="G84" s="127"/>
+      <c r="H84" s="127"/>
+      <c r="I84" s="127"/>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A85" s="131"/>
-      <c r="B85" s="131"/>
-      <c r="C85" s="131"/>
-      <c r="D85" s="131"/>
-      <c r="E85" s="131"/>
-      <c r="F85" s="131"/>
-      <c r="G85" s="131"/>
-      <c r="H85" s="131"/>
-      <c r="I85" s="131"/>
+      <c r="A85" s="127"/>
+      <c r="B85" s="127"/>
+      <c r="C85" s="127"/>
+      <c r="D85" s="127"/>
+      <c r="E85" s="127"/>
+      <c r="F85" s="127"/>
+      <c r="G85" s="127"/>
+      <c r="H85" s="127"/>
+      <c r="I85" s="127"/>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A86" s="131"/>
-      <c r="B86" s="131"/>
-      <c r="C86" s="131"/>
-      <c r="D86" s="131"/>
-      <c r="E86" s="131"/>
-      <c r="F86" s="131"/>
-      <c r="G86" s="131"/>
-      <c r="H86" s="131"/>
-      <c r="I86" s="131"/>
+      <c r="A86" s="127"/>
+      <c r="B86" s="127"/>
+      <c r="C86" s="127"/>
+      <c r="D86" s="127"/>
+      <c r="E86" s="127"/>
+      <c r="F86" s="127"/>
+      <c r="G86" s="127"/>
+      <c r="H86" s="127"/>
+      <c r="I86" s="127"/>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A87" s="131"/>
-      <c r="B87" s="131"/>
-      <c r="C87" s="131"/>
-      <c r="D87" s="131"/>
-      <c r="E87" s="131"/>
-      <c r="F87" s="131"/>
-      <c r="G87" s="131"/>
-      <c r="H87" s="131"/>
-      <c r="I87" s="131"/>
+      <c r="A87" s="127"/>
+      <c r="B87" s="127"/>
+      <c r="C87" s="127"/>
+      <c r="D87" s="127"/>
+      <c r="E87" s="127"/>
+      <c r="F87" s="127"/>
+      <c r="G87" s="127"/>
+      <c r="H87" s="127"/>
+      <c r="I87" s="127"/>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A88" s="131"/>
-      <c r="B88" s="131"/>
-      <c r="C88" s="131"/>
-      <c r="D88" s="131"/>
-      <c r="E88" s="131"/>
-      <c r="F88" s="131"/>
-      <c r="G88" s="131"/>
-      <c r="H88" s="131"/>
-      <c r="I88" s="131"/>
+      <c r="A88" s="127"/>
+      <c r="B88" s="127"/>
+      <c r="C88" s="127"/>
+      <c r="D88" s="127"/>
+      <c r="E88" s="127"/>
+      <c r="F88" s="127"/>
+      <c r="G88" s="127"/>
+      <c r="H88" s="127"/>
+      <c r="I88" s="127"/>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A89" s="131"/>
-      <c r="B89" s="131"/>
-      <c r="C89" s="131"/>
-      <c r="D89" s="131"/>
-      <c r="E89" s="131"/>
-      <c r="F89" s="131"/>
-      <c r="G89" s="131"/>
-      <c r="H89" s="131"/>
-      <c r="I89" s="131"/>
+      <c r="A89" s="127"/>
+      <c r="B89" s="127"/>
+      <c r="C89" s="127"/>
+      <c r="D89" s="127"/>
+      <c r="E89" s="127"/>
+      <c r="F89" s="127"/>
+      <c r="G89" s="127"/>
+      <c r="H89" s="127"/>
+      <c r="I89" s="127"/>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A90" s="131"/>
-      <c r="B90" s="131"/>
-      <c r="C90" s="131"/>
-      <c r="D90" s="131"/>
-      <c r="E90" s="131"/>
-      <c r="F90" s="131"/>
-      <c r="G90" s="131"/>
-      <c r="H90" s="131"/>
-      <c r="I90" s="131"/>
+      <c r="A90" s="127"/>
+      <c r="B90" s="127"/>
+      <c r="C90" s="127"/>
+      <c r="D90" s="127"/>
+      <c r="E90" s="127"/>
+      <c r="F90" s="127"/>
+      <c r="G90" s="127"/>
+      <c r="H90" s="127"/>
+      <c r="I90" s="127"/>
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="B46:I48"/>
-    <mergeCell ref="A15:I16"/>
-    <mergeCell ref="C21:I21"/>
-    <mergeCell ref="C24:I24"/>
-    <mergeCell ref="B31:I31"/>
-    <mergeCell ref="B45:I45"/>
+    <mergeCell ref="A81:I90"/>
+    <mergeCell ref="B73:C73"/>
+    <mergeCell ref="D73:E73"/>
+    <mergeCell ref="F73:G73"/>
+    <mergeCell ref="H73:I73"/>
+    <mergeCell ref="B75:I76"/>
+    <mergeCell ref="E78:H79"/>
     <mergeCell ref="B59:I59"/>
     <mergeCell ref="B62:I62"/>
     <mergeCell ref="B68:I69"/>
@@ -13641,13 +13645,12 @@
     <mergeCell ref="D71:E72"/>
     <mergeCell ref="F71:G72"/>
     <mergeCell ref="H71:I72"/>
-    <mergeCell ref="A81:I90"/>
-    <mergeCell ref="B73:C73"/>
-    <mergeCell ref="D73:E73"/>
-    <mergeCell ref="F73:G73"/>
-    <mergeCell ref="H73:I73"/>
-    <mergeCell ref="B75:I76"/>
-    <mergeCell ref="E78:H79"/>
+    <mergeCell ref="B46:I48"/>
+    <mergeCell ref="A15:I16"/>
+    <mergeCell ref="C21:I21"/>
+    <mergeCell ref="C24:I24"/>
+    <mergeCell ref="B31:I31"/>
+    <mergeCell ref="B45:I45"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
